--- a/experiments/IISBMP1/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP1/data/biogas_and_setup.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Dropbox\Grav2 BMP\analysis\IISBMP1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\GD-BMP\experiments\IISBMP1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88F57564-8CAD-4625-8FCC-7D4A411F7188}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163AE09-A485-481C-BAE3-DB35BEE3D178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="8196" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="VPM" sheetId="2" r:id="rId2"/>
     <sheet name="ChangeLog" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="226">
   <si>
     <t>Experiment</t>
   </si>
@@ -720,6 +725,15 @@
   </si>
   <si>
     <t>Added "notes" header in 2nd header in setup sheet</t>
+  </si>
+  <si>
+    <t>13 Feb 2019</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>Change values for first day to zero for volume and initial pressure</t>
   </si>
 </sst>
 </file>
@@ -1344,30 +1358,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.81640625" style="5"/>
-    <col min="6" max="6" width="11.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="5" customWidth="1"/>
-    <col min="9" max="11" width="9.81640625" style="5"/>
-    <col min="12" max="12" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" style="5"/>
-    <col min="19" max="19" width="10.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" style="6"/>
-    <col min="21" max="1023" width="9.81640625" style="5"/>
-    <col min="1024" max="16384" width="9.81640625" style="1"/>
+    <col min="1" max="5" width="9.875" style="5"/>
+    <col min="6" max="6" width="11.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="5" customWidth="1"/>
+    <col min="9" max="11" width="9.875" style="5"/>
+    <col min="12" max="12" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" style="5"/>
+    <col min="19" max="19" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="6"/>
+    <col min="21" max="1023" width="9.875" style="5"/>
+    <col min="1024" max="16384" width="9.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1491,7 +1505,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1549,7 +1563,7 @@
         <v>625.78</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>632.82999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1665,7 +1679,7 @@
         <v>584.04</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>615.63</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1789,7 +1803,7 @@
         <v>628.57000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1855,7 +1869,7 @@
         <v>633.65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1921,7 +1935,7 @@
         <v>610.36</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1987,7 +2001,7 @@
         <v>635.90000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>626.34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>611.5200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -2185,7 +2199,7 @@
         <v>600.41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>608.22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2317,7 +2331,7 @@
         <v>621.15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2383,7 +2397,7 @@
         <v>606.72</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2449,7 +2463,7 @@
         <v>627.26</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2515,7 +2529,7 @@
         <v>611.04</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2581,7 +2595,7 @@
         <v>632.47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -2647,7 +2661,7 @@
         <v>636.4799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -2713,7 +2727,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -2765,7 +2779,7 @@
       </c>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -2808,7 +2822,7 @@
         <v>703.66000000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2851,7 +2865,7 @@
         <v>673.88</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -2894,7 +2908,7 @@
         <v>675.6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -2954,7 +2968,7 @@
         <v>837.24</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -3014,7 +3028,7 @@
         <v>823.13</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -3078,7 +3092,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -3138,7 +3152,7 @@
         <v>817.39999999999986</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>2</v>
       </c>
@@ -3198,7 +3212,7 @@
         <v>809.07999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -3258,7 +3272,7 @@
         <v>817.3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -3318,7 +3332,7 @@
         <v>623.16</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>639.2399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -3438,7 +3452,7 @@
         <v>613.32000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -3499,7 +3513,7 @@
         <v>715.75</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -3559,7 +3573,7 @@
         <v>803.78</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -3619,7 +3633,7 @@
         <v>814.66</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -3679,7 +3693,7 @@
         <v>824.5</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -3739,7 +3753,7 @@
         <v>810.30000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>798.98</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -3859,7 +3873,7 @@
         <v>813.28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>2</v>
       </c>
@@ -3919,7 +3933,7 @@
         <v>821.21</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>2</v>
       </c>
@@ -3979,7 +3993,7 @@
         <v>790.15000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>2</v>
       </c>
@@ -4005,7 +4019,7 @@
       <c r="P44" s="19"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>2</v>
       </c>
@@ -4040,31 +4054,31 @@
   <dimension ref="A1:J421"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="1" customWidth="1"/>
-    <col min="12" max="1022" width="8.26953125" style="1"/>
-    <col min="1023" max="1025" width="5.6328125" style="1"/>
-    <col min="1026" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
+    <col min="12" max="1022" width="8.25" style="1"/>
+    <col min="1023" max="1025" width="5.625" style="1"/>
+    <col min="1026" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -4128,7 +4142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4148,15 +4162,19 @@
         <f>Setup!J3</f>
         <v>1036.45</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="22">
         <f>Setup!J3</f>
         <v>1036.45</v>
       </c>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4176,15 +4194,19 @@
         <f>Setup!J4</f>
         <v>1032.2</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="22">
         <f>Setup!J4</f>
         <v>1032.2</v>
       </c>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4204,15 +4226,19 @@
         <f>Setup!J5</f>
         <v>1078.3</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="22">
         <f>Setup!J5</f>
         <v>1078.3</v>
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -4232,15 +4258,19 @@
         <f>Setup!J6</f>
         <v>1046.8</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="22">
         <f>Setup!J6</f>
         <v>1046.8</v>
       </c>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -4260,15 +4290,19 @@
         <f>Setup!J7</f>
         <v>1038</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="22">
         <f>Setup!J7</f>
         <v>1038</v>
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -4288,15 +4322,19 @@
         <f>Setup!J8</f>
         <v>1028.5999999999999</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="22">
         <f>Setup!J8</f>
         <v>1028.5999999999999</v>
       </c>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -4316,15 +4354,19 @@
         <f>Setup!J9</f>
         <v>1054.5999999999999</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="22">
         <f>Setup!J9</f>
         <v>1054.5999999999999</v>
       </c>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -4344,15 +4386,19 @@
         <f>Setup!J10</f>
         <v>1023.9</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="22">
         <f>Setup!J10</f>
         <v>1023.9</v>
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -4372,15 +4418,19 @@
         <f>Setup!J11</f>
         <v>1037.9000000000001</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="22">
         <f>Setup!J11</f>
         <v>1037.9000000000001</v>
       </c>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -4400,15 +4450,19 @@
         <f>Setup!J12</f>
         <v>1057.5999999999999</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="22">
         <f>Setup!J12</f>
         <v>1057.5999999999999</v>
       </c>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -4428,15 +4482,19 @@
         <f>Setup!J13</f>
         <v>1065.9000000000001</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="22">
         <f>Setup!J13</f>
         <v>1065.9000000000001</v>
       </c>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -4456,15 +4514,19 @@
         <f>Setup!J14</f>
         <v>1055.8499999999999</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="22">
         <f>Setup!J14</f>
         <v>1055.8499999999999</v>
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -4484,15 +4546,19 @@
         <f>Setup!J15</f>
         <v>1045.5</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
       <c r="I15" s="22">
         <f>Setup!J15</f>
         <v>1045.5</v>
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -4512,15 +4578,19 @@
         <f>Setup!J16</f>
         <v>1058.7</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="22">
         <f>Setup!J16</f>
         <v>1058.7</v>
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -4540,15 +4610,19 @@
         <f>Setup!J17</f>
         <v>1036.4000000000001</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
       <c r="I17" s="22">
         <f>Setup!J17</f>
         <v>1036.4000000000001</v>
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -4568,15 +4642,19 @@
         <f>Setup!J18</f>
         <v>1052.5999999999999</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="22">
         <f>Setup!J18</f>
         <v>1052.5999999999999</v>
       </c>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -4596,15 +4674,19 @@
         <f>Setup!J19</f>
         <v>1029.9000000000001</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
       <c r="I19" s="22">
         <f>Setup!J19</f>
         <v>1029.9000000000001</v>
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -4624,15 +4706,19 @@
         <f>Setup!J20</f>
         <v>1025.2</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
       <c r="I20" s="22">
         <f>Setup!J20</f>
         <v>1025.2</v>
       </c>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -4652,15 +4738,19 @@
         <f>Setup!J21</f>
         <v>1039</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
       <c r="I21" s="22">
         <f>Setup!J21</f>
         <v>1039</v>
       </c>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -4680,15 +4770,19 @@
         <f>Setup!J22</f>
         <v>1073.5999999999999</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
       <c r="I22" s="22">
         <f>Setup!J22</f>
         <v>1073.5999999999999</v>
       </c>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -4718,7 +4812,7 @@
       </c>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -4748,7 +4842,7 @@
       </c>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -4778,7 +4872,7 @@
       </c>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -4808,7 +4902,7 @@
       </c>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -4836,7 +4930,7 @@
       </c>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -4868,7 +4962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -4896,7 +4990,7 @@
       </c>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -4926,7 +5020,7 @@
       </c>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -4956,7 +5050,7 @@
       </c>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -4984,7 +5078,7 @@
       </c>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -5017,7 +5111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -5047,7 +5141,7 @@
       </c>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -5077,7 +5171,7 @@
       </c>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -5107,7 +5201,7 @@
       </c>
       <c r="J36" s="25"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -5139,7 +5233,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -5169,7 +5263,7 @@
       </c>
       <c r="J38" s="25"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>1</v>
       </c>
@@ -5199,7 +5293,7 @@
       </c>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -5229,7 +5323,7 @@
       </c>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -5259,7 +5353,7 @@
       </c>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -5282,7 +5376,7 @@
       <c r="H42" s="1"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -5313,7 +5407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -5343,7 +5437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -5371,7 +5465,7 @@
       </c>
       <c r="J45" s="27"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1</v>
       </c>
@@ -5397,7 +5491,7 @@
       </c>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1</v>
       </c>
@@ -5427,7 +5521,7 @@
       </c>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -5457,7 +5551,7 @@
       </c>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -5487,7 +5581,7 @@
       </c>
       <c r="J49" s="27"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1</v>
       </c>
@@ -5517,7 +5611,7 @@
       </c>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -5547,7 +5641,7 @@
       </c>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>1</v>
       </c>
@@ -5579,7 +5673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>1</v>
       </c>
@@ -5609,7 +5703,7 @@
       </c>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -5639,7 +5733,7 @@
       </c>
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>1</v>
       </c>
@@ -5668,7 +5762,7 @@
         <v>1053.9000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>1</v>
       </c>
@@ -5698,7 +5792,7 @@
       </c>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -5728,7 +5822,7 @@
       </c>
       <c r="J57" s="27"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -5757,7 +5851,7 @@
         <v>1078.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -5789,7 +5883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -5811,7 +5905,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -5840,7 +5934,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -5869,7 +5963,7 @@
         <v>1055.5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -5898,7 +5992,7 @@
         <v>1033.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -5927,7 +6021,7 @@
         <v>1049.4000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -5956,7 +6050,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -5985,7 +6079,7 @@
         <v>1064.0999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -6014,7 +6108,7 @@
         <v>1054.0999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -6043,7 +6137,7 @@
         <v>1043.7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -6072,7 +6166,7 @@
         <v>1036.5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -6101,7 +6195,7 @@
         <v>1027.2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -6130,7 +6224,7 @@
         <v>1053.3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>1</v>
       </c>
@@ -6159,7 +6253,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>1</v>
       </c>
@@ -6188,7 +6282,7 @@
         <v>1036.2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>1</v>
       </c>
@@ -6217,7 +6311,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>1</v>
       </c>
@@ -6241,7 +6335,7 @@
       </c>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>1</v>
       </c>
@@ -6263,7 +6357,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>1</v>
       </c>
@@ -6292,7 +6386,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>1</v>
       </c>
@@ -6321,7 +6415,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>1</v>
       </c>
@@ -6350,7 +6444,7 @@
         <v>1052.8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>1</v>
       </c>
@@ -6379,7 +6473,7 @@
         <v>1063.3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>1</v>
       </c>
@@ -6409,7 +6503,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>1</v>
       </c>
@@ -6438,7 +6532,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>1</v>
       </c>
@@ -6467,7 +6561,7 @@
         <v>1021.8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>1</v>
       </c>
@@ -6496,7 +6590,7 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>1</v>
       </c>
@@ -6525,7 +6619,7 @@
         <v>1055.7</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>1</v>
       </c>
@@ -6554,7 +6648,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -6583,7 +6677,7 @@
         <v>1032.8</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>1</v>
       </c>
@@ -6612,7 +6706,7 @@
         <v>1048.9000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -6641,7 +6735,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>1</v>
       </c>
@@ -6670,7 +6764,7 @@
         <v>1031.8</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>1</v>
       </c>
@@ -6699,7 +6793,7 @@
         <v>1077.9000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>1</v>
       </c>
@@ -6728,7 +6822,7 @@
         <v>1046.4000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>1</v>
       </c>
@@ -6757,7 +6851,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -6787,7 +6881,7 @@
       </c>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>1</v>
       </c>
@@ -6817,7 +6911,7 @@
       </c>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>1</v>
       </c>
@@ -6847,7 +6941,7 @@
       </c>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>1</v>
       </c>
@@ -6877,7 +6971,7 @@
       </c>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>1</v>
       </c>
@@ -6907,7 +7001,7 @@
       </c>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -6937,7 +7031,7 @@
       </c>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>1</v>
       </c>
@@ -6967,7 +7061,7 @@
       </c>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -6997,7 +7091,7 @@
       </c>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -7027,7 +7121,7 @@
       </c>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -7057,7 +7151,7 @@
       </c>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -7087,7 +7181,7 @@
       </c>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -7117,7 +7211,7 @@
       </c>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -7147,7 +7241,7 @@
       </c>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -7177,7 +7271,7 @@
       </c>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -7207,7 +7301,7 @@
       </c>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -7237,7 +7331,7 @@
       </c>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>1</v>
       </c>
@@ -7267,7 +7361,7 @@
       </c>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>1</v>
       </c>
@@ -7291,7 +7385,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>1</v>
       </c>
@@ -7315,7 +7409,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>1</v>
       </c>
@@ -7345,7 +7439,7 @@
       </c>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>1</v>
       </c>
@@ -7375,7 +7469,7 @@
       </c>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>1</v>
       </c>
@@ -7405,7 +7499,7 @@
       </c>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>1</v>
       </c>
@@ -7435,7 +7529,7 @@
       </c>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>1</v>
       </c>
@@ -7465,7 +7559,7 @@
       </c>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>1</v>
       </c>
@@ -7495,7 +7589,7 @@
       </c>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>1</v>
       </c>
@@ -7525,7 +7619,7 @@
       </c>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>1</v>
       </c>
@@ -7555,7 +7649,7 @@
       </c>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>1</v>
       </c>
@@ -7585,7 +7679,7 @@
       </c>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>1</v>
       </c>
@@ -7617,7 +7711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>1</v>
       </c>
@@ -7648,7 +7742,7 @@
       </c>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>1</v>
       </c>
@@ -7678,7 +7772,7 @@
       </c>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>1</v>
       </c>
@@ -7708,7 +7802,7 @@
       </c>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -7739,7 +7833,7 @@
       </c>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>1</v>
       </c>
@@ -7769,7 +7863,7 @@
       </c>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>1</v>
       </c>
@@ -7799,7 +7893,7 @@
       </c>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>1</v>
       </c>
@@ -7831,7 +7925,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>1</v>
       </c>
@@ -7861,7 +7955,7 @@
       </c>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>1</v>
       </c>
@@ -7891,7 +7985,7 @@
       </c>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>1</v>
       </c>
@@ -7921,7 +8015,7 @@
       </c>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>1</v>
       </c>
@@ -7952,7 +8046,7 @@
       </c>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>1</v>
       </c>
@@ -7983,7 +8077,7 @@
       </c>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>1</v>
       </c>
@@ -8014,7 +8108,7 @@
       </c>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>1</v>
       </c>
@@ -8044,7 +8138,7 @@
       </c>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>1</v>
       </c>
@@ -8074,7 +8168,7 @@
       </c>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>1</v>
       </c>
@@ -8104,7 +8198,7 @@
       </c>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>1</v>
       </c>
@@ -8134,7 +8228,7 @@
       </c>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -8165,7 +8259,7 @@
       </c>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -8196,7 +8290,7 @@
       </c>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>1</v>
       </c>
@@ -8227,7 +8321,7 @@
       </c>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>1</v>
       </c>
@@ -8258,7 +8352,7 @@
       </c>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -8289,7 +8383,7 @@
       </c>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>1</v>
       </c>
@@ -8319,7 +8413,7 @@
       </c>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>1</v>
       </c>
@@ -8350,7 +8444,7 @@
       </c>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>1</v>
       </c>
@@ -8374,7 +8468,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>1</v>
       </c>
@@ -8404,7 +8498,7 @@
       </c>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -8435,7 +8529,7 @@
       </c>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -8467,7 +8561,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -8498,7 +8592,7 @@
       </c>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>1</v>
       </c>
@@ -8528,7 +8622,7 @@
       </c>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>1</v>
       </c>
@@ -8559,7 +8653,7 @@
       </c>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>1</v>
       </c>
@@ -8590,7 +8684,7 @@
       </c>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>1</v>
       </c>
@@ -8620,7 +8714,7 @@
       </c>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>1</v>
       </c>
@@ -8653,7 +8747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -8684,7 +8778,7 @@
       </c>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>1</v>
       </c>
@@ -8715,7 +8809,7 @@
       </c>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>1</v>
       </c>
@@ -8748,7 +8842,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>1</v>
       </c>
@@ -8781,7 +8875,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>1</v>
       </c>
@@ -8814,7 +8908,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>1</v>
       </c>
@@ -8845,7 +8939,7 @@
       </c>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>1</v>
       </c>
@@ -8876,7 +8970,7 @@
       </c>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>1</v>
       </c>
@@ -8907,7 +9001,7 @@
       </c>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>1</v>
       </c>
@@ -8931,7 +9025,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>1</v>
       </c>
@@ -8961,7 +9055,7 @@
       </c>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -8993,7 +9087,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>1</v>
       </c>
@@ -9023,7 +9117,7 @@
       </c>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>1</v>
       </c>
@@ -9053,7 +9147,7 @@
       </c>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>1</v>
       </c>
@@ -9083,7 +9177,7 @@
       </c>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>1</v>
       </c>
@@ -9113,7 +9207,7 @@
       </c>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>1</v>
       </c>
@@ -9143,7 +9237,7 @@
       </c>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>1</v>
       </c>
@@ -9173,7 +9267,7 @@
       </c>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>1</v>
       </c>
@@ -9204,7 +9298,7 @@
       </c>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>1</v>
       </c>
@@ -9235,7 +9329,7 @@
       </c>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>1</v>
       </c>
@@ -9268,7 +9362,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>1</v>
       </c>
@@ -9299,7 +9393,7 @@
       </c>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>1</v>
       </c>
@@ -9330,7 +9424,7 @@
       </c>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>1</v>
       </c>
@@ -9361,7 +9455,7 @@
       </c>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>1</v>
       </c>
@@ -9392,7 +9486,7 @@
       </c>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>1</v>
       </c>
@@ -9423,7 +9517,7 @@
       </c>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>1</v>
       </c>
@@ -9454,7 +9548,7 @@
       </c>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>1</v>
       </c>
@@ -9478,7 +9572,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>2</v>
       </c>
@@ -9508,7 +9602,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>2</v>
       </c>
@@ -9536,7 +9630,7 @@
       </c>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>2</v>
       </c>
@@ -9564,7 +9658,7 @@
       </c>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>2</v>
       </c>
@@ -9592,7 +9686,7 @@
       </c>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>2</v>
       </c>
@@ -9620,7 +9714,7 @@
       </c>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>2</v>
       </c>
@@ -9648,7 +9742,7 @@
       </c>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>2</v>
       </c>
@@ -9676,7 +9770,7 @@
       </c>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>2</v>
       </c>
@@ -9704,7 +9798,7 @@
       </c>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>2</v>
       </c>
@@ -9732,7 +9826,7 @@
       </c>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>2</v>
       </c>
@@ -9760,7 +9854,7 @@
       </c>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>2</v>
       </c>
@@ -9788,7 +9882,7 @@
       </c>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>2</v>
       </c>
@@ -9816,7 +9910,7 @@
       </c>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>2</v>
       </c>
@@ -9844,7 +9938,7 @@
       </c>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>2</v>
       </c>
@@ -9872,7 +9966,7 @@
       </c>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>2</v>
       </c>
@@ -9900,7 +9994,7 @@
       </c>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>2</v>
       </c>
@@ -9928,7 +10022,7 @@
       </c>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>2</v>
       </c>
@@ -9956,7 +10050,7 @@
       </c>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>2</v>
       </c>
@@ -9984,7 +10078,7 @@
       </c>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>2</v>
       </c>
@@ -10012,7 +10106,7 @@
       </c>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>2</v>
       </c>
@@ -10040,7 +10134,7 @@
       </c>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>2</v>
       </c>
@@ -10068,7 +10162,7 @@
       </c>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>2</v>
       </c>
@@ -10096,7 +10190,7 @@
       </c>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>2</v>
       </c>
@@ -10124,7 +10218,7 @@
       </c>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>2</v>
       </c>
@@ -10148,7 +10242,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>2</v>
       </c>
@@ -10180,7 +10274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>2</v>
       </c>
@@ -10210,7 +10304,7 @@
       </c>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>2</v>
       </c>
@@ -10234,7 +10328,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>2</v>
       </c>
@@ -10266,7 +10360,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>2</v>
       </c>
@@ -10296,7 +10390,7 @@
       </c>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>2</v>
       </c>
@@ -10326,7 +10420,7 @@
       </c>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>2</v>
       </c>
@@ -10356,7 +10450,7 @@
       </c>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>2</v>
       </c>
@@ -10386,7 +10480,7 @@
       </c>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>2</v>
       </c>
@@ -10416,7 +10510,7 @@
       </c>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>2</v>
       </c>
@@ -10446,7 +10540,7 @@
       </c>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>2</v>
       </c>
@@ -10476,7 +10570,7 @@
       </c>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>2</v>
       </c>
@@ -10506,7 +10600,7 @@
       </c>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>2</v>
       </c>
@@ -10536,7 +10630,7 @@
       </c>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>2</v>
       </c>
@@ -10566,7 +10660,7 @@
       </c>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>2</v>
       </c>
@@ -10596,7 +10690,7 @@
       </c>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>2</v>
       </c>
@@ -10626,7 +10720,7 @@
       </c>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>2</v>
       </c>
@@ -10656,7 +10750,7 @@
       </c>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>2</v>
       </c>
@@ -10686,7 +10780,7 @@
       </c>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>2</v>
       </c>
@@ -10716,7 +10810,7 @@
       </c>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>2</v>
       </c>
@@ -10746,7 +10840,7 @@
       </c>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>2</v>
       </c>
@@ -10776,7 +10870,7 @@
       </c>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>2</v>
       </c>
@@ -10806,7 +10900,7 @@
       </c>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>2</v>
       </c>
@@ -10830,7 +10924,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>2</v>
       </c>
@@ -10860,7 +10954,7 @@
       </c>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>2</v>
       </c>
@@ -10890,7 +10984,7 @@
       </c>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>2</v>
       </c>
@@ -10920,7 +11014,7 @@
       </c>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>2</v>
       </c>
@@ -10950,7 +11044,7 @@
       </c>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>2</v>
       </c>
@@ -10980,7 +11074,7 @@
       </c>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>2</v>
       </c>
@@ -11010,7 +11104,7 @@
       </c>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>2</v>
       </c>
@@ -11034,7 +11128,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>2</v>
       </c>
@@ -11058,7 +11152,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>2</v>
       </c>
@@ -11088,7 +11182,7 @@
       </c>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>2</v>
       </c>
@@ -11118,7 +11212,7 @@
       </c>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>2</v>
       </c>
@@ -11150,7 +11244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>2</v>
       </c>
@@ -11180,7 +11274,7 @@
       </c>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>2</v>
       </c>
@@ -11210,7 +11304,7 @@
       </c>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>2</v>
       </c>
@@ -11240,7 +11334,7 @@
       </c>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>2</v>
       </c>
@@ -11270,7 +11364,7 @@
       </c>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>2</v>
       </c>
@@ -11300,7 +11394,7 @@
       </c>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>2</v>
       </c>
@@ -11330,7 +11424,7 @@
       </c>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>2</v>
       </c>
@@ -11360,7 +11454,7 @@
       </c>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>2</v>
       </c>
@@ -11390,7 +11484,7 @@
       </c>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>2</v>
       </c>
@@ -11420,7 +11514,7 @@
       </c>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>2</v>
       </c>
@@ -11450,7 +11544,7 @@
       </c>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>2</v>
       </c>
@@ -11480,7 +11574,7 @@
       </c>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>2</v>
       </c>
@@ -11510,7 +11604,7 @@
       </c>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>2</v>
       </c>
@@ -11540,7 +11634,7 @@
       </c>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>2</v>
       </c>
@@ -11570,7 +11664,7 @@
       </c>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>2</v>
       </c>
@@ -11600,7 +11694,7 @@
       </c>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>2</v>
       </c>
@@ -11630,7 +11724,7 @@
       </c>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>2</v>
       </c>
@@ -11660,7 +11754,7 @@
       </c>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>2</v>
       </c>
@@ -11690,7 +11784,7 @@
       </c>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>2</v>
       </c>
@@ -11720,7 +11814,7 @@
       </c>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>2</v>
       </c>
@@ -11750,7 +11844,7 @@
       </c>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>2</v>
       </c>
@@ -11780,7 +11874,7 @@
       </c>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>2</v>
       </c>
@@ -11810,7 +11904,7 @@
       </c>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>2</v>
       </c>
@@ -11840,7 +11934,7 @@
       </c>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>2</v>
       </c>
@@ -11870,7 +11964,7 @@
       </c>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>2</v>
       </c>
@@ -11900,7 +11994,7 @@
       </c>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>2</v>
       </c>
@@ -11930,7 +12024,7 @@
       </c>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>2</v>
       </c>
@@ -11960,7 +12054,7 @@
       </c>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>2</v>
       </c>
@@ -11992,7 +12086,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>2</v>
       </c>
@@ -12022,7 +12116,7 @@
       </c>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>2</v>
       </c>
@@ -12052,7 +12146,7 @@
       </c>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>2</v>
       </c>
@@ -12082,7 +12176,7 @@
       </c>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>2</v>
       </c>
@@ -12112,7 +12206,7 @@
       </c>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>2</v>
       </c>
@@ -12142,7 +12236,7 @@
       </c>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>2</v>
       </c>
@@ -12168,7 +12262,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>2</v>
       </c>
@@ -12194,7 +12288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>2</v>
       </c>
@@ -12220,7 +12314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>2</v>
       </c>
@@ -12250,7 +12344,7 @@
       </c>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>2</v>
       </c>
@@ -12280,7 +12374,7 @@
       </c>
       <c r="J279" s="1"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>2</v>
       </c>
@@ -12310,7 +12404,7 @@
       </c>
       <c r="J280" s="1"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>2</v>
       </c>
@@ -12340,7 +12434,7 @@
       </c>
       <c r="J281" s="1"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>2</v>
       </c>
@@ -12370,7 +12464,7 @@
       </c>
       <c r="J282" s="1"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>2</v>
       </c>
@@ -12400,7 +12494,7 @@
       </c>
       <c r="J283" s="1"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>2</v>
       </c>
@@ -12430,7 +12524,7 @@
       </c>
       <c r="J284" s="1"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>2</v>
       </c>
@@ -12460,7 +12554,7 @@
       </c>
       <c r="J285" s="1"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>2</v>
       </c>
@@ -12490,7 +12584,7 @@
       </c>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>2</v>
       </c>
@@ -12520,7 +12614,7 @@
       </c>
       <c r="J287" s="1"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>2</v>
       </c>
@@ -12550,7 +12644,7 @@
       </c>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>2</v>
       </c>
@@ -12580,7 +12674,7 @@
       </c>
       <c r="J289" s="1"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>2</v>
       </c>
@@ -12610,7 +12704,7 @@
       </c>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>2</v>
       </c>
@@ -12640,7 +12734,7 @@
       </c>
       <c r="J291" s="1"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>2</v>
       </c>
@@ -12670,7 +12764,7 @@
       </c>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>2</v>
       </c>
@@ -12700,7 +12794,7 @@
       </c>
       <c r="J293" s="1"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>2</v>
       </c>
@@ -12730,7 +12824,7 @@
       </c>
       <c r="J294" s="1"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>2</v>
       </c>
@@ -12760,7 +12854,7 @@
       </c>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>2</v>
       </c>
@@ -12790,7 +12884,7 @@
       </c>
       <c r="J296" s="1"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>2</v>
       </c>
@@ -12820,7 +12914,7 @@
       </c>
       <c r="J297" s="1"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>2</v>
       </c>
@@ -12850,7 +12944,7 @@
       </c>
       <c r="J298" s="1"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>2</v>
       </c>
@@ -12874,7 +12968,7 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>2</v>
       </c>
@@ -12898,7 +12992,7 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>2</v>
       </c>
@@ -12922,7 +13016,7 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>2</v>
       </c>
@@ -12952,7 +13046,7 @@
       </c>
       <c r="J302" s="1"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>2</v>
       </c>
@@ -12982,7 +13076,7 @@
       </c>
       <c r="J303" s="1"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>2</v>
       </c>
@@ -13012,7 +13106,7 @@
       </c>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>2</v>
       </c>
@@ -13042,7 +13136,7 @@
       </c>
       <c r="J305" s="1"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>2</v>
       </c>
@@ -13072,7 +13166,7 @@
       </c>
       <c r="J306" s="1"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>2</v>
       </c>
@@ -13102,7 +13196,7 @@
       </c>
       <c r="J307" s="1"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>2</v>
       </c>
@@ -13132,7 +13226,7 @@
       </c>
       <c r="J308" s="1"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>2</v>
       </c>
@@ -13162,7 +13256,7 @@
       </c>
       <c r="J309" s="1"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>2</v>
       </c>
@@ -13192,7 +13286,7 @@
       </c>
       <c r="J310" s="1"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>2</v>
       </c>
@@ -13222,7 +13316,7 @@
       </c>
       <c r="J311" s="1"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>2</v>
       </c>
@@ -13252,7 +13346,7 @@
       </c>
       <c r="J312" s="1"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>2</v>
       </c>
@@ -13284,7 +13378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>2</v>
       </c>
@@ -13315,7 +13409,7 @@
       </c>
       <c r="J314" s="1"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>2</v>
       </c>
@@ -13348,7 +13442,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>2</v>
       </c>
@@ -13379,7 +13473,7 @@
       </c>
       <c r="J316" s="1"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>2</v>
       </c>
@@ -13409,7 +13503,7 @@
       </c>
       <c r="J317" s="1"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>2</v>
       </c>
@@ -13439,7 +13533,7 @@
       </c>
       <c r="J318" s="1"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>2</v>
       </c>
@@ -13469,7 +13563,7 @@
       </c>
       <c r="J319" s="1"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>2</v>
       </c>
@@ -13499,7 +13593,7 @@
       </c>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>2</v>
       </c>
@@ -13529,7 +13623,7 @@
       </c>
       <c r="J321" s="1"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>2</v>
       </c>
@@ -13559,7 +13653,7 @@
       </c>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>2</v>
       </c>
@@ -13583,7 +13677,7 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>2</v>
       </c>
@@ -13607,7 +13701,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>2</v>
       </c>
@@ -13631,7 +13725,7 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>2</v>
       </c>
@@ -13663,7 +13757,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>2</v>
       </c>
@@ -13693,7 +13787,7 @@
       </c>
       <c r="J327" s="1"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>2</v>
       </c>
@@ -13723,7 +13817,7 @@
       </c>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>2</v>
       </c>
@@ -13753,7 +13847,7 @@
       </c>
       <c r="J329" s="1"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>2</v>
       </c>
@@ -13783,7 +13877,7 @@
       </c>
       <c r="J330" s="1"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>2</v>
       </c>
@@ -13813,7 +13907,7 @@
       </c>
       <c r="J331" s="1"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>2</v>
       </c>
@@ -13843,7 +13937,7 @@
       </c>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>2</v>
       </c>
@@ -13873,7 +13967,7 @@
       </c>
       <c r="J333" s="1"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>2</v>
       </c>
@@ -13903,7 +13997,7 @@
       </c>
       <c r="J334" s="1"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>2</v>
       </c>
@@ -13933,7 +14027,7 @@
       </c>
       <c r="J335" s="1"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>2</v>
       </c>
@@ -13963,7 +14057,7 @@
       </c>
       <c r="J336" s="1"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>2</v>
       </c>
@@ -13993,7 +14087,7 @@
       </c>
       <c r="J337" s="1"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>2</v>
       </c>
@@ -14023,7 +14117,7 @@
       </c>
       <c r="J338" s="1"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
         <v>2</v>
       </c>
@@ -14055,7 +14149,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
         <v>2</v>
       </c>
@@ -14085,7 +14179,7 @@
       </c>
       <c r="J340" s="1"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
         <v>2</v>
       </c>
@@ -14115,7 +14209,7 @@
       </c>
       <c r="J341" s="1"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
         <v>2</v>
       </c>
@@ -14145,7 +14239,7 @@
       </c>
       <c r="J342" s="1"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
         <v>2</v>
       </c>
@@ -14177,7 +14271,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
         <v>2</v>
       </c>
@@ -14207,7 +14301,7 @@
       </c>
       <c r="J344" s="1"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>2</v>
       </c>
@@ -14239,7 +14333,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>2</v>
       </c>
@@ -14269,7 +14363,7 @@
       </c>
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>2</v>
       </c>
@@ -14291,7 +14385,7 @@
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>2</v>
       </c>
@@ -14313,7 +14407,7 @@
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>2</v>
       </c>
@@ -14335,7 +14429,7 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>2</v>
       </c>
@@ -14365,7 +14459,7 @@
       </c>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>2</v>
       </c>
@@ -14395,7 +14489,7 @@
       </c>
       <c r="J351" s="1"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>2</v>
       </c>
@@ -14425,7 +14519,7 @@
       </c>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
         <v>2</v>
       </c>
@@ -14455,7 +14549,7 @@
       </c>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
         <v>2</v>
       </c>
@@ -14485,7 +14579,7 @@
       </c>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>2</v>
       </c>
@@ -14515,7 +14609,7 @@
       </c>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>2</v>
       </c>
@@ -14545,7 +14639,7 @@
       </c>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>2</v>
       </c>
@@ -14575,7 +14669,7 @@
       </c>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>2</v>
       </c>
@@ -14605,7 +14699,7 @@
       </c>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>2</v>
       </c>
@@ -14635,7 +14729,7 @@
       </c>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>2</v>
       </c>
@@ -14665,7 +14759,7 @@
       </c>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>2</v>
       </c>
@@ -14695,7 +14789,7 @@
       </c>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>2</v>
       </c>
@@ -14725,7 +14819,7 @@
       </c>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>2</v>
       </c>
@@ -14755,7 +14849,7 @@
       </c>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>2</v>
       </c>
@@ -14785,7 +14879,7 @@
       </c>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>2</v>
       </c>
@@ -14815,7 +14909,7 @@
       </c>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>2</v>
       </c>
@@ -14845,7 +14939,7 @@
       </c>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>2</v>
       </c>
@@ -14875,7 +14969,7 @@
       </c>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>2</v>
       </c>
@@ -14905,7 +14999,7 @@
       </c>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>2</v>
       </c>
@@ -14935,7 +15029,7 @@
       </c>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>2</v>
       </c>
@@ -14965,7 +15059,7 @@
       </c>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>2</v>
       </c>
@@ -14987,7 +15081,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>2</v>
       </c>
@@ -15009,7 +15103,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>2</v>
       </c>
@@ -15031,7 +15125,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>2</v>
       </c>
@@ -15062,7 +15156,7 @@
       </c>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>2</v>
       </c>
@@ -15092,7 +15186,7 @@
       </c>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>2</v>
       </c>
@@ -15122,7 +15216,7 @@
       </c>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
         <v>2</v>
       </c>
@@ -15153,7 +15247,7 @@
       </c>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
         <v>2</v>
       </c>
@@ -15184,7 +15278,7 @@
       </c>
       <c r="J378" s="1"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
         <v>2</v>
       </c>
@@ -15215,7 +15309,7 @@
       </c>
       <c r="J379" s="1"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
         <v>2</v>
       </c>
@@ -15245,7 +15339,7 @@
       </c>
       <c r="J380" s="1"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>2</v>
       </c>
@@ -15275,7 +15369,7 @@
       </c>
       <c r="J381" s="1"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>2</v>
       </c>
@@ -15305,7 +15399,7 @@
       </c>
       <c r="J382" s="1"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>2</v>
       </c>
@@ -15335,7 +15429,7 @@
       </c>
       <c r="J383" s="1"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>2</v>
       </c>
@@ -15365,7 +15459,7 @@
       </c>
       <c r="J384" s="1"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>2</v>
       </c>
@@ -15395,7 +15489,7 @@
       </c>
       <c r="J385" s="1"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>2</v>
       </c>
@@ -15425,7 +15519,7 @@
       </c>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>2</v>
       </c>
@@ -15455,7 +15549,7 @@
       </c>
       <c r="J387" s="1"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>2</v>
       </c>
@@ -15485,7 +15579,7 @@
       </c>
       <c r="J388" s="1"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>2</v>
       </c>
@@ -15515,7 +15609,7 @@
       </c>
       <c r="J389" s="1"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>2</v>
       </c>
@@ -15545,7 +15639,7 @@
       </c>
       <c r="J390" s="1"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>2</v>
       </c>
@@ -15575,7 +15669,7 @@
       </c>
       <c r="J391" s="1"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>2</v>
       </c>
@@ -15605,7 +15699,7 @@
       </c>
       <c r="J392" s="1"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>2</v>
       </c>
@@ -15637,7 +15731,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>2</v>
       </c>
@@ -15667,7 +15761,7 @@
       </c>
       <c r="J394" s="1"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>2</v>
       </c>
@@ -15689,7 +15783,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>2</v>
       </c>
@@ -15711,7 +15805,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>2</v>
       </c>
@@ -15733,7 +15827,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>2</v>
       </c>
@@ -15765,7 +15859,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>2</v>
       </c>
@@ -15795,7 +15889,7 @@
       </c>
       <c r="J399" s="1"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>2</v>
       </c>
@@ -15825,7 +15919,7 @@
       </c>
       <c r="J400" s="1"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>2</v>
       </c>
@@ -15855,7 +15949,7 @@
       </c>
       <c r="J401" s="1"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>2</v>
       </c>
@@ -15885,7 +15979,7 @@
       </c>
       <c r="J402" s="1"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>2</v>
       </c>
@@ -15915,7 +16009,7 @@
       </c>
       <c r="J403" s="1"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>2</v>
       </c>
@@ -15945,7 +16039,7 @@
       </c>
       <c r="J404" s="1"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>2</v>
       </c>
@@ -15975,7 +16069,7 @@
       </c>
       <c r="J405" s="1"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>2</v>
       </c>
@@ -16005,7 +16099,7 @@
       </c>
       <c r="J406" s="1"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>2</v>
       </c>
@@ -16036,7 +16130,7 @@
       </c>
       <c r="J407" s="1"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>2</v>
       </c>
@@ -16068,7 +16162,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>2</v>
       </c>
@@ -16100,7 +16194,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>2</v>
       </c>
@@ -16130,7 +16224,7 @@
       </c>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>2</v>
       </c>
@@ -16160,7 +16254,7 @@
       </c>
       <c r="J411" s="1"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>2</v>
       </c>
@@ -16190,7 +16284,7 @@
       </c>
       <c r="J412" s="1"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>2</v>
       </c>
@@ -16220,7 +16314,7 @@
       </c>
       <c r="J413" s="1"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>2</v>
       </c>
@@ -16250,7 +16344,7 @@
       </c>
       <c r="J414" s="1"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>2</v>
       </c>
@@ -16280,7 +16374,7 @@
       </c>
       <c r="J415" s="1"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>2</v>
       </c>
@@ -16312,7 +16406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>2</v>
       </c>
@@ -16342,7 +16436,7 @@
       </c>
       <c r="J417" s="1"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>2</v>
       </c>
@@ -16374,7 +16468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>2</v>
       </c>
@@ -16391,7 +16485,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>2</v>
       </c>
@@ -16408,7 +16502,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>2</v>
       </c>
@@ -16435,20 +16529,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="49.90625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="49.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>211</v>
       </c>
@@ -16462,7 +16556,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>215</v>
       </c>
@@ -16476,7 +16570,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -16490,100 +16584,111 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
     </row>
   </sheetData>

--- a/experiments/IISBMP1/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP1/data/biogas_and_setup.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\GitHub\GD-BMP\experiments\IISBMP1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au521230\Documents\GitHub\GD-BMP\experiments\IISBMP1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163AE09-A485-481C-BAE3-DB35BEE3D178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="VPM" sheetId="2" r:id="rId2"/>
     <sheet name="ChangeLog" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +738,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
     <sheetView windowProtection="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
@@ -4050,14 +4049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J421"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16526,10 +16525,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+    <sheetView windowProtection="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/experiments/IISBMP1/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP1/data/biogas_and_setup.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="180">
   <si>
     <t>Experiment</t>
   </si>
@@ -165,9 +165,6 @@
     <t>I1</t>
   </si>
   <si>
-    <t>Inoculum</t>
-  </si>
-  <si>
     <t>I2</t>
   </si>
   <si>
@@ -589,6 +586,15 @@
   </si>
   <si>
     <t>Copied out all data from biogas sheet and added again</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>18 Feb 2019</t>
+  </si>
+  <si>
+    <t>Change name in setup$descrip Inoculum to I</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView windowProtection="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -1263,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1304,10 +1310,10 @@
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>30</v>
@@ -1325,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1336,7 +1342,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="E3" s="5">
         <v>537.16999999999996</v>
@@ -1391,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="E4" s="5">
         <v>540.07000000000005</v>
@@ -1449,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="E5" s="5">
         <v>537.28</v>
@@ -1507,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="E6" s="5">
         <v>537.74</v>
@@ -1565,13 +1571,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5">
         <v>541.54999999999995</v>
@@ -1631,13 +1637,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
         <v>537.27</v>
@@ -1697,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5">
         <v>540.13</v>
@@ -1763,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5">
         <v>534.77</v>
@@ -1829,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5">
         <v>539.03</v>
@@ -1895,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5">
         <v>544.16</v>
@@ -1961,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5">
         <v>541.44000000000005</v>
@@ -2027,13 +2033,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5">
         <v>539.08000000000004</v>
@@ -2093,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5">
         <v>541.73</v>
@@ -2159,13 +2165,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
         <v>540.47</v>
@@ -2225,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5">
         <v>538.39</v>
@@ -2291,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5">
         <v>538.71</v>
@@ -2357,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="5">
         <v>538.07000000000005</v>
@@ -2423,13 +2429,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5">
         <v>537.48</v>
@@ -2489,13 +2495,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5">
         <v>538.23</v>
@@ -2555,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E22" s="5">
         <v>537.03</v>
@@ -2610,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5">
@@ -2650,10 +2656,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="5">
@@ -2693,10 +2699,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5">
@@ -2736,13 +2742,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="5">
         <v>538.12</v>
@@ -2796,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="5">
         <v>540.96</v>
@@ -2856,13 +2862,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="5">
         <v>527.29</v>
@@ -2912,7 +2918,7 @@
         <v>822.81</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -2920,13 +2926,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="5">
         <v>537.91999999999996</v>
@@ -2980,13 +2986,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="5">
         <v>537.39</v>
@@ -3040,13 +3046,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="5">
         <v>537.30999999999995</v>
@@ -3100,13 +3106,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="5">
         <v>536.09</v>
@@ -3160,13 +3166,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="5">
         <v>536.44000000000005</v>
@@ -3220,13 +3226,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="5">
         <v>537.69000000000005</v>
@@ -3280,13 +3286,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="5">
         <v>541.97</v>
@@ -3341,13 +3347,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5">
         <v>536.87</v>
@@ -3401,13 +3407,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="5">
         <v>537.1</v>
@@ -3461,13 +3467,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="5">
         <v>537.98</v>
@@ -3521,13 +3527,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="5">
         <v>537.51</v>
@@ -3581,13 +3587,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="5">
         <v>537.02</v>
@@ -3641,13 +3647,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" s="5">
         <v>539.62</v>
@@ -3701,13 +3707,13 @@
         <v>2</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="5">
         <v>537.6</v>
@@ -3761,13 +3767,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="5">
         <v>536.89</v>
@@ -3821,10 +3827,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" s="5">
         <v>541.12</v>
@@ -3847,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H45" s="5">
         <v>1073.5999999999999</v>
@@ -3877,7 +3883,7 @@
   <dimension ref="A1:J421"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3900,31 +3906,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>68</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3935,28 +3941,28 @@
         <v>19</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3993,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="21">
         <v>15112016</v>
@@ -4022,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="21">
         <v>15112016</v>
@@ -4051,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="21">
         <v>15112016</v>
@@ -4080,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="21">
         <v>15112016</v>
@@ -4109,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21">
         <v>15112016</v>
@@ -4138,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21">
         <v>15112016</v>
@@ -4167,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="21">
         <v>15112016</v>
@@ -4196,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="21">
         <v>15112016</v>
@@ -4225,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="21">
         <v>15112016</v>
@@ -4254,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="21">
         <v>15112016</v>
@@ -4283,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="21">
         <v>15112016</v>
@@ -4312,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="21">
         <v>15112016</v>
@@ -4341,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="21">
         <v>15112016</v>
@@ -4370,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="21">
         <v>15112016</v>
@@ -4399,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="21">
         <v>15112016</v>
@@ -4428,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="21">
         <v>15112016</v>
@@ -4457,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="21">
         <v>15112016</v>
@@ -4486,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="21">
         <v>15112016</v>
@@ -4515,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="21">
         <v>15112016</v>
@@ -4544,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="21">
         <v>16112016</v>
@@ -4573,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="21">
         <v>16112016</v>
@@ -4602,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="21">
         <v>16112016</v>
@@ -4631,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="21">
         <v>16112016</v>
@@ -4660,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="21">
         <v>16112016</v>
@@ -4686,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="21">
         <v>16112016</v>
@@ -4710,7 +4716,7 @@
         <v>1045.2</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -4718,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="21">
         <v>16112016</v>
@@ -4744,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="21">
         <v>16112016</v>
@@ -4773,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="21">
         <v>16112016</v>
@@ -4802,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="21">
         <v>16112016</v>
@@ -4828,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="21">
         <v>16112016</v>
@@ -4852,7 +4858,7 @@
         <v>1023.8</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4860,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="21">
         <v>16112016</v>
@@ -4889,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="21">
         <v>16112016</v>
@@ -4918,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="21">
         <v>16112016</v>
@@ -4947,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="21">
         <v>16112016</v>
@@ -4971,7 +4977,7 @@
         <v>1054.5</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -5008,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="21">
         <v>16112016</v>
@@ -5037,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="21">
         <v>16112016</v>
@@ -5066,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="21">
         <v>16112016</v>
@@ -5095,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="21">
         <v>16112016</v>
@@ -5115,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="21">
         <v>17112016</v>
@@ -5136,7 +5142,7 @@
         <v>1056.2</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -5144,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="21">
         <v>17112016</v>
@@ -5165,7 +5171,7 @@
         <v>1033.8</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -5173,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="21">
         <v>17112016</v>
@@ -5199,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="21">
         <v>17112016</v>
@@ -5222,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="21">
         <v>17112016</v>
@@ -5234,7 +5240,7 @@
         <v>45</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="21">
         <v>1.0720000000000001</v>
@@ -5251,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="21">
         <v>17112016</v>
@@ -5263,7 +5269,7 @@
         <v>46</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" s="21">
         <v>1.0529999999999999</v>
@@ -5280,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="21">
         <v>17112016</v>
@@ -5292,7 +5298,7 @@
         <v>47</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" s="21">
         <v>1.0589999999999999</v>
@@ -5309,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="21">
         <v>17112016</v>
@@ -5321,7 +5327,7 @@
         <v>48</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="21">
         <v>0.94299999999999995</v>
@@ -5338,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="21">
         <v>17112016</v>
@@ -5350,7 +5356,7 @@
         <v>49</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" s="21">
         <v>0.876</v>
@@ -5367,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="21">
         <v>17112016</v>
@@ -5379,7 +5385,7 @@
         <v>50</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" s="21">
         <v>0.94299999999999995</v>
@@ -5391,7 +5397,7 @@
         <v>1044.5999999999999</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5399,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="21">
         <v>17112016</v>
@@ -5411,7 +5417,7 @@
         <v>51</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" s="21">
         <v>0.80800000000000005</v>
@@ -5428,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54" s="21">
         <v>17112016</v>
@@ -5440,7 +5446,7 @@
         <v>52</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="21">
         <v>0.76</v>
@@ -5457,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="21">
         <v>17112016</v>
@@ -5469,7 +5475,7 @@
         <v>53</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" s="21">
         <v>0.81299999999999994</v>
@@ -5498,7 +5504,7 @@
         <v>54</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="21">
         <v>8.3000000000000004E-2</v>
@@ -5515,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="21">
         <v>17112016</v>
@@ -5527,7 +5533,7 @@
         <v>55</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" s="21">
         <v>0.10299999999999999</v>
@@ -5544,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="21">
         <v>17112016</v>
@@ -5556,7 +5562,7 @@
         <v>56</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G58" s="21">
         <v>0.11600000000000001</v>
@@ -5573,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="21">
         <v>17112016</v>
@@ -5597,7 +5603,7 @@
         <v>1046.5999999999999</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -5605,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="21">
         <v>17112016</v>
@@ -5617,7 +5623,7 @@
         <v>58</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -5625,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="21">
         <v>17112016</v>
@@ -5637,7 +5643,7 @@
         <v>59</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G61" s="21">
         <v>0.245</v>
@@ -5654,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="21">
         <v>18112016</v>
@@ -5666,7 +5672,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G62" s="21">
         <v>0.746</v>
@@ -5683,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="21">
         <v>18112016</v>
@@ -5695,7 +5701,7 @@
         <v>61</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" s="21">
         <v>0.67700000000000005</v>
@@ -5712,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="21">
         <v>18112016</v>
@@ -5724,7 +5730,7 @@
         <v>62</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="21">
         <v>0.77300000000000002</v>
@@ -5741,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="21">
         <v>18112016</v>
@@ -5753,7 +5759,7 @@
         <v>63</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G65" s="21">
         <v>0.76500000000000001</v>
@@ -5770,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="21">
         <v>18112016</v>
@@ -5782,7 +5788,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G66" s="21">
         <v>1.3380000000000001</v>
@@ -5799,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="21">
         <v>18112016</v>
@@ -5811,7 +5817,7 @@
         <v>65</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G67" s="21">
         <v>1.5629999999999999</v>
@@ -5828,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="21">
         <v>18112016</v>
@@ -5840,7 +5846,7 @@
         <v>66</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G68" s="21">
         <v>1.4990000000000001</v>
@@ -5857,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="21">
         <v>18112016</v>
@@ -5869,7 +5875,7 @@
         <v>67</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G69" s="21">
         <v>0.92</v>
@@ -5886,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="21">
         <v>18112016</v>
@@ -5898,7 +5904,7 @@
         <v>68</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G70" s="21">
         <v>0.86699999999999999</v>
@@ -5915,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" s="21">
         <v>18112016</v>
@@ -5927,7 +5933,7 @@
         <v>69</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G71" s="21">
         <v>0.89500000000000002</v>
@@ -5944,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="21">
         <v>18112016</v>
@@ -5956,7 +5962,7 @@
         <v>70</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G72" s="21">
         <v>0.58899999999999997</v>
@@ -5973,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" s="21">
         <v>18112016</v>
@@ -6002,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" s="21">
         <v>18112016</v>
@@ -6014,7 +6020,7 @@
         <v>72</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G74" s="21">
         <v>0.55400000000000005</v>
@@ -6031,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="21">
         <v>18112016</v>
@@ -6043,7 +6049,7 @@
         <v>73</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G75" s="21">
         <v>0.60499999999999998</v>
@@ -6054,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="21">
         <v>19112016</v>
@@ -6066,7 +6072,7 @@
         <v>74</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -6074,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="21">
         <v>19112016</v>
@@ -6086,7 +6092,7 @@
         <v>75</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G77" s="21">
         <v>0.60499999999999998</v>
@@ -6103,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C78" s="21">
         <v>19112016</v>
@@ -6115,7 +6121,7 @@
         <v>76</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G78" s="21">
         <v>0.57699999999999996</v>
@@ -6132,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" s="21">
         <v>19112016</v>
@@ -6144,7 +6150,7 @@
         <v>77</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G79" s="21">
         <v>0.60499999999999998</v>
@@ -6161,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" s="21">
         <v>19112016</v>
@@ -6173,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G80" s="21">
         <v>1.0089999999999999</v>
@@ -6190,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" s="21">
         <v>19112016</v>
@@ -6202,7 +6208,7 @@
         <v>79</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G81" s="21">
         <v>1.8080000000000001</v>
@@ -6219,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="21">
         <v>19112016</v>
@@ -6231,7 +6237,7 @@
         <v>80</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G82" s="21">
         <v>1.2430000000000001</v>
@@ -6248,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="21">
         <v>19112016</v>
@@ -6260,7 +6266,7 @@
         <v>81</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G83" s="21">
         <v>0.49399999999999999</v>
@@ -6277,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C84" s="21">
         <v>19112016</v>
@@ -6289,7 +6295,7 @@
         <v>82</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="21">
         <v>0.45400000000000001</v>
@@ -6306,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85" s="21">
         <v>19112016</v>
@@ -6318,7 +6324,7 @@
         <v>83</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G85" s="21">
         <v>0.436</v>
@@ -6335,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" s="21">
         <v>19112016</v>
@@ -6347,7 +6353,7 @@
         <v>84</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G86" s="21">
         <v>0.60299999999999998</v>
@@ -6364,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C87" s="21">
         <v>19112016</v>
@@ -6376,7 +6382,7 @@
         <v>85</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G87" s="21">
         <v>0.55400000000000005</v>
@@ -6393,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C88" s="21">
         <v>19112016</v>
@@ -6405,7 +6411,7 @@
         <v>86</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G88" s="21">
         <v>0.60699999999999998</v>
@@ -6434,7 +6440,7 @@
         <v>87</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G89" s="21">
         <v>0.22600000000000001</v>
@@ -6451,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" s="21">
         <v>19112016</v>
@@ -6463,7 +6469,7 @@
         <v>88</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G90" s="21">
         <v>0.23</v>
@@ -6480,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" s="21">
         <v>19112016</v>
@@ -6492,7 +6498,7 @@
         <v>89</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G91" s="21">
         <v>0.23699999999999999</v>
@@ -6509,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="21">
         <v>19112016</v>
@@ -6521,7 +6527,7 @@
         <v>90</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G92" s="21">
         <v>0.23499999999999999</v>
@@ -6538,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" s="21">
         <v>19112016</v>
@@ -6550,7 +6556,7 @@
         <v>91</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G93" s="21">
         <v>0.52800000000000002</v>
@@ -6596,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" s="21">
         <v>21112016</v>
@@ -6625,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C96" s="21">
         <v>21112016</v>
@@ -6654,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="21">
         <v>21112016</v>
@@ -6683,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" s="21">
         <v>21112016</v>
@@ -6712,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="21">
         <v>21112016</v>
@@ -6741,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" s="21">
         <v>21112016</v>
@@ -6770,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C101" s="21">
         <v>21112016</v>
@@ -6799,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" s="21">
         <v>21112016</v>
@@ -6828,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C103" s="21">
         <v>21112016</v>
@@ -6857,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C104" s="21">
         <v>21112016</v>
@@ -6886,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" s="21">
         <v>21112016</v>
@@ -6915,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C106" s="21">
         <v>21112016</v>
@@ -6944,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C107" s="21">
         <v>21112016</v>
@@ -6973,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C108" s="21">
         <v>21112016</v>
@@ -7002,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C109" s="21">
         <v>21112016</v>
@@ -7031,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C110" s="21">
         <v>21112016</v>
@@ -7060,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C111" s="21">
         <v>21112016</v>
@@ -7080,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112" s="21">
         <v>24112016</v>
@@ -7100,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C113" s="21">
         <v>24112016</v>
@@ -7129,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C114" s="21">
         <v>24112016</v>
@@ -7158,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" s="21">
         <v>24112016</v>
@@ -7187,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" s="21">
         <v>24112016</v>
@@ -7216,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C117" s="21">
         <v>24112016</v>
@@ -7245,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118" s="21">
         <v>24112016</v>
@@ -7274,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C119" s="21">
         <v>24112016</v>
@@ -7303,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C120" s="21">
         <v>24112016</v>
@@ -7332,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C121" s="21">
         <v>24112016</v>
@@ -7361,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" s="21">
         <v>24112016</v>
@@ -7385,7 +7391,7 @@
         <v>1063</v>
       </c>
       <c r="J122" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -7393,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C123" s="21">
         <v>24112016</v>
@@ -7422,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C124" s="21">
         <v>24112016</v>
@@ -7480,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C126" s="21">
         <v>24112016</v>
@@ -7509,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C127" s="21">
         <v>24112016</v>
@@ -7538,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" s="21">
         <v>24112016</v>
@@ -7567,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C129" s="21">
         <v>24112016</v>
@@ -7591,7 +7597,7 @@
         <v>1034.2</v>
       </c>
       <c r="J129" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -7599,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" s="21">
         <v>29112016</v>
@@ -7628,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C131" s="21">
         <v>29112016</v>
@@ -7657,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C132" s="21">
         <v>29112016</v>
@@ -7686,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C133" s="21">
         <v>29112016</v>
@@ -7715,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C134" s="21">
         <v>29112016</v>
@@ -7744,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C135" s="21">
         <v>29112016</v>
@@ -7773,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" s="21">
         <v>29112016</v>
@@ -7802,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C137" s="21">
         <v>29112016</v>
@@ -7831,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C138" s="21">
         <v>29112016</v>
@@ -7860,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C139" s="21">
         <v>29112016</v>
@@ -7889,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C140" s="21">
         <v>29112016</v>
@@ -7918,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C141" s="21">
         <v>29112016</v>
@@ -7976,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C143" s="21">
         <v>29112016</v>
@@ -8005,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C144" s="21">
         <v>29112016</v>
@@ -8034,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C145" s="21">
         <v>29112016</v>
@@ -8063,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C146" s="21">
         <v>29112016</v>
@@ -8092,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C147" s="21">
         <v>29112016</v>
@@ -8141,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C149" s="21">
         <v>7122016</v>
@@ -8170,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C150" s="21">
         <v>7122016</v>
@@ -8194,7 +8200,7 @@
         <v>1077.3</v>
       </c>
       <c r="J150" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -8202,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C151" s="21">
         <v>7122016</v>
@@ -8231,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C152" s="21">
         <v>7122016</v>
@@ -8260,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C153" s="21">
         <v>7122016</v>
@@ -8289,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C154" s="21">
         <v>7122016</v>
@@ -8318,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C155" s="21">
         <v>7122016</v>
@@ -8347,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" s="21">
         <v>7122016</v>
@@ -8371,7 +8377,7 @@
         <v>1034.9000000000001</v>
       </c>
       <c r="J156" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -8379,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C157" s="21">
         <v>7122016</v>
@@ -8408,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C158" s="21">
         <v>7122016</v>
@@ -8437,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C159" s="21">
         <v>7122016</v>
@@ -8461,7 +8467,7 @@
         <v>1053.8</v>
       </c>
       <c r="J159" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -8469,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C160" s="21">
         <v>7122016</v>
@@ -8493,7 +8499,7 @@
         <v>1031.5999999999999</v>
       </c>
       <c r="J160" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -8501,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C161" s="21">
         <v>7122016</v>
@@ -8525,7 +8531,7 @@
         <v>1047.5999999999999</v>
       </c>
       <c r="J161" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -8533,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C162" s="21">
         <v>7122016</v>
@@ -8562,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C163" s="21">
         <v>7122016</v>
@@ -8591,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C164" s="21">
         <v>7122016</v>
@@ -8620,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C165" s="21">
         <v>7122016</v>
@@ -8669,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C167" s="21">
         <v>16122016</v>
@@ -8693,7 +8699,7 @@
         <v>1031.0999999999999</v>
       </c>
       <c r="J167" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -8701,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C168" s="21">
         <v>16122016</v>
@@ -8730,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C169" s="21">
         <v>16122016</v>
@@ -8759,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C170" s="21">
         <v>16122016</v>
@@ -8788,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C171" s="21">
         <v>16122016</v>
@@ -8817,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C172" s="21">
         <v>16122016</v>
@@ -8846,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C173" s="21">
         <v>16122016</v>
@@ -8875,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C174" s="21">
         <v>16122016</v>
@@ -8904,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C175" s="21">
         <v>16122016</v>
@@ -8933,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C176" s="21">
         <v>16122016</v>
@@ -8957,7 +8963,7 @@
         <v>1051.4000000000001</v>
       </c>
       <c r="J176" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -8965,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C177" s="21">
         <v>16122016</v>
@@ -8994,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C178" s="21">
         <v>16122016</v>
@@ -9023,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C179" s="21">
         <v>16122016</v>
@@ -9052,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C180" s="21">
         <v>16122016</v>
@@ -9081,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C181" s="21">
         <v>16122016</v>
@@ -9110,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C182" s="21">
         <v>16122016</v>
@@ -9139,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C183" s="21">
         <v>16122016</v>
@@ -9177,7 +9183,7 @@
         <v>959.9</v>
       </c>
       <c r="J184" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -9185,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C185" s="21">
         <v>17012017</v>
@@ -9208,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C186" s="21">
         <v>17012017</v>
@@ -9231,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C187" s="21">
         <v>17012017</v>
@@ -9254,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C188" s="21">
         <v>17012017</v>
@@ -9277,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C189" s="21">
         <v>17012017</v>
@@ -9300,7 +9306,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C190" s="21">
         <v>17012017</v>
@@ -9323,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C191" s="21">
         <v>17012017</v>
@@ -9346,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C192" s="21">
         <v>17012017</v>
@@ -9369,7 +9375,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C193" s="21">
         <v>17012017</v>
@@ -9392,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C194" s="21">
         <v>17012017</v>
@@ -9415,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C195" s="21">
         <v>17012017</v>
@@ -9438,7 +9444,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C196" s="21">
         <v>17012017</v>
@@ -9461,7 +9467,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C197" s="21">
         <v>17012017</v>
@@ -9484,7 +9490,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C198" s="21">
         <v>17012017</v>
@@ -9507,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C199" s="21">
         <v>17012017</v>
@@ -9530,7 +9536,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C200" s="21">
         <v>17012017</v>
@@ -9553,7 +9559,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C201" s="21">
         <v>17012017</v>
@@ -9576,7 +9582,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C202" s="21">
         <v>17012017</v>
@@ -9599,7 +9605,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C203" s="21">
         <v>17012017</v>
@@ -9622,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C204" s="21">
         <v>17012017</v>
@@ -9645,7 +9651,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C205" s="21">
         <v>17012017</v>
@@ -9668,7 +9674,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C206" s="21">
         <v>17012017</v>
@@ -9691,7 +9697,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C207" s="21">
         <v>18012017</v>
@@ -9711,7 +9717,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C208" s="21">
         <v>18012017</v>
@@ -9735,7 +9741,7 @@
         <v>950.2</v>
       </c>
       <c r="J208" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -9743,7 +9749,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C209" s="21">
         <v>18012017</v>
@@ -9772,7 +9778,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C210" s="21">
         <v>18012017</v>
@@ -9792,7 +9798,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C211" s="21">
         <v>18012017</v>
@@ -9816,7 +9822,7 @@
         <v>846.6</v>
       </c>
       <c r="J211" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -9824,7 +9830,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C212" s="21">
         <v>18012017</v>
@@ -9853,7 +9859,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C213" s="21">
         <v>18012017</v>
@@ -9882,7 +9888,7 @@
         <v>2</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C214" s="21">
         <v>18012017</v>
@@ -9911,7 +9917,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C215" s="21">
         <v>18012017</v>
@@ -9940,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C216" s="21">
         <v>18012017</v>
@@ -9969,7 +9975,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C217" s="21">
         <v>18012017</v>
@@ -9998,7 +10004,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C218" s="21">
         <v>18012017</v>
@@ -10027,7 +10033,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C219" s="21">
         <v>18012017</v>
@@ -10056,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C220" s="21">
         <v>18012017</v>
@@ -10085,7 +10091,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C221" s="21">
         <v>18012017</v>
@@ -10114,7 +10120,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C222" s="21">
         <v>18012017</v>
@@ -10143,7 +10149,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C223" s="21">
         <v>18012017</v>
@@ -10201,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C225" s="21">
         <v>18012017</v>
@@ -10230,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C226" s="21">
         <v>18012017</v>
@@ -10259,7 +10265,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C227" s="21">
         <v>18012017</v>
@@ -10288,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C228" s="21">
         <v>18012017</v>
@@ -10317,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C229" s="21">
         <v>18012017</v>
@@ -10346,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C230" s="21">
         <v>19012017</v>
@@ -10366,7 +10372,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C231" s="21">
         <v>19012017</v>
@@ -10395,7 +10401,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C232" s="21">
         <v>19012017</v>
@@ -10424,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C233" s="21">
         <v>19012017</v>
@@ -10453,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C234" s="21">
         <v>19012017</v>
@@ -10482,7 +10488,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C235" s="21">
         <v>19012017</v>
@@ -10511,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C236" s="21">
         <v>19012017</v>
@@ -10540,7 +10546,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C237" s="21">
         <v>19012017</v>
@@ -10560,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C238" s="21">
         <v>19012017</v>
@@ -10609,7 +10615,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C240" s="21">
         <v>19012017</v>
@@ -10638,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C241" s="21">
         <v>19012017</v>
@@ -10662,7 +10668,7 @@
         <v>986.3</v>
       </c>
       <c r="J241" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -10670,7 +10676,7 @@
         <v>2</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C242" s="21">
         <v>19012017</v>
@@ -10699,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C243" s="21">
         <v>19012017</v>
@@ -10728,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C244" s="21">
         <v>19012017</v>
@@ -10757,7 +10763,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C245" s="21">
         <v>19012017</v>
@@ -10786,7 +10792,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C246" s="21">
         <v>19012017</v>
@@ -10815,7 +10821,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C247" s="21">
         <v>19012017</v>
@@ -10844,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C248" s="21">
         <v>19012017</v>
@@ -10873,7 +10879,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C249" s="21">
         <v>19012017</v>
@@ -10902,7 +10908,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C250" s="21">
         <v>19012017</v>
@@ -10931,7 +10937,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C251" s="21">
         <v>19012017</v>
@@ -10960,7 +10966,7 @@
         <v>2</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C252" s="21">
         <v>19012017</v>
@@ -10989,7 +10995,7 @@
         <v>2</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C253" s="21">
         <v>19012017</v>
@@ -11018,7 +11024,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C254" s="21">
         <v>20012017</v>
@@ -11047,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C255" s="21">
         <v>20012017</v>
@@ -11076,7 +11082,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C256" s="21">
         <v>20012017</v>
@@ -11105,7 +11111,7 @@
         <v>2</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C257" s="21">
         <v>20012017</v>
@@ -11134,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C258" s="21">
         <v>20012017</v>
@@ -11163,7 +11169,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C259" s="21">
         <v>20012017</v>
@@ -11192,7 +11198,7 @@
         <v>2</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C260" s="21">
         <v>20012017</v>
@@ -11221,7 +11227,7 @@
         <v>2</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C261" s="21">
         <v>20012017</v>
@@ -11250,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C262" s="21">
         <v>20012017</v>
@@ -11279,7 +11285,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C263" s="21">
         <v>20012017</v>
@@ -11308,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C264" s="21">
         <v>20012017</v>
@@ -11337,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C265" s="21">
         <v>20012017</v>
@@ -11366,7 +11372,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C266" s="21">
         <v>20012017</v>
@@ -11395,7 +11401,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C267" s="21">
         <v>20012017</v>
@@ -11424,7 +11430,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C268" s="21">
         <v>20012017</v>
@@ -11477,7 +11483,7 @@
         <v>959.6</v>
       </c>
       <c r="J269" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
@@ -11485,7 +11491,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C270" s="21">
         <v>20012017</v>
@@ -11514,7 +11520,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C271" s="21">
         <v>20012017</v>
@@ -11543,7 +11549,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C272" s="21">
         <v>20012017</v>
@@ -11572,7 +11578,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C273" s="21">
         <v>20012017</v>
@@ -11601,7 +11607,7 @@
         <v>2</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C274" s="21">
         <v>20012017</v>
@@ -11630,7 +11636,7 @@
         <v>2</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C275" s="21">
         <v>20012017</v>
@@ -11645,7 +11651,7 @@
         <v>405.96</v>
       </c>
       <c r="J275" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -11653,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C276" s="21">
         <v>20012017</v>
@@ -11668,7 +11674,7 @@
         <v>1073.5999999999999</v>
       </c>
       <c r="J276" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -11676,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C277" s="21">
         <v>20012017</v>
@@ -11691,7 +11697,7 @@
         <v>826.9</v>
       </c>
       <c r="J277" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -11699,7 +11705,7 @@
         <v>2</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C278" s="21">
         <v>22012017</v>
@@ -11728,7 +11734,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C279" s="21">
         <v>22012017</v>
@@ -11757,7 +11763,7 @@
         <v>2</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C280" s="21">
         <v>22012017</v>
@@ -11786,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C281" s="21">
         <v>22012017</v>
@@ -11815,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C282" s="21">
         <v>22012017</v>
@@ -11844,7 +11850,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C283" s="21">
         <v>22012017</v>
@@ -11902,7 +11908,7 @@
         <v>2</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C285" s="21">
         <v>22012017</v>
@@ -11931,7 +11937,7 @@
         <v>2</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C286" s="21">
         <v>22012017</v>
@@ -11960,7 +11966,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C287" s="21">
         <v>22012017</v>
@@ -11989,7 +11995,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C288" s="21">
         <v>22012017</v>
@@ -12018,7 +12024,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C289" s="21">
         <v>22012017</v>
@@ -12047,7 +12053,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C290" s="21">
         <v>22012017</v>
@@ -12076,7 +12082,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C291" s="21">
         <v>22012017</v>
@@ -12105,7 +12111,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C292" s="21">
         <v>22012017</v>
@@ -12134,7 +12140,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C293" s="21">
         <v>22012017</v>
@@ -12163,7 +12169,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C294" s="21">
         <v>22012017</v>
@@ -12192,7 +12198,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C295" s="21">
         <v>22012017</v>
@@ -12221,7 +12227,7 @@
         <v>2</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C296" s="21">
         <v>22012017</v>
@@ -12250,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C297" s="21">
         <v>22012017</v>
@@ -12279,7 +12285,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C298" s="21">
         <v>22012017</v>
@@ -12308,7 +12314,7 @@
         <v>2</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C299" s="21">
         <v>22012017</v>
@@ -12328,7 +12334,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C300" s="21">
         <v>22012017</v>
@@ -12348,7 +12354,7 @@
         <v>2</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C301" s="21">
         <v>22012017</v>
@@ -12368,7 +12374,7 @@
         <v>2</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C302" s="21">
         <v>24012017</v>
@@ -12397,7 +12403,7 @@
         <v>2</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C303" s="21">
         <v>24012017</v>
@@ -12426,7 +12432,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C304" s="21">
         <v>24012017</v>
@@ -12455,7 +12461,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C305" s="21">
         <v>24012017</v>
@@ -12484,7 +12490,7 @@
         <v>2</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C306" s="21">
         <v>24012017</v>
@@ -12513,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C307" s="21">
         <v>24012017</v>
@@ -12542,7 +12548,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C308" s="21">
         <v>24012017</v>
@@ -12571,7 +12577,7 @@
         <v>2</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C309" s="21">
         <v>24012017</v>
@@ -12600,7 +12606,7 @@
         <v>2</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C310" s="21">
         <v>24012017</v>
@@ -12629,7 +12635,7 @@
         <v>2</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C311" s="21">
         <v>24012017</v>
@@ -12658,7 +12664,7 @@
         <v>2</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C312" s="21">
         <v>24012017</v>
@@ -12687,7 +12693,7 @@
         <v>2</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C313" s="21">
         <v>24012017</v>
@@ -12711,7 +12717,7 @@
         <v>1046.8</v>
       </c>
       <c r="J313" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -12719,7 +12725,7 @@
         <v>2</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C314" s="21">
         <v>24012017</v>
@@ -12748,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C315" s="21">
         <v>24012017</v>
@@ -12772,7 +12778,7 @@
         <v>839.8</v>
       </c>
       <c r="J315" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -12780,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C316" s="21">
         <v>24012017</v>
@@ -12838,7 +12844,7 @@
         <v>2</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C318" s="21">
         <v>24012017</v>
@@ -12867,7 +12873,7 @@
         <v>2</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C319" s="21">
         <v>24012017</v>
@@ -12896,7 +12902,7 @@
         <v>2</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C320" s="21">
         <v>24012017</v>
@@ -12925,7 +12931,7 @@
         <v>2</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C321" s="21">
         <v>24012017</v>
@@ -12954,7 +12960,7 @@
         <v>2</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C322" s="21">
         <v>24012017</v>
@@ -12983,7 +12989,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C323" s="21">
         <v>24012017</v>
@@ -13003,7 +13009,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C324" s="21">
         <v>24012017</v>
@@ -13023,7 +13029,7 @@
         <v>2</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C325" s="21">
         <v>24012017</v>
@@ -13043,7 +13049,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C326" s="21">
         <v>28012017</v>
@@ -13067,7 +13073,7 @@
         <v>836.6</v>
       </c>
       <c r="J326" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -13075,7 +13081,7 @@
         <v>2</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C327" s="21">
         <v>28012017</v>
@@ -13104,7 +13110,7 @@
         <v>2</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C328" s="21">
         <v>28012017</v>
@@ -13133,7 +13139,7 @@
         <v>2</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C329" s="21">
         <v>28012017</v>
@@ -13162,7 +13168,7 @@
         <v>2</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C330" s="21">
         <v>28012017</v>
@@ -13191,7 +13197,7 @@
         <v>2</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C331" s="21">
         <v>28012017</v>
@@ -13249,7 +13255,7 @@
         <v>2</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C333" s="21">
         <v>28012017</v>
@@ -13278,7 +13284,7 @@
         <v>2</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C334" s="21">
         <v>28012017</v>
@@ -13307,7 +13313,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C335" s="21">
         <v>28012017</v>
@@ -13336,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C336" s="21">
         <v>28012017</v>
@@ -13365,7 +13371,7 @@
         <v>2</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C337" s="21">
         <v>28012017</v>
@@ -13394,7 +13400,7 @@
         <v>2</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C338" s="21">
         <v>28012017</v>
@@ -13423,7 +13429,7 @@
         <v>2</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C339" s="21">
         <v>28012017</v>
@@ -13447,7 +13453,7 @@
         <v>1018.9</v>
       </c>
       <c r="J339" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
@@ -13455,7 +13461,7 @@
         <v>2</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C340" s="21">
         <v>28012017</v>
@@ -13484,7 +13490,7 @@
         <v>2</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C341" s="21">
         <v>28012017</v>
@@ -13513,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C342" s="21">
         <v>28012017</v>
@@ -13542,7 +13548,7 @@
         <v>2</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C343" s="21">
         <v>28012017</v>
@@ -13566,7 +13572,7 @@
         <v>869.6</v>
       </c>
       <c r="J343" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
@@ -13574,7 +13580,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C344" s="21">
         <v>28012017</v>
@@ -13603,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C345" s="21">
         <v>28012017</v>
@@ -13627,7 +13633,7 @@
         <v>854.5</v>
       </c>
       <c r="J345" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -13635,7 +13641,7 @@
         <v>2</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C346" s="21">
         <v>28012017</v>
@@ -13664,7 +13670,7 @@
         <v>2</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C347" s="21">
         <v>28012017</v>
@@ -13681,7 +13687,7 @@
         <v>2</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C348" s="21">
         <v>28012017</v>
@@ -13698,7 +13704,7 @@
         <v>2</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C349" s="21">
         <v>28012017</v>
@@ -13715,7 +13721,7 @@
         <v>2</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C350" s="21">
         <v>31012017</v>
@@ -13744,7 +13750,7 @@
         <v>2</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C351" s="21">
         <v>31012017</v>
@@ -13773,7 +13779,7 @@
         <v>2</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C352" s="21">
         <v>31012017</v>
@@ -13802,7 +13808,7 @@
         <v>2</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C353" s="21">
         <v>1022017</v>
@@ -13831,7 +13837,7 @@
         <v>2</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C354" s="21">
         <v>1022017</v>
@@ -13860,7 +13866,7 @@
         <v>2</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C355" s="21">
         <v>1022017</v>
@@ -13918,7 +13924,7 @@
         <v>2</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C357" s="21">
         <v>1022017</v>
@@ -13947,7 +13953,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C358" s="21">
         <v>1022017</v>
@@ -13976,7 +13982,7 @@
         <v>2</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C359" s="21">
         <v>1022017</v>
@@ -14005,7 +14011,7 @@
         <v>2</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C360" s="21">
         <v>1022017</v>
@@ -14034,7 +14040,7 @@
         <v>2</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C361" s="21">
         <v>1022017</v>
@@ -14063,7 +14069,7 @@
         <v>2</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C362" s="21">
         <v>1022017</v>
@@ -14092,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C363" s="21">
         <v>1022017</v>
@@ -14121,7 +14127,7 @@
         <v>2</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C364" s="21">
         <v>1022017</v>
@@ -14150,7 +14156,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C365" s="21">
         <v>1022017</v>
@@ -14179,7 +14185,7 @@
         <v>2</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C366" s="21">
         <v>1022017</v>
@@ -14208,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C367" s="21">
         <v>1022017</v>
@@ -14237,7 +14243,7 @@
         <v>2</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C368" s="21">
         <v>1022017</v>
@@ -14266,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C369" s="21">
         <v>1022017</v>
@@ -14295,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C370" s="21">
         <v>1022017</v>
@@ -14324,7 +14330,7 @@
         <v>2</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C371" s="21">
         <v>1022017</v>
@@ -14341,7 +14347,7 @@
         <v>2</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C372" s="21">
         <v>1022017</v>
@@ -14358,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C373" s="21">
         <v>1022017</v>
@@ -14375,7 +14381,7 @@
         <v>2</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C374" s="21">
         <v>6022017</v>
@@ -14404,7 +14410,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C375" s="21">
         <v>6022017</v>
@@ -14433,7 +14439,7 @@
         <v>2</v>
       </c>
       <c r="B376" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C376" s="21">
         <v>6022017</v>
@@ -14462,7 +14468,7 @@
         <v>2</v>
       </c>
       <c r="B377" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C377" s="21">
         <v>6022017</v>
@@ -14491,7 +14497,7 @@
         <v>2</v>
       </c>
       <c r="B378" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C378" s="21">
         <v>6022017</v>
@@ -14520,7 +14526,7 @@
         <v>2</v>
       </c>
       <c r="B379" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C379" s="21">
         <v>6022017</v>
@@ -14578,7 +14584,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C381" s="21">
         <v>6022017</v>
@@ -14607,7 +14613,7 @@
         <v>2</v>
       </c>
       <c r="B382" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C382" s="21">
         <v>6022017</v>
@@ -14636,7 +14642,7 @@
         <v>2</v>
       </c>
       <c r="B383" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C383" s="21">
         <v>6022017</v>
@@ -14665,7 +14671,7 @@
         <v>2</v>
       </c>
       <c r="B384" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C384" s="21">
         <v>6022017</v>
@@ -14694,7 +14700,7 @@
         <v>2</v>
       </c>
       <c r="B385" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C385" s="21">
         <v>6022017</v>
@@ -14723,7 +14729,7 @@
         <v>2</v>
       </c>
       <c r="B386" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C386" s="21">
         <v>6022017</v>
@@ -14752,7 +14758,7 @@
         <v>2</v>
       </c>
       <c r="B387" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C387" s="21">
         <v>6022017</v>
@@ -14781,7 +14787,7 @@
         <v>2</v>
       </c>
       <c r="B388" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C388" s="21">
         <v>6022017</v>
@@ -14810,7 +14816,7 @@
         <v>2</v>
       </c>
       <c r="B389" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C389" s="21">
         <v>6022017</v>
@@ -14839,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="B390" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C390" s="21">
         <v>6022017</v>
@@ -14868,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="B391" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C391" s="21">
         <v>6022017</v>
@@ -14897,7 +14903,7 @@
         <v>2</v>
       </c>
       <c r="B392" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C392" s="21">
         <v>6022017</v>
@@ -14926,7 +14932,7 @@
         <v>2</v>
       </c>
       <c r="B393" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C393" s="21">
         <v>6022017</v>
@@ -14950,7 +14956,7 @@
         <v>839.3</v>
       </c>
       <c r="J393" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
@@ -14958,7 +14964,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C394" s="21">
         <v>6022017</v>
@@ -14987,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="B395" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C395" s="21">
         <v>6022017</v>
@@ -15004,7 +15010,7 @@
         <v>2</v>
       </c>
       <c r="B396" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C396" s="21">
         <v>6022017</v>
@@ -15021,7 +15027,7 @@
         <v>2</v>
       </c>
       <c r="B397" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C397" s="21">
         <v>6022017</v>
@@ -15038,7 +15044,7 @@
         <v>2</v>
       </c>
       <c r="B398" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C398" s="21">
         <v>17022017</v>
@@ -15062,7 +15068,7 @@
         <v>822.6</v>
       </c>
       <c r="J398" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
@@ -15070,7 +15076,7 @@
         <v>2</v>
       </c>
       <c r="B399" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C399" s="21">
         <v>17022017</v>
@@ -15099,7 +15105,7 @@
         <v>2</v>
       </c>
       <c r="B400" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C400" s="21">
         <v>17022017</v>
@@ -15128,7 +15134,7 @@
         <v>2</v>
       </c>
       <c r="B401" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C401" s="21">
         <v>17022017</v>
@@ -15157,7 +15163,7 @@
         <v>2</v>
       </c>
       <c r="B402" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C402" s="21">
         <v>17022017</v>
@@ -15186,7 +15192,7 @@
         <v>2</v>
       </c>
       <c r="B403" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C403" s="21">
         <v>17022017</v>
@@ -15244,7 +15250,7 @@
         <v>2</v>
       </c>
       <c r="B405" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C405" s="21">
         <v>17022017</v>
@@ -15273,7 +15279,7 @@
         <v>2</v>
       </c>
       <c r="B406" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C406" s="21">
         <v>17022017</v>
@@ -15302,7 +15308,7 @@
         <v>2</v>
       </c>
       <c r="B407" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C407" s="21">
         <v>17022017</v>
@@ -15331,7 +15337,7 @@
         <v>2</v>
       </c>
       <c r="B408" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C408" s="21">
         <v>17022017</v>
@@ -15355,7 +15361,7 @@
         <v>854</v>
       </c>
       <c r="J408" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -15363,7 +15369,7 @@
         <v>2</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C409" s="21">
         <v>17022017</v>
@@ -15387,7 +15393,7 @@
         <v>843.7</v>
       </c>
       <c r="J409" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -15395,7 +15401,7 @@
         <v>2</v>
       </c>
       <c r="B410" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C410" s="21">
         <v>17022017</v>
@@ -15424,7 +15430,7 @@
         <v>2</v>
       </c>
       <c r="B411" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C411" s="21">
         <v>17022017</v>
@@ -15453,7 +15459,7 @@
         <v>2</v>
       </c>
       <c r="B412" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C412" s="21">
         <v>17022017</v>
@@ -15482,7 +15488,7 @@
         <v>2</v>
       </c>
       <c r="B413" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C413" s="21">
         <v>17022017</v>
@@ -15511,7 +15517,7 @@
         <v>2</v>
       </c>
       <c r="B414" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C414" s="21">
         <v>17022017</v>
@@ -15540,7 +15546,7 @@
         <v>2</v>
       </c>
       <c r="B415" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C415" s="21">
         <v>17022017</v>
@@ -15569,7 +15575,7 @@
         <v>2</v>
       </c>
       <c r="B416" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C416" s="21">
         <v>17022017</v>
@@ -15593,7 +15599,7 @@
         <v>1034.0999999999999</v>
       </c>
       <c r="J416" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
@@ -15601,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="B417" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C417" s="21">
         <v>17022017</v>
@@ -15630,7 +15636,7 @@
         <v>2</v>
       </c>
       <c r="B418" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C418" s="21">
         <v>17022017</v>
@@ -15654,7 +15660,7 @@
         <v>1045.9000000000001</v>
       </c>
       <c r="J418" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
@@ -15662,7 +15668,7 @@
         <v>2</v>
       </c>
       <c r="B419" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C419" s="21">
         <v>17022017</v>
@@ -15679,7 +15685,7 @@
         <v>2</v>
       </c>
       <c r="B420" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C420" s="21">
         <v>17022017</v>
@@ -15696,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="B421" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C421" s="21">
         <v>17022017</v>
@@ -15718,7 +15724,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15732,90 +15738,101 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>

--- a/experiments/IISBMP1/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP1/data/biogas_and_setup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au521230\Documents\GitHub\GD-BMP\experiments\IISBMP1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au594831\Dropbox\GD-BMP-GH\experiments\IISBMP1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="146">
   <si>
     <t>Experiment</t>
   </si>
@@ -300,136 +300,10 @@
     <t>Slight leak, but P probably OK</t>
   </si>
   <si>
-    <t>1023.4</t>
-  </si>
-  <si>
-    <t>1037.3</t>
-  </si>
-  <si>
-    <t>1057.2</t>
-  </si>
-  <si>
-    <t>1065.7</t>
-  </si>
-  <si>
-    <t>1055.6</t>
-  </si>
-  <si>
-    <t>1045.2</t>
-  </si>
-  <si>
     <t>Neither pressure nor volume measured due to leak. Here copied from E1 because mass loss was the same.</t>
   </si>
   <si>
-    <t>1038.0</t>
-  </si>
-  <si>
-    <t>1028.5</t>
-  </si>
-  <si>
-    <t>1054.5</t>
-  </si>
-  <si>
-    <t>1036.2</t>
-  </si>
-  <si>
-    <t>1032.2</t>
-  </si>
-  <si>
-    <t>1078.3</t>
-  </si>
-  <si>
     <t>Measured masses were 1046.9, set to previous value.</t>
-  </si>
-  <si>
-    <t>1073.8</t>
-  </si>
-  <si>
-    <t>1035.9</t>
-  </si>
-  <si>
-    <t>1056.1</t>
-  </si>
-  <si>
-    <t>1033.8</t>
-  </si>
-  <si>
-    <t>1049.9</t>
-  </si>
-  <si>
-    <t>1035.7</t>
-  </si>
-  <si>
-    <t>1064.9</t>
-  </si>
-  <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>1044.6</t>
-  </si>
-  <si>
-    <t>1037.2</t>
-  </si>
-  <si>
-    <t>1027.9</t>
-  </si>
-  <si>
-    <t>1053.9</t>
-  </si>
-  <si>
-    <t>1022.6</t>
-  </si>
-  <si>
-    <t>1056.4</t>
-  </si>
-  <si>
-    <t>1073.6</t>
-  </si>
-  <si>
-    <t>1036.5</t>
-  </si>
-  <si>
-    <t>1027.2</t>
-  </si>
-  <si>
-    <t>1053.2</t>
-  </si>
-  <si>
-    <t>1063.9</t>
-  </si>
-  <si>
-    <t>1054.1</t>
-  </si>
-  <si>
-    <t>1043.7</t>
-  </si>
-  <si>
-    <t>1022.1</t>
-  </si>
-  <si>
-    <t>1056.0</t>
-  </si>
-  <si>
-    <t>1055.5</t>
-  </si>
-  <si>
-    <t>1033.2</t>
-  </si>
-  <si>
-    <t>1049.3</t>
-  </si>
-  <si>
-    <t>1032.0</t>
-  </si>
-  <si>
-    <t>1078.1</t>
-  </si>
-  <si>
-    <t>1046.6</t>
-  </si>
-  <si>
-    <t>1035.1</t>
   </si>
   <si>
     <t>Start mixing before measurement (all previous obs: mixed after measurement)</t>
@@ -611,6 +485,15 @@
   <si>
     <t>Change all data in time column to min.for each sampling day to make same time for a sampling</t>
   </si>
+  <si>
+    <t>25 Feb 2019</t>
+  </si>
+  <si>
+    <t>SDH</t>
+  </si>
+  <si>
+    <t>Copy out and paste in mass.init into new column to fix numeric/character issue</t>
+  </si>
 </sst>
 </file>
 
@@ -681,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -740,6 +623,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,26 +1092,26 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.87890625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="5" width="9.875" style="5"/>
-    <col min="6" max="6" width="11.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="5" customWidth="1"/>
-    <col min="9" max="11" width="9.875" style="5"/>
-    <col min="12" max="12" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="5"/>
-    <col min="19" max="19" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="6"/>
-    <col min="21" max="1023" width="9.875" style="5"/>
-    <col min="1024" max="16384" width="9.875" style="1"/>
+    <col min="1" max="5" width="9.87890625" style="5"/>
+    <col min="6" max="6" width="11.234375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.1171875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.87890625" style="5" customWidth="1"/>
+    <col min="9" max="11" width="9.87890625" style="5"/>
+    <col min="12" max="12" width="11.87890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.87890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.46875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.46875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.87890625" style="5"/>
+    <col min="19" max="19" width="10.87890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.87890625" style="6"/>
+    <col min="21" max="1023" width="9.87890625" style="5"/>
+    <col min="1024" max="16384" width="9.87890625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -1287,7 +1173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1325,10 +1211,10 @@
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>30</v>
@@ -1349,7 +1235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1357,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E3" s="5">
         <v>537.16999999999996</v>
@@ -1407,7 +1293,7 @@
         <v>625.78</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1415,7 +1301,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E4" s="5">
         <v>540.07000000000005</v>
@@ -1465,7 +1351,7 @@
         <v>632.82999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1473,7 +1359,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E5" s="5">
         <v>537.28</v>
@@ -1523,7 +1409,7 @@
         <v>584.04</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1531,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E6" s="5">
         <v>537.74</v>
@@ -1581,7 +1467,7 @@
         <v>615.63</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1647,7 +1533,7 @@
         <v>628.57000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1713,7 +1599,7 @@
         <v>633.65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1779,7 +1665,7 @@
         <v>610.36</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1845,7 +1731,7 @@
         <v>635.90000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1911,7 +1797,7 @@
         <v>626.34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -1977,7 +1863,7 @@
         <v>611.5200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -2043,7 +1929,7 @@
         <v>600.41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -2109,7 +1995,7 @@
         <v>608.22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2175,7 +2061,7 @@
         <v>621.15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2241,7 +2127,7 @@
         <v>606.72</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2307,7 +2193,7 @@
         <v>627.26</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2373,7 +2259,7 @@
         <v>611.04</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2439,7 +2325,7 @@
         <v>632.47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -2505,7 +2391,7 @@
         <v>636.4799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -2571,7 +2457,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -2623,7 +2509,7 @@
       </c>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -2631,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5">
@@ -2666,7 +2552,7 @@
         <v>703.66000000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2674,7 +2560,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="5">
@@ -2709,7 +2595,7 @@
         <v>673.88</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -2717,7 +2603,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5">
@@ -2752,7 +2638,7 @@
         <v>675.6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -2812,7 +2698,7 @@
         <v>837.24</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -2872,7 +2758,7 @@
         <v>823.13</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -2933,10 +2819,10 @@
         <v>822.81</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -2996,7 +2882,7 @@
         <v>817.39999999999986</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>2</v>
       </c>
@@ -3056,7 +2942,7 @@
         <v>809.07999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -3116,7 +3002,7 @@
         <v>817.3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -3176,7 +3062,7 @@
         <v>623.16</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -3236,7 +3122,7 @@
         <v>639.2399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -3296,7 +3182,7 @@
         <v>613.32000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -3357,7 +3243,7 @@
         <v>715.75</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -3417,7 +3303,7 @@
         <v>803.78</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -3477,7 +3363,7 @@
         <v>814.66</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -3537,7 +3423,7 @@
         <v>824.5</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -3597,7 +3483,7 @@
         <v>810.30000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -3657,7 +3543,7 @@
         <v>798.98</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -3717,7 +3603,7 @@
         <v>813.28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>2</v>
       </c>
@@ -3777,7 +3663,7 @@
         <v>821.21</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>2</v>
       </c>
@@ -3837,7 +3723,7 @@
         <v>790.15000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>2</v>
       </c>
@@ -3863,7 +3749,7 @@
       <c r="P44" s="19"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>2</v>
       </c>
@@ -3897,26 +3783,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K421"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A22" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="G406" sqref="G406"/>
+    <sheetView windowProtection="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.87890625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.76171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.64453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.64453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="21" customWidth="1"/>
     <col min="8" max="8" width="28" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17.1171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.234375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1171875" style="22" customWidth="1"/>
     <col min="12" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3927,31 +3813,31 @@
         <v>67</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3962,7 +3848,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>68</v>
@@ -3974,7 +3860,7 @@
         <v>73</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>74</v>
@@ -3986,7 +3872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -4005,7 +3891,7 @@
       <c r="F3" s="21">
         <v>1</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="23">
         <v>1036.5</v>
       </c>
       <c r="H3" s="21">
@@ -4018,7 +3904,7 @@
         <v>1036.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -4037,7 +3923,7 @@
       <c r="F4" s="21">
         <v>2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="23">
         <v>1032.2</v>
       </c>
       <c r="H4" s="21">
@@ -4050,7 +3936,7 @@
         <v>1032.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -4069,7 +3955,7 @@
       <c r="F5" s="21">
         <v>3</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="23">
         <v>1078.3</v>
       </c>
       <c r="H5" s="21">
@@ -4082,7 +3968,7 @@
         <v>1078.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -4101,7 +3987,7 @@
       <c r="F6" s="21">
         <v>4</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="23">
         <v>1046.8</v>
       </c>
       <c r="H6" s="21">
@@ -4114,7 +4000,7 @@
         <v>1046.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>1</v>
       </c>
@@ -4133,7 +4019,7 @@
       <c r="F7" s="21">
         <v>5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="23">
         <v>1038</v>
       </c>
       <c r="H7" s="21">
@@ -4146,7 +4032,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>1</v>
       </c>
@@ -4165,7 +4051,7 @@
       <c r="F8" s="21">
         <v>6</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="23">
         <v>1028.5999999999999</v>
       </c>
       <c r="H8" s="21">
@@ -4178,7 +4064,7 @@
         <v>1028.5999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -4197,7 +4083,7 @@
       <c r="F9" s="21">
         <v>7</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="23">
         <v>1054.5999999999999</v>
       </c>
       <c r="H9" s="21">
@@ -4210,7 +4096,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>1</v>
       </c>
@@ -4229,7 +4115,7 @@
       <c r="F10" s="21">
         <v>8</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="23">
         <v>1023.9</v>
       </c>
       <c r="H10" s="21">
@@ -4242,7 +4128,7 @@
         <v>1023.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>1</v>
       </c>
@@ -4261,7 +4147,7 @@
       <c r="F11" s="21">
         <v>9</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="23">
         <v>1037.9000000000001</v>
       </c>
       <c r="H11" s="21">
@@ -4274,7 +4160,7 @@
         <v>1037.9000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>1</v>
       </c>
@@ -4293,7 +4179,7 @@
       <c r="F12" s="21">
         <v>10</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="23">
         <v>1057.5999999999999</v>
       </c>
       <c r="H12" s="21">
@@ -4306,7 +4192,7 @@
         <v>1057.5999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>1</v>
       </c>
@@ -4325,7 +4211,7 @@
       <c r="F13" s="21">
         <v>11</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="23">
         <v>1065.9000000000001</v>
       </c>
       <c r="H13" s="21">
@@ -4338,7 +4224,7 @@
         <v>1065.9000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -4357,7 +4243,7 @@
       <c r="F14" s="21">
         <v>12</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="23">
         <v>1055.9000000000001</v>
       </c>
       <c r="H14" s="21">
@@ -4370,7 +4256,7 @@
         <v>1055.9000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>1</v>
       </c>
@@ -4389,7 +4275,7 @@
       <c r="F15" s="21">
         <v>13</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="23">
         <v>1045.5</v>
       </c>
       <c r="H15" s="21">
@@ -4402,7 +4288,7 @@
         <v>1045.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>1</v>
       </c>
@@ -4421,7 +4307,7 @@
       <c r="F16" s="21">
         <v>14</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="23">
         <v>1058.7</v>
       </c>
       <c r="H16" s="21">
@@ -4434,7 +4320,7 @@
         <v>1058.7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -4453,7 +4339,7 @@
       <c r="F17" s="21">
         <v>15</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="23">
         <v>1036.4000000000001</v>
       </c>
       <c r="H17" s="21">
@@ -4466,7 +4352,7 @@
         <v>1036.4000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>1</v>
       </c>
@@ -4485,7 +4371,7 @@
       <c r="F18" s="21">
         <v>16</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="23">
         <v>1052.5999999999999</v>
       </c>
       <c r="H18" s="21">
@@ -4498,7 +4384,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>1</v>
       </c>
@@ -4517,7 +4403,7 @@
       <c r="F19" s="21">
         <v>17</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="23">
         <v>1029.9000000000001</v>
       </c>
       <c r="H19" s="21">
@@ -4530,7 +4416,7 @@
         <v>1029.9000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>1</v>
       </c>
@@ -4549,7 +4435,7 @@
       <c r="F20" s="21">
         <v>18</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="23">
         <v>1025.2</v>
       </c>
       <c r="H20" s="21">
@@ -4562,7 +4448,7 @@
         <v>1025.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>1</v>
       </c>
@@ -4581,7 +4467,7 @@
       <c r="F21" s="21">
         <v>19</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="23">
         <v>1039</v>
       </c>
       <c r="H21" s="21">
@@ -4594,7 +4480,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>1</v>
       </c>
@@ -4613,7 +4499,7 @@
       <c r="F22" s="21">
         <v>20</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="23">
         <v>1073.5999999999999</v>
       </c>
       <c r="H22" s="21">
@@ -4626,7 +4512,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>1</v>
       </c>
@@ -4645,7 +4531,7 @@
       <c r="F23" s="21">
         <v>21</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="23">
         <v>1058.7</v>
       </c>
       <c r="H23" s="21">
@@ -4658,7 +4544,7 @@
         <v>1057.7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>1</v>
       </c>
@@ -4677,7 +4563,7 @@
       <c r="F24" s="21">
         <v>22</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="23">
         <v>1036.3</v>
       </c>
       <c r="H24" s="21">
@@ -4690,7 +4576,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>1</v>
       </c>
@@ -4709,7 +4595,7 @@
       <c r="F25" s="21">
         <v>23</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="23">
         <v>1052.5999999999999</v>
       </c>
       <c r="H25" s="21">
@@ -4722,7 +4608,7 @@
         <v>1051.5999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>1</v>
       </c>
@@ -4741,7 +4627,7 @@
       <c r="F26" s="21">
         <v>24</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="23">
         <v>1065.9000000000001</v>
       </c>
       <c r="H26" s="21">
@@ -4754,7 +4640,7 @@
         <v>1065.5999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>1</v>
       </c>
@@ -4773,6 +4659,7 @@
       <c r="F27" s="21">
         <v>25</v>
       </c>
+      <c r="G27" s="23"/>
       <c r="H27" s="21">
         <v>0.38600000000000001</v>
       </c>
@@ -4783,7 +4670,7 @@
         <v>1055.5999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>1</v>
       </c>
@@ -4802,7 +4689,7 @@
       <c r="F28" s="21">
         <v>26</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="23">
         <v>1045.4000000000001</v>
       </c>
       <c r="H28" s="21">
@@ -4815,10 +4702,10 @@
         <v>1045.2</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>1</v>
       </c>
@@ -4837,6 +4724,7 @@
       <c r="F29" s="21">
         <v>27</v>
       </c>
+      <c r="G29" s="23"/>
       <c r="H29" s="21">
         <v>0.874</v>
       </c>
@@ -4847,7 +4735,7 @@
         <v>1023.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>1</v>
       </c>
@@ -4866,7 +4754,7 @@
       <c r="F30" s="21">
         <v>28</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="23">
         <v>1037.9000000000001</v>
       </c>
       <c r="H30" s="21">
@@ -4879,7 +4767,7 @@
         <v>1037.3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>1</v>
       </c>
@@ -4898,7 +4786,7 @@
       <c r="F31" s="21">
         <v>29</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="23">
         <v>1057.5999999999999</v>
       </c>
       <c r="H31" s="21">
@@ -4911,7 +4799,7 @@
         <v>1057.0999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>1</v>
       </c>
@@ -4930,6 +4818,7 @@
       <c r="F32" s="21">
         <v>30</v>
       </c>
+      <c r="G32" s="23"/>
       <c r="H32" s="21">
         <v>1.712</v>
       </c>
@@ -4940,7 +4829,7 @@
         <v>1028.4000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>1</v>
       </c>
@@ -4959,7 +4848,7 @@
       <c r="F33" s="21">
         <v>31</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="23">
         <v>1025.0999999999999</v>
       </c>
       <c r="H33" s="21">
@@ -4975,7 +4864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>1</v>
       </c>
@@ -4994,7 +4883,7 @@
       <c r="F34" s="21">
         <v>32</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="23">
         <v>1039</v>
       </c>
       <c r="H34" s="21">
@@ -5007,7 +4896,7 @@
         <v>1037.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>1</v>
       </c>
@@ -5026,7 +4915,7 @@
       <c r="F35" s="21">
         <v>33</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="23">
         <v>1038</v>
       </c>
       <c r="H35" s="21">
@@ -5039,7 +4928,7 @@
         <v>1037.8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>1</v>
       </c>
@@ -5058,7 +4947,7 @@
       <c r="F36" s="21">
         <v>34</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="23">
         <v>1028.5999999999999</v>
       </c>
       <c r="H36" s="21">
@@ -5071,7 +4960,7 @@
         <v>1028.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>1</v>
       </c>
@@ -5090,7 +4979,7 @@
       <c r="F37" s="21">
         <v>35</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="23">
         <v>1054.5999999999999</v>
       </c>
       <c r="H37" s="21">
@@ -5106,7 +4995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>1</v>
       </c>
@@ -5125,7 +5014,7 @@
       <c r="F38" s="21">
         <v>36</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="23">
         <v>1036.5</v>
       </c>
       <c r="H38" s="21">
@@ -5138,7 +5027,7 @@
         <v>1036.3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>1</v>
       </c>
@@ -5157,7 +5046,7 @@
       <c r="F39" s="21">
         <v>37</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="23">
         <v>1032.2</v>
       </c>
       <c r="H39" s="21">
@@ -5170,7 +5059,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>1</v>
       </c>
@@ -5189,7 +5078,7 @@
       <c r="F40" s="21">
         <v>38</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="23">
         <v>1078.3</v>
       </c>
       <c r="H40" s="21">
@@ -5202,7 +5091,7 @@
         <v>1078.2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>1</v>
       </c>
@@ -5221,7 +5110,7 @@
       <c r="F41" s="21">
         <v>39</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="23">
         <v>1046.8</v>
       </c>
       <c r="H41" s="21">
@@ -5234,7 +5123,7 @@
         <v>1046.5999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>1</v>
       </c>
@@ -5253,11 +5142,11 @@
       <c r="F42" s="21">
         <v>40</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>1</v>
       </c>
@@ -5276,7 +5165,7 @@
       <c r="F43" s="21">
         <v>41</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="23">
         <v>1057.8</v>
       </c>
       <c r="H43" s="21">
@@ -5289,7 +5178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>1</v>
       </c>
@@ -5308,7 +5197,7 @@
       <c r="F44" s="21">
         <v>42</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="23">
         <v>1035.5</v>
       </c>
       <c r="H44" s="21">
@@ -5321,7 +5210,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>1</v>
       </c>
@@ -5340,7 +5229,7 @@
       <c r="F45" s="21">
         <v>43</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="23">
         <v>1051.5999999999999</v>
       </c>
       <c r="H45" s="21">
@@ -5350,7 +5239,7 @@
         <v>1049.9000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>1</v>
       </c>
@@ -5369,14 +5258,14 @@
       <c r="F46" s="21">
         <v>44</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="23">
         <v>1037.5</v>
       </c>
       <c r="J46" s="21">
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>1</v>
       </c>
@@ -5395,8 +5284,8 @@
       <c r="F47" s="21">
         <v>45</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>81</v>
+      <c r="G47" s="23">
+        <v>1023.4</v>
       </c>
       <c r="H47" s="21">
         <v>1.0720000000000001</v>
@@ -5408,7 +5297,7 @@
         <v>1022.6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>1</v>
       </c>
@@ -5427,8 +5316,8 @@
       <c r="F48" s="21">
         <v>46</v>
       </c>
-      <c r="G48" s="21" t="s">
-        <v>82</v>
+      <c r="G48" s="23">
+        <v>1037.3</v>
       </c>
       <c r="H48" s="21">
         <v>1.0529999999999999</v>
@@ -5440,7 +5329,7 @@
         <v>1036.5999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>1</v>
       </c>
@@ -5459,8 +5348,8 @@
       <c r="F49" s="21">
         <v>47</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>83</v>
+      <c r="G49" s="23">
+        <v>1057.2</v>
       </c>
       <c r="H49" s="21">
         <v>1.0589999999999999</v>
@@ -5472,7 +5361,7 @@
         <v>1056.5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>1</v>
       </c>
@@ -5491,8 +5380,8 @@
       <c r="F50" s="21">
         <v>48</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>84</v>
+      <c r="G50" s="23">
+        <v>1065.7</v>
       </c>
       <c r="H50" s="21">
         <v>0.94299999999999995</v>
@@ -5504,7 +5393,7 @@
         <v>1065.0999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>1</v>
       </c>
@@ -5523,8 +5412,8 @@
       <c r="F51" s="21">
         <v>49</v>
       </c>
-      <c r="G51" s="21" t="s">
-        <v>85</v>
+      <c r="G51" s="23">
+        <v>1055.5999999999999</v>
       </c>
       <c r="H51" s="21">
         <v>0.876</v>
@@ -5536,7 +5425,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>1</v>
       </c>
@@ -5555,8 +5444,8 @@
       <c r="F52" s="21">
         <v>50</v>
       </c>
-      <c r="G52" s="21" t="s">
-        <v>86</v>
+      <c r="G52" s="23">
+        <v>1045.2</v>
       </c>
       <c r="H52" s="21">
         <v>0.94299999999999995</v>
@@ -5568,10 +5457,10 @@
         <v>1044.5999999999999</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>1</v>
       </c>
@@ -5590,8 +5479,8 @@
       <c r="F53" s="21">
         <v>51</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>88</v>
+      <c r="G53" s="23">
+        <v>1038</v>
       </c>
       <c r="H53" s="21">
         <v>0.80800000000000005</v>
@@ -5603,7 +5492,7 @@
         <v>1037.4000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <v>1</v>
       </c>
@@ -5622,8 +5511,8 @@
       <c r="F54" s="21">
         <v>52</v>
       </c>
-      <c r="G54" s="21" t="s">
-        <v>89</v>
+      <c r="G54" s="23">
+        <v>1028.5</v>
       </c>
       <c r="H54" s="21">
         <v>0.76</v>
@@ -5635,7 +5524,7 @@
         <v>1027.9000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <v>1</v>
       </c>
@@ -5654,8 +5543,8 @@
       <c r="F55" s="21">
         <v>53</v>
       </c>
-      <c r="G55" s="21" t="s">
-        <v>90</v>
+      <c r="G55" s="23">
+        <v>1054.5</v>
       </c>
       <c r="H55" s="21">
         <v>0.81299999999999994</v>
@@ -5667,7 +5556,7 @@
         <v>1053.9000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <v>1</v>
       </c>
@@ -5686,8 +5575,8 @@
       <c r="F56" s="21">
         <v>54</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>91</v>
+      <c r="G56" s="23">
+        <v>1036.2</v>
       </c>
       <c r="H56" s="21">
         <v>8.3000000000000004E-2</v>
@@ -5699,7 +5588,7 @@
         <v>1036.2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <v>1</v>
       </c>
@@ -5718,8 +5607,8 @@
       <c r="F57" s="21">
         <v>55</v>
       </c>
-      <c r="G57" s="21" t="s">
-        <v>92</v>
+      <c r="G57" s="23">
+        <v>1032.2</v>
       </c>
       <c r="H57" s="21">
         <v>0.10299999999999999</v>
@@ -5731,7 +5620,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <v>1</v>
       </c>
@@ -5750,8 +5639,8 @@
       <c r="F58" s="21">
         <v>56</v>
       </c>
-      <c r="G58" s="21" t="s">
-        <v>93</v>
+      <c r="G58" s="23">
+        <v>1078.3</v>
       </c>
       <c r="H58" s="21">
         <v>0.11600000000000001</v>
@@ -5763,7 +5652,7 @@
         <v>1078.2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
         <v>1</v>
       </c>
@@ -5782,7 +5671,7 @@
       <c r="F59" s="21">
         <v>57</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="23">
         <v>1046.5999999999999</v>
       </c>
       <c r="H59" s="21">
@@ -5795,10 +5684,10 @@
         <v>1046.5999999999999</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>1</v>
       </c>
@@ -5817,11 +5706,11 @@
       <c r="F60" s="21">
         <v>58</v>
       </c>
-      <c r="G60" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G60" s="23">
+        <v>1073.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>1</v>
       </c>
@@ -5840,8 +5729,8 @@
       <c r="F61" s="21">
         <v>59</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>96</v>
+      <c r="G61" s="23">
+        <v>1035.9000000000001</v>
       </c>
       <c r="H61" s="21">
         <v>0.245</v>
@@ -5853,7 +5742,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>1</v>
       </c>
@@ -5872,8 +5761,8 @@
       <c r="F62" s="21">
         <v>60</v>
       </c>
-      <c r="G62" s="21" t="s">
-        <v>97</v>
+      <c r="G62" s="23">
+        <v>1056.0999999999999</v>
       </c>
       <c r="H62" s="21">
         <v>0.746</v>
@@ -5885,7 +5774,7 @@
         <v>1055.5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="21">
         <v>1</v>
       </c>
@@ -5904,8 +5793,8 @@
       <c r="F63" s="21">
         <v>61</v>
       </c>
-      <c r="G63" s="21" t="s">
-        <v>98</v>
+      <c r="G63" s="23">
+        <v>1033.8</v>
       </c>
       <c r="H63" s="21">
         <v>0.67700000000000005</v>
@@ -5917,7 +5806,7 @@
         <v>1033.3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <v>1</v>
       </c>
@@ -5936,8 +5825,8 @@
       <c r="F64" s="21">
         <v>62</v>
       </c>
-      <c r="G64" s="21" t="s">
-        <v>99</v>
+      <c r="G64" s="23">
+        <v>1049.9000000000001</v>
       </c>
       <c r="H64" s="21">
         <v>0.77300000000000002</v>
@@ -5949,7 +5838,7 @@
         <v>1049.4000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>1</v>
       </c>
@@ -5968,8 +5857,8 @@
       <c r="F65" s="21">
         <v>63</v>
       </c>
-      <c r="G65" s="21" t="s">
-        <v>100</v>
+      <c r="G65" s="23">
+        <v>1035.7</v>
       </c>
       <c r="H65" s="21">
         <v>0.76500000000000001</v>
@@ -5981,7 +5870,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>1</v>
       </c>
@@ -6000,8 +5889,8 @@
       <c r="F66" s="21">
         <v>64</v>
       </c>
-      <c r="G66" s="21" t="s">
-        <v>101</v>
+      <c r="G66" s="23">
+        <v>1064.9000000000001</v>
       </c>
       <c r="H66" s="21">
         <v>1.3380000000000001</v>
@@ -6013,7 +5902,7 @@
         <v>1064.0999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>1</v>
       </c>
@@ -6032,8 +5921,8 @@
       <c r="F67" s="21">
         <v>65</v>
       </c>
-      <c r="G67" s="21" t="s">
-        <v>102</v>
+      <c r="G67" s="23">
+        <v>1055</v>
       </c>
       <c r="H67" s="21">
         <v>1.5629999999999999</v>
@@ -6045,7 +5934,7 @@
         <v>1054.0999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>1</v>
       </c>
@@ -6064,8 +5953,8 @@
       <c r="F68" s="21">
         <v>66</v>
       </c>
-      <c r="G68" s="21" t="s">
-        <v>103</v>
+      <c r="G68" s="23">
+        <v>1044.5999999999999</v>
       </c>
       <c r="H68" s="21">
         <v>1.4990000000000001</v>
@@ -6077,7 +5966,7 @@
         <v>1043.7</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <v>1</v>
       </c>
@@ -6096,8 +5985,8 @@
       <c r="F69" s="21">
         <v>67</v>
       </c>
-      <c r="G69" s="21" t="s">
-        <v>104</v>
+      <c r="G69" s="23">
+        <v>1037.2</v>
       </c>
       <c r="H69" s="21">
         <v>0.92</v>
@@ -6109,7 +5998,7 @@
         <v>1036.5</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
         <v>1</v>
       </c>
@@ -6128,8 +6017,8 @@
       <c r="F70" s="21">
         <v>68</v>
       </c>
-      <c r="G70" s="21" t="s">
-        <v>105</v>
+      <c r="G70" s="23">
+        <v>1027.9000000000001</v>
       </c>
       <c r="H70" s="21">
         <v>0.86699999999999999</v>
@@ -6141,7 +6030,7 @@
         <v>1027.2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
         <v>1</v>
       </c>
@@ -6160,8 +6049,8 @@
       <c r="F71" s="21">
         <v>69</v>
       </c>
-      <c r="G71" s="21" t="s">
-        <v>106</v>
+      <c r="G71" s="23">
+        <v>1053.9000000000001</v>
       </c>
       <c r="H71" s="21">
         <v>0.89500000000000002</v>
@@ -6173,7 +6062,7 @@
         <v>1053.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
         <v>1</v>
       </c>
@@ -6192,8 +6081,8 @@
       <c r="F72" s="21">
         <v>70</v>
       </c>
-      <c r="G72" s="21" t="s">
-        <v>107</v>
+      <c r="G72" s="23">
+        <v>1022.6</v>
       </c>
       <c r="H72" s="21">
         <v>0.58899999999999997</v>
@@ -6205,7 +6094,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
         <v>1</v>
       </c>
@@ -6224,7 +6113,7 @@
       <c r="F73" s="21">
         <v>71</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="23">
         <v>1036.5999999999999</v>
       </c>
       <c r="H73" s="21">
@@ -6237,7 +6126,7 @@
         <v>1036.2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
         <v>1</v>
       </c>
@@ -6256,8 +6145,8 @@
       <c r="F74" s="21">
         <v>72</v>
       </c>
-      <c r="G74" s="21" t="s">
-        <v>108</v>
+      <c r="G74" s="23">
+        <v>1056.4000000000001</v>
       </c>
       <c r="H74" s="21">
         <v>0.55400000000000005</v>
@@ -6269,7 +6158,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>1</v>
       </c>
@@ -6288,14 +6177,14 @@
       <c r="F75" s="21">
         <v>73</v>
       </c>
-      <c r="G75" s="21" t="s">
-        <v>109</v>
+      <c r="G75" s="23">
+        <v>1073.5999999999999</v>
       </c>
       <c r="H75" s="21">
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>1</v>
       </c>
@@ -6314,11 +6203,11 @@
       <c r="F76" s="21">
         <v>74</v>
       </c>
-      <c r="G76" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G76" s="23">
+        <v>1073.5999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>1</v>
       </c>
@@ -6337,8 +6226,8 @@
       <c r="F77" s="21">
         <v>75</v>
       </c>
-      <c r="G77" s="21" t="s">
-        <v>110</v>
+      <c r="G77" s="23">
+        <v>1036.5</v>
       </c>
       <c r="H77" s="21">
         <v>0.60499999999999998</v>
@@ -6350,7 +6239,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
         <v>1</v>
       </c>
@@ -6369,8 +6258,8 @@
       <c r="F78" s="21">
         <v>76</v>
       </c>
-      <c r="G78" s="21" t="s">
-        <v>111</v>
+      <c r="G78" s="23">
+        <v>1027.2</v>
       </c>
       <c r="H78" s="21">
         <v>0.57699999999999996</v>
@@ -6382,7 +6271,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
         <v>1</v>
       </c>
@@ -6401,8 +6290,8 @@
       <c r="F79" s="21">
         <v>77</v>
       </c>
-      <c r="G79" s="21" t="s">
-        <v>112</v>
+      <c r="G79" s="23">
+        <v>1053.2</v>
       </c>
       <c r="H79" s="21">
         <v>0.60499999999999998</v>
@@ -6414,7 +6303,7 @@
         <v>1052.8</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
         <v>1</v>
       </c>
@@ -6433,8 +6322,8 @@
       <c r="F80" s="21">
         <v>78</v>
       </c>
-      <c r="G80" s="21" t="s">
-        <v>113</v>
+      <c r="G80" s="23">
+        <v>1063.9000000000001</v>
       </c>
       <c r="H80" s="21">
         <v>1.0089999999999999</v>
@@ -6446,7 +6335,7 @@
         <v>1063.3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
         <v>1</v>
       </c>
@@ -6465,8 +6354,8 @@
       <c r="F81" s="21">
         <v>79</v>
       </c>
-      <c r="G81" s="21" t="s">
-        <v>114</v>
+      <c r="G81" s="23">
+        <v>1054.0999999999999</v>
       </c>
       <c r="H81" s="21">
         <v>1.8080000000000001</v>
@@ -6478,7 +6367,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>1</v>
       </c>
@@ -6497,8 +6386,8 @@
       <c r="F82" s="21">
         <v>80</v>
       </c>
-      <c r="G82" s="21" t="s">
-        <v>115</v>
+      <c r="G82" s="23">
+        <v>1043.7</v>
       </c>
       <c r="H82" s="21">
         <v>1.2430000000000001</v>
@@ -6510,7 +6399,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>1</v>
       </c>
@@ -6529,8 +6418,8 @@
       <c r="F83" s="21">
         <v>81</v>
       </c>
-      <c r="G83" s="21" t="s">
-        <v>116</v>
+      <c r="G83" s="23">
+        <v>1022.1</v>
       </c>
       <c r="H83" s="21">
         <v>0.49399999999999999</v>
@@ -6542,7 +6431,7 @@
         <v>1021.8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>1</v>
       </c>
@@ -6561,8 +6450,8 @@
       <c r="F84" s="21">
         <v>82</v>
       </c>
-      <c r="G84" s="21" t="s">
-        <v>91</v>
+      <c r="G84" s="23">
+        <v>1036.2</v>
       </c>
       <c r="H84" s="21">
         <v>0.45400000000000001</v>
@@ -6574,7 +6463,7 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>1</v>
       </c>
@@ -6593,8 +6482,8 @@
       <c r="F85" s="21">
         <v>83</v>
       </c>
-      <c r="G85" s="21" t="s">
-        <v>117</v>
+      <c r="G85" s="23">
+        <v>1056</v>
       </c>
       <c r="H85" s="21">
         <v>0.436</v>
@@ -6606,7 +6495,7 @@
         <v>1055.7</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>1</v>
       </c>
@@ -6625,8 +6514,8 @@
       <c r="F86" s="21">
         <v>84</v>
       </c>
-      <c r="G86" s="21" t="s">
-        <v>118</v>
+      <c r="G86" s="23">
+        <v>1055.5</v>
       </c>
       <c r="H86" s="21">
         <v>0.60299999999999998</v>
@@ -6638,7 +6527,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>1</v>
       </c>
@@ -6657,8 +6546,8 @@
       <c r="F87" s="21">
         <v>85</v>
       </c>
-      <c r="G87" s="21" t="s">
-        <v>119</v>
+      <c r="G87" s="23">
+        <v>1033.2</v>
       </c>
       <c r="H87" s="21">
         <v>0.55400000000000005</v>
@@ -6670,7 +6559,7 @@
         <v>1032.8</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>1</v>
       </c>
@@ -6689,8 +6578,8 @@
       <c r="F88" s="21">
         <v>86</v>
       </c>
-      <c r="G88" s="21" t="s">
-        <v>120</v>
+      <c r="G88" s="23">
+        <v>1049.3</v>
       </c>
       <c r="H88" s="21">
         <v>0.60699999999999998</v>
@@ -6702,7 +6591,7 @@
         <v>1048.9000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>1</v>
       </c>
@@ -6721,8 +6610,8 @@
       <c r="F89" s="21">
         <v>87</v>
       </c>
-      <c r="G89" s="21" t="s">
-        <v>91</v>
+      <c r="G89" s="23">
+        <v>1036.2</v>
       </c>
       <c r="H89" s="21">
         <v>0.22600000000000001</v>
@@ -6734,7 +6623,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>1</v>
       </c>
@@ -6753,8 +6642,8 @@
       <c r="F90" s="21">
         <v>88</v>
       </c>
-      <c r="G90" s="21" t="s">
-        <v>121</v>
+      <c r="G90" s="23">
+        <v>1032</v>
       </c>
       <c r="H90" s="21">
         <v>0.23</v>
@@ -6766,7 +6655,7 @@
         <v>1031.8</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>1</v>
       </c>
@@ -6785,8 +6674,8 @@
       <c r="F91" s="21">
         <v>89</v>
       </c>
-      <c r="G91" s="21" t="s">
-        <v>122</v>
+      <c r="G91" s="23">
+        <v>1078.0999999999999</v>
       </c>
       <c r="H91" s="21">
         <v>0.23699999999999999</v>
@@ -6798,7 +6687,7 @@
         <v>1077.9000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>1</v>
       </c>
@@ -6817,8 +6706,8 @@
       <c r="F92" s="21">
         <v>90</v>
       </c>
-      <c r="G92" s="21" t="s">
-        <v>123</v>
+      <c r="G92" s="23">
+        <v>1046.5999999999999</v>
       </c>
       <c r="H92" s="21">
         <v>0.23499999999999999</v>
@@ -6830,7 +6719,7 @@
         <v>1046.4000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>1</v>
       </c>
@@ -6849,8 +6738,8 @@
       <c r="F93" s="21">
         <v>91</v>
       </c>
-      <c r="G93" s="21" t="s">
-        <v>124</v>
+      <c r="G93" s="23">
+        <v>1035.0999999999999</v>
       </c>
       <c r="H93" s="21">
         <v>0.52800000000000002</v>
@@ -6862,7 +6751,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>1</v>
       </c>
@@ -6881,7 +6770,7 @@
       <c r="F94" s="21">
         <v>92</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="23">
         <v>1036.0999999999999</v>
       </c>
       <c r="H94" s="21">
@@ -6894,7 +6783,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>1</v>
       </c>
@@ -6913,7 +6802,7 @@
       <c r="F95" s="21">
         <v>93</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="23">
         <v>1031.8</v>
       </c>
       <c r="H95" s="21">
@@ -6926,7 +6815,7 @@
         <v>1031.7</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <v>1</v>
       </c>
@@ -6945,7 +6834,7 @@
       <c r="F96" s="21">
         <v>94</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="23">
         <v>1077.9000000000001</v>
       </c>
       <c r="H96" s="21">
@@ -6958,7 +6847,7 @@
         <v>1077.8</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>1</v>
       </c>
@@ -6977,7 +6866,7 @@
       <c r="F97" s="21">
         <v>95</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="23">
         <v>1046.4000000000001</v>
       </c>
       <c r="H97" s="21">
@@ -6990,7 +6879,7 @@
         <v>1046.3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>1</v>
       </c>
@@ -7009,7 +6898,7 @@
       <c r="F98" s="21">
         <v>96</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="23">
         <v>1055.0999999999999</v>
       </c>
       <c r="H98" s="21">
@@ -7022,7 +6911,7 @@
         <v>1054.7</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>1</v>
       </c>
@@ -7041,7 +6930,7 @@
       <c r="F99" s="21">
         <v>97</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="23">
         <v>1032.8</v>
       </c>
       <c r="H99" s="21">
@@ -7054,7 +6943,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>1</v>
       </c>
@@ -7073,7 +6962,7 @@
       <c r="F100" s="21">
         <v>98</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="23">
         <v>1048.9000000000001</v>
       </c>
       <c r="H100" s="21">
@@ -7086,7 +6975,7 @@
         <v>1048.5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>1</v>
       </c>
@@ -7105,7 +6994,7 @@
       <c r="F101" s="21">
         <v>99</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="23">
         <v>1034.7</v>
       </c>
       <c r="H101" s="21">
@@ -7118,7 +7007,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>1</v>
       </c>
@@ -7137,7 +7026,7 @@
       <c r="F102" s="21">
         <v>100</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="23">
         <v>1063.3</v>
       </c>
       <c r="H102" s="21">
@@ -7150,7 +7039,7 @@
         <v>1063.2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>1</v>
       </c>
@@ -7169,7 +7058,7 @@
       <c r="F103" s="21">
         <v>101</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="23">
         <v>1053.0999999999999</v>
       </c>
       <c r="H103" s="21">
@@ -7182,7 +7071,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>1</v>
       </c>
@@ -7201,7 +7090,7 @@
       <c r="F104" s="21">
         <v>102</v>
       </c>
-      <c r="G104" s="21">
+      <c r="G104" s="23">
         <v>1042.9000000000001</v>
       </c>
       <c r="H104" s="21">
@@ -7214,7 +7103,7 @@
         <v>1042.8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>1</v>
       </c>
@@ -7233,7 +7122,7 @@
       <c r="F105" s="21">
         <v>103</v>
       </c>
-      <c r="G105" s="21">
+      <c r="G105" s="23">
         <v>1021.8</v>
       </c>
       <c r="H105" s="21">
@@ -7246,7 +7135,7 @@
         <v>1021.5</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>1</v>
       </c>
@@ -7265,7 +7154,7 @@
       <c r="F106" s="21">
         <v>104</v>
       </c>
-      <c r="G106" s="21">
+      <c r="G106" s="23">
         <v>1035.9000000000001</v>
       </c>
       <c r="H106" s="21">
@@ -7278,7 +7167,7 @@
         <v>1035.5999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>1</v>
       </c>
@@ -7297,7 +7186,7 @@
       <c r="F107" s="21">
         <v>105</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G107" s="23">
         <v>1055.7</v>
       </c>
       <c r="H107" s="21">
@@ -7310,7 +7199,7 @@
         <v>1055.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>1</v>
       </c>
@@ -7329,7 +7218,7 @@
       <c r="F108" s="21">
         <v>106</v>
       </c>
-      <c r="G108" s="21">
+      <c r="G108" s="23">
         <v>1036.0999999999999</v>
       </c>
       <c r="H108" s="21">
@@ -7342,7 +7231,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>1</v>
       </c>
@@ -7361,7 +7250,7 @@
       <c r="F109" s="21">
         <v>107</v>
       </c>
-      <c r="G109" s="21">
+      <c r="G109" s="23">
         <v>1026.8</v>
       </c>
       <c r="H109" s="21">
@@ -7374,7 +7263,7 @@
         <v>1026.4000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>1</v>
       </c>
@@ -7393,7 +7282,7 @@
       <c r="F110" s="21">
         <v>108</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="23">
         <v>1052.8</v>
       </c>
       <c r="H110" s="21">
@@ -7406,7 +7295,7 @@
         <v>1052.4000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>1</v>
       </c>
@@ -7425,11 +7314,11 @@
       <c r="F111" s="21">
         <v>109</v>
       </c>
-      <c r="G111" s="21">
+      <c r="G111" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>1</v>
       </c>
@@ -7448,11 +7337,11 @@
       <c r="F112" s="21">
         <v>110</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G112" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>1</v>
       </c>
@@ -7471,7 +7360,7 @@
       <c r="F113" s="21">
         <v>111</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="23">
         <v>1021.4</v>
       </c>
       <c r="H113" s="21">
@@ -7484,7 +7373,7 @@
         <v>1021.2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>1</v>
       </c>
@@ -7503,7 +7392,7 @@
       <c r="F114" s="21">
         <v>112</v>
       </c>
-      <c r="G114" s="21">
+      <c r="G114" s="23">
         <v>1035.5999999999999</v>
       </c>
       <c r="H114" s="21">
@@ -7516,7 +7405,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <v>1</v>
       </c>
@@ -7535,7 +7424,7 @@
       <c r="F115" s="21">
         <v>113</v>
       </c>
-      <c r="G115" s="21">
+      <c r="G115" s="23">
         <v>1055.4000000000001</v>
       </c>
       <c r="H115" s="21">
@@ -7548,7 +7437,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <v>1</v>
       </c>
@@ -7567,7 +7456,7 @@
       <c r="F116" s="21">
         <v>114</v>
       </c>
-      <c r="G116" s="21">
+      <c r="G116" s="23">
         <v>1035.7</v>
       </c>
       <c r="H116" s="21">
@@ -7580,7 +7469,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <v>1</v>
       </c>
@@ -7599,7 +7488,7 @@
       <c r="F117" s="21">
         <v>115</v>
       </c>
-      <c r="G117" s="21">
+      <c r="G117" s="23">
         <v>1026.4000000000001</v>
       </c>
       <c r="H117" s="21">
@@ -7612,7 +7501,7 @@
         <v>1026.0999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
         <v>1</v>
       </c>
@@ -7631,7 +7520,7 @@
       <c r="F118" s="21">
         <v>116</v>
       </c>
-      <c r="G118" s="21">
+      <c r="G118" s="23">
         <v>1052.4000000000001</v>
       </c>
       <c r="H118" s="21">
@@ -7644,7 +7533,7 @@
         <v>1052.0999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>1</v>
       </c>
@@ -7663,7 +7552,7 @@
       <c r="F119" s="21">
         <v>117</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="23">
         <v>1054.7</v>
       </c>
       <c r="H119" s="21">
@@ -7676,7 +7565,7 @@
         <v>1054.3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <v>1</v>
       </c>
@@ -7695,7 +7584,7 @@
       <c r="F120" s="21">
         <v>118</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="23">
         <v>1032.4000000000001</v>
       </c>
       <c r="H120" s="21">
@@ -7708,7 +7597,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="21">
         <v>1</v>
       </c>
@@ -7727,7 +7616,7 @@
       <c r="F121" s="21">
         <v>119</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="23">
         <v>1048.5</v>
       </c>
       <c r="H121" s="21">
@@ -7740,7 +7629,7 @@
         <v>1048.0999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <v>1</v>
       </c>
@@ -7759,7 +7648,7 @@
       <c r="F122" s="21">
         <v>120</v>
       </c>
-      <c r="G122" s="21">
+      <c r="G122" s="23">
         <v>1063.2</v>
       </c>
       <c r="H122" s="21">
@@ -7772,10 +7661,10 @@
         <v>1063</v>
       </c>
       <c r="K122" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
         <v>1</v>
       </c>
@@ -7794,7 +7683,7 @@
       <c r="F123" s="21">
         <v>121</v>
       </c>
-      <c r="G123" s="21">
+      <c r="G123" s="23">
         <v>1052.8</v>
       </c>
       <c r="H123" s="21">
@@ -7807,7 +7696,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
         <v>1</v>
       </c>
@@ -7826,7 +7715,7 @@
       <c r="F124" s="21">
         <v>122</v>
       </c>
-      <c r="G124" s="21">
+      <c r="G124" s="23">
         <v>1042.8</v>
       </c>
       <c r="H124" s="21">
@@ -7839,7 +7728,7 @@
         <v>1042.5999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
         <v>1</v>
       </c>
@@ -7858,7 +7747,7 @@
       <c r="F125" s="21">
         <v>123</v>
       </c>
-      <c r="G125" s="21">
+      <c r="G125" s="23">
         <v>1035.9000000000001</v>
       </c>
       <c r="H125" s="21">
@@ -7871,7 +7760,7 @@
         <v>1035.8</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
         <v>1</v>
       </c>
@@ -7890,7 +7779,7 @@
       <c r="F126" s="21">
         <v>124</v>
       </c>
-      <c r="G126" s="21">
+      <c r="G126" s="23">
         <v>1031.7</v>
       </c>
       <c r="H126" s="21">
@@ -7903,7 +7792,7 @@
         <v>1031.5999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
         <v>1</v>
       </c>
@@ -7922,7 +7811,7 @@
       <c r="F127" s="21">
         <v>125</v>
       </c>
-      <c r="G127" s="21">
+      <c r="G127" s="23">
         <v>1077.8</v>
       </c>
       <c r="H127" s="21">
@@ -7935,7 +7824,7 @@
         <v>1077.5999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>1</v>
       </c>
@@ -7954,7 +7843,7 @@
       <c r="F128" s="21">
         <v>126</v>
       </c>
-      <c r="G128" s="21">
+      <c r="G128" s="23">
         <v>1046.3</v>
       </c>
       <c r="H128" s="21">
@@ -7967,7 +7856,7 @@
         <v>1046.2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
         <v>1</v>
       </c>
@@ -7986,7 +7875,7 @@
       <c r="F129" s="21">
         <v>127</v>
       </c>
-      <c r="G129" s="21">
+      <c r="G129" s="23">
         <v>1034.4000000000001</v>
       </c>
       <c r="H129" s="21">
@@ -7999,10 +7888,10 @@
         <v>1034.2</v>
       </c>
       <c r="K129" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
         <v>1</v>
       </c>
@@ -8021,7 +7910,7 @@
       <c r="F130" s="21">
         <v>128</v>
       </c>
-      <c r="G130" s="21">
+      <c r="G130" s="23">
         <v>1021.2</v>
       </c>
       <c r="H130" s="21">
@@ -8034,7 +7923,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <v>1</v>
       </c>
@@ -8053,7 +7942,7 @@
       <c r="F131" s="21">
         <v>129</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G131" s="23">
         <v>1035.3</v>
       </c>
       <c r="H131" s="21">
@@ -8066,7 +7955,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
         <v>1</v>
       </c>
@@ -8085,7 +7974,7 @@
       <c r="F132" s="21">
         <v>130</v>
       </c>
-      <c r="G132" s="21">
+      <c r="G132" s="23">
         <v>1055.0999999999999</v>
       </c>
       <c r="H132" s="21">
@@ -8098,7 +7987,7 @@
         <v>1054.9000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
         <v>1</v>
       </c>
@@ -8117,7 +8006,7 @@
       <c r="F133" s="21">
         <v>131</v>
       </c>
-      <c r="G133" s="21">
+      <c r="G133" s="23">
         <v>1035.4000000000001</v>
       </c>
       <c r="H133" s="21">
@@ -8130,7 +8019,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
         <v>1</v>
       </c>
@@ -8149,7 +8038,7 @@
       <c r="F134" s="21">
         <v>132</v>
       </c>
-      <c r="G134" s="21">
+      <c r="G134" s="23">
         <v>1026.0999999999999</v>
       </c>
       <c r="H134" s="21">
@@ -8162,7 +8051,7 @@
         <v>1025.9000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
         <v>1</v>
       </c>
@@ -8181,7 +8070,7 @@
       <c r="F135" s="21">
         <v>133</v>
       </c>
-      <c r="G135" s="21">
+      <c r="G135" s="23">
         <v>1052.0999999999999</v>
       </c>
       <c r="H135" s="21">
@@ -8194,7 +8083,7 @@
         <v>1051.8</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
         <v>1</v>
       </c>
@@ -8213,7 +8102,7 @@
       <c r="F136" s="21">
         <v>134</v>
       </c>
-      <c r="G136" s="21">
+      <c r="G136" s="23">
         <v>1054.3</v>
       </c>
       <c r="H136" s="21">
@@ -8226,7 +8115,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
         <v>1</v>
       </c>
@@ -8245,7 +8134,7 @@
       <c r="F137" s="21">
         <v>135</v>
       </c>
-      <c r="G137" s="21">
+      <c r="G137" s="23">
         <v>1032.2</v>
       </c>
       <c r="H137" s="21">
@@ -8258,7 +8147,7 @@
         <v>1031.9000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
         <v>1</v>
       </c>
@@ -8277,7 +8166,7 @@
       <c r="F138" s="21">
         <v>136</v>
       </c>
-      <c r="G138" s="21">
+      <c r="G138" s="23">
         <v>1048.2</v>
       </c>
       <c r="H138" s="21">
@@ -8290,7 +8179,7 @@
         <v>1047.9000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
         <v>1</v>
       </c>
@@ -8309,7 +8198,7 @@
       <c r="F139" s="21">
         <v>137</v>
       </c>
-      <c r="G139" s="21">
+      <c r="G139" s="23">
         <v>1063</v>
       </c>
       <c r="H139" s="21">
@@ -8322,7 +8211,7 @@
         <v>1062.9000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="21">
         <v>1</v>
       </c>
@@ -8341,7 +8230,7 @@
       <c r="F140" s="21">
         <v>138</v>
       </c>
-      <c r="G140" s="21">
+      <c r="G140" s="23">
         <v>1052.5999999999999</v>
       </c>
       <c r="H140" s="21">
@@ -8354,7 +8243,7 @@
         <v>1052.5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
         <v>1</v>
       </c>
@@ -8373,7 +8262,7 @@
       <c r="F141" s="21">
         <v>139</v>
       </c>
-      <c r="G141" s="21">
+      <c r="G141" s="23">
         <v>1042.5999999999999</v>
       </c>
       <c r="H141" s="21">
@@ -8386,7 +8275,7 @@
         <v>1042.5</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
         <v>1</v>
       </c>
@@ -8405,7 +8294,7 @@
       <c r="F142" s="21">
         <v>140</v>
       </c>
-      <c r="G142" s="21">
+      <c r="G142" s="23">
         <v>1035.8</v>
       </c>
       <c r="H142" s="21">
@@ -8418,7 +8307,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
         <v>1</v>
       </c>
@@ -8437,7 +8326,7 @@
       <c r="F143" s="21">
         <v>141</v>
       </c>
-      <c r="G143" s="21">
+      <c r="G143" s="23">
         <v>1031.5999999999999</v>
       </c>
       <c r="H143" s="21">
@@ -8450,7 +8339,7 @@
         <v>1031.4000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
         <v>1</v>
       </c>
@@ -8469,7 +8358,7 @@
       <c r="F144" s="21">
         <v>142</v>
       </c>
-      <c r="G144" s="21">
+      <c r="G144" s="23">
         <v>1077.5999999999999</v>
       </c>
       <c r="H144" s="21">
@@ -8482,7 +8371,7 @@
         <v>1077.5</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
         <v>1</v>
       </c>
@@ -8501,7 +8390,7 @@
       <c r="F145" s="21">
         <v>143</v>
       </c>
-      <c r="G145" s="21">
+      <c r="G145" s="23">
         <v>1046.2</v>
       </c>
       <c r="H145" s="21">
@@ -8514,7 +8403,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
         <v>1</v>
       </c>
@@ -8533,7 +8422,7 @@
       <c r="F146" s="21">
         <v>144</v>
       </c>
-      <c r="G146" s="21">
+      <c r="G146" s="23">
         <v>1034.0999999999999</v>
       </c>
       <c r="H146" s="21">
@@ -8546,7 +8435,7 @@
         <v>1033.9000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
         <v>1</v>
       </c>
@@ -8565,11 +8454,11 @@
       <c r="F147" s="21">
         <v>145</v>
       </c>
-      <c r="G147" s="21">
+      <c r="G147" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
         <v>1</v>
       </c>
@@ -8588,7 +8477,7 @@
       <c r="F148" s="21">
         <v>146</v>
       </c>
-      <c r="G148" s="21">
+      <c r="G148" s="23">
         <v>1035.7</v>
       </c>
       <c r="H148" s="21">
@@ -8601,7 +8490,7 @@
         <v>1035.5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
         <v>1</v>
       </c>
@@ -8620,7 +8509,7 @@
       <c r="F149" s="21">
         <v>147</v>
       </c>
-      <c r="G149" s="21">
+      <c r="G149" s="23">
         <v>1031.5</v>
       </c>
       <c r="H149" s="21">
@@ -8633,7 +8522,7 @@
         <v>1031.3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="21">
         <v>1</v>
       </c>
@@ -8652,7 +8541,7 @@
       <c r="F150" s="21">
         <v>148</v>
       </c>
-      <c r="G150" s="21">
+      <c r="G150" s="23">
         <v>1077.5</v>
       </c>
       <c r="H150" s="21">
@@ -8665,10 +8554,10 @@
         <v>1077.3</v>
       </c>
       <c r="K150" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="21">
         <v>1</v>
       </c>
@@ -8687,7 +8576,7 @@
       <c r="F151" s="21">
         <v>149</v>
       </c>
-      <c r="G151" s="21">
+      <c r="G151" s="23">
         <v>1046</v>
       </c>
       <c r="H151" s="21">
@@ -8700,7 +8589,7 @@
         <v>1045.9000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
         <v>1</v>
       </c>
@@ -8719,7 +8608,7 @@
       <c r="F152" s="21">
         <v>150</v>
       </c>
-      <c r="G152" s="21">
+      <c r="G152" s="23">
         <v>1062.8</v>
       </c>
       <c r="H152" s="21">
@@ -8732,7 +8621,7 @@
         <v>1062.7</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="21">
         <v>1</v>
       </c>
@@ -8751,7 +8640,7 @@
       <c r="F153" s="21">
         <v>151</v>
       </c>
-      <c r="G153" s="21">
+      <c r="G153" s="23">
         <v>1052.5</v>
       </c>
       <c r="H153" s="21">
@@ -8764,7 +8653,7 @@
         <v>1052.3</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="21">
         <v>1</v>
       </c>
@@ -8783,7 +8672,7 @@
       <c r="F154" s="21">
         <v>152</v>
       </c>
-      <c r="G154" s="21">
+      <c r="G154" s="23">
         <v>1042.5</v>
       </c>
       <c r="H154" s="21">
@@ -8796,7 +8685,7 @@
         <v>1042.3</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="21">
         <v>1</v>
       </c>
@@ -8815,7 +8704,7 @@
       <c r="F155" s="21">
         <v>153</v>
       </c>
-      <c r="G155" s="21">
+      <c r="G155" s="23">
         <v>1033.8</v>
       </c>
       <c r="H155" s="21">
@@ -8828,7 +8717,7 @@
         <v>1033.5999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="21">
         <v>1</v>
       </c>
@@ -8847,7 +8736,7 @@
       <c r="F156" s="21">
         <v>154</v>
       </c>
-      <c r="G156" s="21">
+      <c r="G156" s="23">
         <v>1035.0999999999999</v>
       </c>
       <c r="H156" s="21">
@@ -8860,10 +8749,10 @@
         <v>1034.9000000000001</v>
       </c>
       <c r="K156" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="21">
         <v>1</v>
       </c>
@@ -8882,7 +8771,7 @@
       <c r="F157" s="21">
         <v>155</v>
       </c>
-      <c r="G157" s="21">
+      <c r="G157" s="23">
         <v>1025.9000000000001</v>
       </c>
       <c r="H157" s="21">
@@ -8895,7 +8784,7 @@
         <v>1025.7</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="21">
         <v>1</v>
       </c>
@@ -8914,7 +8803,7 @@
       <c r="F158" s="21">
         <v>156</v>
       </c>
-      <c r="G158" s="21">
+      <c r="G158" s="23">
         <v>1051.8</v>
       </c>
       <c r="H158" s="21">
@@ -8927,7 +8816,7 @@
         <v>1051.5999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="21">
         <v>1</v>
       </c>
@@ -8946,7 +8835,7 @@
       <c r="F159" s="21">
         <v>157</v>
       </c>
-      <c r="G159" s="21">
+      <c r="G159" s="23">
         <v>1054.0999999999999</v>
       </c>
       <c r="H159" s="21">
@@ -8959,10 +8848,10 @@
         <v>1053.8</v>
       </c>
       <c r="K159" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="21">
         <v>1</v>
       </c>
@@ -8981,7 +8870,7 @@
       <c r="F160" s="21">
         <v>158</v>
       </c>
-      <c r="G160" s="21">
+      <c r="G160" s="23">
         <v>1031.9000000000001</v>
       </c>
       <c r="H160" s="21">
@@ -8994,10 +8883,10 @@
         <v>1031.5999999999999</v>
       </c>
       <c r="K160" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="21">
         <v>1</v>
       </c>
@@ -9016,7 +8905,7 @@
       <c r="F161" s="21">
         <v>159</v>
       </c>
-      <c r="G161" s="21">
+      <c r="G161" s="23">
         <v>1047.9000000000001</v>
       </c>
       <c r="H161" s="21">
@@ -9029,10 +8918,10 @@
         <v>1047.5999999999999</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="21">
         <v>1</v>
       </c>
@@ -9051,7 +8940,7 @@
       <c r="F162" s="21">
         <v>160</v>
       </c>
-      <c r="G162" s="21">
+      <c r="G162" s="23">
         <v>1020.9</v>
       </c>
       <c r="H162" s="21">
@@ -9064,7 +8953,7 @@
         <v>1020.7</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="21">
         <v>1</v>
       </c>
@@ -9083,7 +8972,7 @@
       <c r="F163" s="21">
         <v>161</v>
       </c>
-      <c r="G163" s="21">
+      <c r="G163" s="23">
         <v>1035.0999999999999</v>
       </c>
       <c r="H163" s="21">
@@ -9096,7 +8985,7 @@
         <v>1034.9000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="21">
         <v>1</v>
       </c>
@@ -9115,7 +9004,7 @@
       <c r="F164" s="21">
         <v>162</v>
       </c>
-      <c r="G164" s="21">
+      <c r="G164" s="23">
         <v>1054.9000000000001</v>
       </c>
       <c r="H164" s="21">
@@ -9128,7 +9017,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="21">
         <v>1</v>
       </c>
@@ -9147,11 +9036,11 @@
       <c r="F165" s="21">
         <v>163</v>
       </c>
-      <c r="G165" s="21">
+      <c r="G165" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="21">
         <v>1</v>
       </c>
@@ -9170,7 +9059,7 @@
       <c r="F166" s="21">
         <v>164</v>
       </c>
-      <c r="G166" s="21">
+      <c r="G166" s="23">
         <v>1035.5</v>
       </c>
       <c r="H166" s="21">
@@ -9183,7 +9072,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
         <v>1</v>
       </c>
@@ -9202,7 +9091,7 @@
       <c r="F167" s="21">
         <v>165</v>
       </c>
-      <c r="G167" s="21">
+      <c r="G167" s="23">
         <v>1031.2</v>
       </c>
       <c r="H167" s="21">
@@ -9215,10 +9104,10 @@
         <v>1031.0999999999999</v>
       </c>
       <c r="K167" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
         <v>1</v>
       </c>
@@ -9237,7 +9126,7 @@
       <c r="F168" s="21">
         <v>166</v>
       </c>
-      <c r="G168" s="21">
+      <c r="G168" s="23">
         <v>1077.3</v>
       </c>
       <c r="H168" s="21">
@@ -9250,7 +9139,7 @@
         <v>1077.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
         <v>1</v>
       </c>
@@ -9269,7 +9158,7 @@
       <c r="F169" s="21">
         <v>167</v>
       </c>
-      <c r="G169" s="21">
+      <c r="G169" s="23">
         <v>1045.8</v>
       </c>
       <c r="H169" s="21">
@@ -9282,7 +9171,7 @@
         <v>1045.7</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="21">
         <v>1</v>
       </c>
@@ -9301,7 +9190,7 @@
       <c r="F170" s="21">
         <v>168</v>
       </c>
-      <c r="G170" s="21">
+      <c r="G170" s="23">
         <v>1062.5999999999999</v>
       </c>
       <c r="H170" s="21">
@@ -9314,7 +9203,7 @@
         <v>1062.5</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
         <v>1</v>
       </c>
@@ -9333,7 +9222,7 @@
       <c r="F171" s="21">
         <v>169</v>
       </c>
-      <c r="G171" s="21">
+      <c r="G171" s="23">
         <v>1052.3</v>
       </c>
       <c r="H171" s="21">
@@ -9346,7 +9235,7 @@
         <v>1052.0999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="21">
         <v>1</v>
       </c>
@@ -9365,7 +9254,7 @@
       <c r="F172" s="21">
         <v>170</v>
       </c>
-      <c r="G172" s="21">
+      <c r="G172" s="23">
         <v>1042.3</v>
       </c>
       <c r="H172" s="21">
@@ -9378,7 +9267,7 @@
         <v>1042.2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="21">
         <v>1</v>
       </c>
@@ -9397,7 +9286,7 @@
       <c r="F173" s="21">
         <v>171</v>
       </c>
-      <c r="G173" s="21">
+      <c r="G173" s="23">
         <v>1037.5</v>
       </c>
       <c r="H173" s="21">
@@ -9410,7 +9299,7 @@
         <v>1033.4000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="21">
         <v>1</v>
       </c>
@@ -9429,7 +9318,7 @@
       <c r="F174" s="21">
         <v>172</v>
       </c>
-      <c r="G174" s="21">
+      <c r="G174" s="23">
         <v>1034.9000000000001</v>
       </c>
       <c r="H174" s="21">
@@ -9442,7 +9331,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="21">
         <v>1</v>
       </c>
@@ -9461,7 +9350,7 @@
       <c r="F175" s="21">
         <v>173</v>
       </c>
-      <c r="G175" s="21">
+      <c r="G175" s="23">
         <v>1025.5999999999999</v>
       </c>
       <c r="H175" s="21">
@@ -9474,7 +9363,7 @@
         <v>1025.5</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="21">
         <v>1</v>
       </c>
@@ -9493,7 +9382,7 @@
       <c r="F176" s="21">
         <v>174</v>
       </c>
-      <c r="G176" s="21">
+      <c r="G176" s="23">
         <v>1051.5999999999999</v>
       </c>
       <c r="H176" s="21">
@@ -9506,10 +9395,10 @@
         <v>1051.4000000000001</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="21">
         <v>1</v>
       </c>
@@ -9528,7 +9417,7 @@
       <c r="F177" s="21">
         <v>175</v>
       </c>
-      <c r="G177" s="21">
+      <c r="G177" s="23">
         <v>1053.7</v>
       </c>
       <c r="H177" s="21">
@@ -9541,7 +9430,7 @@
         <v>1053.5</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="21">
         <v>1</v>
       </c>
@@ -9560,7 +9449,7 @@
       <c r="F178" s="21">
         <v>176</v>
       </c>
-      <c r="G178" s="21">
+      <c r="G178" s="23">
         <v>1031.5999999999999</v>
       </c>
       <c r="H178" s="21">
@@ -9573,7 +9462,7 @@
         <v>1031.4000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="21">
         <v>1</v>
       </c>
@@ -9592,7 +9481,7 @@
       <c r="F179" s="21">
         <v>177</v>
       </c>
-      <c r="G179" s="21">
+      <c r="G179" s="23">
         <v>1047.5</v>
       </c>
       <c r="H179" s="21">
@@ -9605,7 +9494,7 @@
         <v>1047.3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="21">
         <v>1</v>
       </c>
@@ -9624,7 +9513,7 @@
       <c r="F180" s="21">
         <v>178</v>
       </c>
-      <c r="G180" s="21">
+      <c r="G180" s="23">
         <v>1020.7</v>
       </c>
       <c r="H180" s="21">
@@ -9637,7 +9526,7 @@
         <v>1020.5</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="21">
         <v>1</v>
       </c>
@@ -9656,7 +9545,7 @@
       <c r="F181" s="21">
         <v>179</v>
       </c>
-      <c r="G181" s="21">
+      <c r="G181" s="23">
         <v>1034.8</v>
       </c>
       <c r="H181" s="21">
@@ -9669,7 +9558,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="21">
         <v>1</v>
       </c>
@@ -9688,7 +9577,7 @@
       <c r="F182" s="21">
         <v>180</v>
       </c>
-      <c r="G182" s="21">
+      <c r="G182" s="23">
         <v>1054.5999999999999</v>
       </c>
       <c r="H182" s="21">
@@ -9701,7 +9590,7 @@
         <v>1054.4000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="21">
         <v>1</v>
       </c>
@@ -9720,7 +9609,7 @@
       <c r="F183" s="21">
         <v>181</v>
       </c>
-      <c r="G183" s="21">
+      <c r="G183" s="23">
         <v>1073.5999999999999</v>
       </c>
       <c r="H183" s="21">
@@ -9730,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="21">
         <v>2</v>
       </c>
@@ -9749,7 +9638,7 @@
       <c r="F184" s="21">
         <v>182</v>
       </c>
-      <c r="G184" s="21">
+      <c r="G184" s="23">
         <v>959.9</v>
       </c>
       <c r="H184" s="21">
@@ -9762,10 +9651,10 @@
         <v>959.9</v>
       </c>
       <c r="K184" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="21">
         <v>2</v>
       </c>
@@ -9784,7 +9673,7 @@
       <c r="F185" s="21">
         <v>183</v>
       </c>
-      <c r="G185" s="21">
+      <c r="G185" s="23">
         <v>989.9</v>
       </c>
       <c r="H185" s="21">
@@ -9797,7 +9686,7 @@
         <v>989.9</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="21">
         <v>2</v>
       </c>
@@ -9816,7 +9705,7 @@
       <c r="F186" s="21">
         <v>184</v>
       </c>
-      <c r="G186" s="21">
+      <c r="G186" s="23">
         <v>986.5</v>
       </c>
       <c r="H186" s="21">
@@ -9829,7 +9718,7 @@
         <v>986.5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="21">
         <v>2</v>
       </c>
@@ -9848,7 +9737,7 @@
       <c r="F187" s="21">
         <v>185</v>
       </c>
-      <c r="G187" s="21">
+      <c r="G187" s="23">
         <v>826.2</v>
       </c>
       <c r="H187" s="21">
@@ -9861,7 +9750,7 @@
         <v>826.2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="21">
         <v>2</v>
       </c>
@@ -9880,7 +9769,7 @@
       <c r="F188" s="21">
         <v>186</v>
       </c>
-      <c r="G188" s="21">
+      <c r="G188" s="23">
         <v>842.7</v>
       </c>
       <c r="H188" s="21">
@@ -9893,7 +9782,7 @@
         <v>842.7</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="21">
         <v>2</v>
       </c>
@@ -9912,7 +9801,7 @@
       <c r="F189" s="21">
         <v>187</v>
       </c>
-      <c r="G189" s="21">
+      <c r="G189" s="23">
         <v>839.3</v>
       </c>
       <c r="H189" s="21">
@@ -9925,7 +9814,7 @@
         <v>839.3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="21">
         <v>2</v>
       </c>
@@ -9944,7 +9833,7 @@
       <c r="F190" s="21">
         <v>188</v>
       </c>
-      <c r="G190" s="21">
+      <c r="G190" s="23">
         <v>845.4</v>
       </c>
       <c r="H190" s="21">
@@ -9957,7 +9846,7 @@
         <v>845.4</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="21">
         <v>2</v>
       </c>
@@ -9976,7 +9865,7 @@
       <c r="F191" s="21">
         <v>189</v>
       </c>
-      <c r="G191" s="21">
+      <c r="G191" s="23">
         <v>853.2</v>
       </c>
       <c r="H191" s="21">
@@ -9989,7 +9878,7 @@
         <v>853.2</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="21">
         <v>2</v>
       </c>
@@ -10008,7 +9897,7 @@
       <c r="F192" s="21">
         <v>190</v>
       </c>
-      <c r="G192" s="21">
+      <c r="G192" s="23">
         <v>847.9</v>
       </c>
       <c r="H192" s="21">
@@ -10021,7 +9910,7 @@
         <v>847.9</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="21">
         <v>2</v>
       </c>
@@ -10040,7 +9929,7 @@
       <c r="F193" s="21">
         <v>191</v>
       </c>
-      <c r="G193" s="21">
+      <c r="G193" s="23">
         <v>1037.8</v>
       </c>
       <c r="H193" s="21">
@@ -10053,7 +9942,7 @@
         <v>1037.8</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="21">
         <v>2</v>
       </c>
@@ -10072,7 +9961,7 @@
       <c r="F194" s="21">
         <v>192</v>
       </c>
-      <c r="G194" s="21">
+      <c r="G194" s="23">
         <v>1022.1</v>
       </c>
       <c r="H194" s="21">
@@ -10085,7 +9974,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="21">
         <v>2</v>
       </c>
@@ -10104,7 +9993,7 @@
       <c r="F195" s="21">
         <v>193</v>
       </c>
-      <c r="G195" s="21">
+      <c r="G195" s="23">
         <v>1049.3</v>
       </c>
       <c r="H195" s="21">
@@ -10117,7 +10006,7 @@
         <v>1049.3</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="21">
         <v>2</v>
       </c>
@@ -10136,7 +10025,7 @@
       <c r="F196" s="21">
         <v>194</v>
       </c>
-      <c r="G196" s="21">
+      <c r="G196" s="23">
         <v>951.5</v>
       </c>
       <c r="H196" s="21">
@@ -10149,7 +10038,7 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="21">
         <v>2</v>
       </c>
@@ -10168,7 +10057,7 @@
       <c r="F197" s="21">
         <v>195</v>
       </c>
-      <c r="G197" s="21">
+      <c r="G197" s="23">
         <v>858</v>
       </c>
       <c r="H197" s="21">
@@ -10181,7 +10070,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="21">
         <v>2</v>
       </c>
@@ -10200,7 +10089,7 @@
       <c r="F198" s="21">
         <v>196</v>
       </c>
-      <c r="G198" s="21">
+      <c r="G198" s="23">
         <v>847.3</v>
       </c>
       <c r="H198" s="21">
@@ -10213,7 +10102,7 @@
         <v>847.3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="21">
         <v>2</v>
       </c>
@@ -10232,7 +10121,7 @@
       <c r="F199" s="21">
         <v>197</v>
       </c>
-      <c r="G199" s="21">
+      <c r="G199" s="23">
         <v>838.3</v>
       </c>
       <c r="H199" s="21">
@@ -10245,7 +10134,7 @@
         <v>838.3</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="21">
         <v>2</v>
       </c>
@@ -10264,7 +10153,7 @@
       <c r="F200" s="21">
         <v>198</v>
       </c>
-      <c r="G200" s="21">
+      <c r="G200" s="23">
         <v>852.1</v>
       </c>
       <c r="H200" s="21">
@@ -10277,7 +10166,7 @@
         <v>852.1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="21">
         <v>2</v>
       </c>
@@ -10296,7 +10185,7 @@
       <c r="F201" s="21">
         <v>199</v>
       </c>
-      <c r="G201" s="21">
+      <c r="G201" s="23">
         <v>863.3</v>
       </c>
       <c r="H201" s="21">
@@ -10309,7 +10198,7 @@
         <v>863.3</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="21">
         <v>2</v>
       </c>
@@ -10328,7 +10217,7 @@
       <c r="F202" s="21">
         <v>200</v>
       </c>
-      <c r="G202" s="21">
+      <c r="G202" s="23">
         <v>851.1</v>
       </c>
       <c r="H202" s="21">
@@ -10341,7 +10230,7 @@
         <v>851.1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="21">
         <v>2</v>
       </c>
@@ -10360,7 +10249,7 @@
       <c r="F203" s="21">
         <v>201</v>
       </c>
-      <c r="G203" s="21">
+      <c r="G203" s="23">
         <v>841.2</v>
       </c>
       <c r="H203" s="21">
@@ -10373,7 +10262,7 @@
         <v>841.2</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="21">
         <v>2</v>
       </c>
@@ -10392,7 +10281,7 @@
       <c r="F204" s="21">
         <v>202</v>
       </c>
-      <c r="G204" s="21">
+      <c r="G204" s="23">
         <v>871.6</v>
       </c>
       <c r="H204" s="21">
@@ -10405,7 +10294,7 @@
         <v>871.6</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="21">
         <v>2</v>
       </c>
@@ -10424,7 +10313,7 @@
       <c r="F205" s="21">
         <v>203</v>
       </c>
-      <c r="G205" s="21">
+      <c r="G205" s="23">
         <v>826.9</v>
       </c>
       <c r="H205" s="21">
@@ -10437,7 +10326,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="21">
         <v>2</v>
       </c>
@@ -10456,7 +10345,7 @@
       <c r="F206" s="21">
         <v>204</v>
       </c>
-      <c r="G206" s="21">
+      <c r="G206" s="23">
         <v>1073.5999999999999</v>
       </c>
       <c r="H206" s="21">
@@ -10469,7 +10358,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="21">
         <v>2</v>
       </c>
@@ -10488,11 +10377,11 @@
       <c r="F207" s="21">
         <v>205</v>
       </c>
-      <c r="G207" s="21">
+      <c r="G207" s="23">
         <v>826.9</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="21">
         <v>2</v>
       </c>
@@ -10511,7 +10400,7 @@
       <c r="F208" s="21">
         <v>207</v>
       </c>
-      <c r="G208" s="21">
+      <c r="G208" s="23">
         <v>951.1</v>
       </c>
       <c r="H208" s="21">
@@ -10524,10 +10413,10 @@
         <v>950.2</v>
       </c>
       <c r="K208" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="21">
         <v>2</v>
       </c>
@@ -10546,7 +10435,7 @@
       <c r="F209" s="21">
         <v>208</v>
       </c>
-      <c r="G209" s="21">
+      <c r="G209" s="23">
         <v>857.8</v>
       </c>
       <c r="H209" s="21">
@@ -10559,7 +10448,7 @@
         <v>857.2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="21">
         <v>2</v>
       </c>
@@ -10578,11 +10467,11 @@
       <c r="F210" s="21">
         <v>209</v>
       </c>
-      <c r="G210" s="21">
+      <c r="G210" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="21">
         <v>2</v>
       </c>
@@ -10601,7 +10490,7 @@
       <c r="F211" s="21">
         <v>210</v>
       </c>
-      <c r="G211" s="21">
+      <c r="G211" s="23">
         <v>847.3</v>
       </c>
       <c r="H211" s="21">
@@ -10614,10 +10503,10 @@
         <v>846.6</v>
       </c>
       <c r="K211" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="21">
         <v>2</v>
       </c>
@@ -10636,7 +10525,7 @@
       <c r="F212" s="21">
         <v>211</v>
       </c>
-      <c r="G212" s="21">
+      <c r="G212" s="23">
         <v>851.1</v>
       </c>
       <c r="H212" s="21">
@@ -10649,7 +10538,7 @@
         <v>850.9</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="21">
         <v>2</v>
       </c>
@@ -10668,7 +10557,7 @@
       <c r="F213" s="21">
         <v>212</v>
       </c>
-      <c r="G213" s="21">
+      <c r="G213" s="23">
         <v>841.3</v>
       </c>
       <c r="H213" s="21">
@@ -10681,7 +10570,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="21">
         <v>2</v>
       </c>
@@ -10700,7 +10589,7 @@
       <c r="F214" s="21">
         <v>213</v>
       </c>
-      <c r="G214" s="21">
+      <c r="G214" s="23">
         <v>871.6</v>
       </c>
       <c r="H214" s="21">
@@ -10713,7 +10602,7 @@
         <v>871.3</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="21">
         <v>2</v>
       </c>
@@ -10732,7 +10621,7 @@
       <c r="F215" s="21">
         <v>214</v>
       </c>
-      <c r="G215" s="21">
+      <c r="G215" s="23">
         <v>1037.8</v>
       </c>
       <c r="H215" s="21">
@@ -10745,7 +10634,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="21">
         <v>2</v>
       </c>
@@ -10764,7 +10653,7 @@
       <c r="F216" s="21">
         <v>215</v>
       </c>
-      <c r="G216" s="21">
+      <c r="G216" s="23">
         <v>1022.1</v>
       </c>
       <c r="H216" s="21">
@@ -10777,7 +10666,7 @@
         <v>1021.3</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="21">
         <v>2</v>
       </c>
@@ -10796,7 +10685,7 @@
       <c r="F217" s="21">
         <v>216</v>
       </c>
-      <c r="G217" s="21">
+      <c r="G217" s="23">
         <v>1049.3</v>
       </c>
       <c r="H217" s="21">
@@ -10809,7 +10698,7 @@
         <v>1048.5999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="21">
         <v>2</v>
       </c>
@@ -10828,7 +10717,7 @@
       <c r="F218" s="21">
         <v>217</v>
       </c>
-      <c r="G218" s="21">
+      <c r="G218" s="23">
         <v>845.4</v>
       </c>
       <c r="H218" s="21">
@@ -10841,7 +10730,7 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="21">
         <v>2</v>
       </c>
@@ -10860,7 +10749,7 @@
       <c r="F219" s="21">
         <v>218</v>
       </c>
-      <c r="G219" s="21">
+      <c r="G219" s="23">
         <v>853.2</v>
       </c>
       <c r="H219" s="21">
@@ -10873,7 +10762,7 @@
         <v>852.1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="21">
         <v>2</v>
       </c>
@@ -10892,7 +10781,7 @@
       <c r="F220" s="21">
         <v>219</v>
       </c>
-      <c r="G220" s="21">
+      <c r="G220" s="23">
         <v>847.9</v>
       </c>
       <c r="H220" s="21">
@@ -10905,7 +10794,7 @@
         <v>846.9</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="21">
         <v>2</v>
       </c>
@@ -10924,7 +10813,7 @@
       <c r="F221" s="21">
         <v>220</v>
       </c>
-      <c r="G221" s="21">
+      <c r="G221" s="23">
         <v>826.2</v>
       </c>
       <c r="H221" s="21">
@@ -10937,7 +10826,7 @@
         <v>825.3</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="21">
         <v>2</v>
       </c>
@@ -10956,7 +10845,7 @@
       <c r="F222" s="21">
         <v>221</v>
       </c>
-      <c r="G222" s="21">
+      <c r="G222" s="23">
         <v>842.7</v>
       </c>
       <c r="H222" s="21">
@@ -10969,7 +10858,7 @@
         <v>841.8</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="21">
         <v>2</v>
       </c>
@@ -10988,7 +10877,7 @@
       <c r="F223" s="21">
         <v>222</v>
       </c>
-      <c r="G223" s="21">
+      <c r="G223" s="23">
         <v>839.3</v>
       </c>
       <c r="H223" s="21">
@@ -11001,7 +10890,7 @@
         <v>838.5</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="21">
         <v>2</v>
       </c>
@@ -11020,7 +10909,7 @@
       <c r="F224" s="21">
         <v>223</v>
       </c>
-      <c r="G224" s="21">
+      <c r="G224" s="23">
         <v>959.9</v>
       </c>
       <c r="H224" s="21">
@@ -11033,7 +10922,7 @@
         <v>959.8</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="21">
         <v>2</v>
       </c>
@@ -11052,7 +10941,7 @@
       <c r="F225" s="21">
         <v>224</v>
       </c>
-      <c r="G225" s="21">
+      <c r="G225" s="23">
         <v>989.9</v>
       </c>
       <c r="H225" s="21">
@@ -11065,7 +10954,7 @@
         <v>989.8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="21">
         <v>2</v>
       </c>
@@ -11084,7 +10973,7 @@
       <c r="F226" s="21">
         <v>225</v>
       </c>
-      <c r="G226" s="21">
+      <c r="G226" s="23">
         <v>986.5</v>
       </c>
       <c r="H226" s="21">
@@ -11097,7 +10986,7 @@
         <v>986.4</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="21">
         <v>2</v>
       </c>
@@ -11116,7 +11005,7 @@
       <c r="F227" s="21">
         <v>226</v>
       </c>
-      <c r="G227" s="21">
+      <c r="G227" s="23">
         <v>838.3</v>
       </c>
       <c r="H227" s="21">
@@ -11129,7 +11018,7 @@
         <v>838.2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="21">
         <v>2</v>
       </c>
@@ -11148,7 +11037,7 @@
       <c r="F228" s="21">
         <v>227</v>
       </c>
-      <c r="G228" s="21">
+      <c r="G228" s="23">
         <v>852</v>
       </c>
       <c r="H228" s="21">
@@ -11161,7 +11050,7 @@
         <v>851.9</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="21">
         <v>2</v>
       </c>
@@ -11180,7 +11069,7 @@
       <c r="F229" s="21">
         <v>228</v>
       </c>
-      <c r="G229" s="21">
+      <c r="G229" s="23">
         <v>863.3</v>
       </c>
       <c r="H229" s="21">
@@ -11193,7 +11082,7 @@
         <v>863.2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="21">
         <v>2</v>
       </c>
@@ -11212,11 +11101,11 @@
       <c r="F230" s="21">
         <v>229</v>
       </c>
-      <c r="G230" s="21">
+      <c r="G230" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="21">
         <v>2</v>
       </c>
@@ -11235,7 +11124,7 @@
       <c r="F231" s="21">
         <v>230</v>
       </c>
-      <c r="G231" s="21">
+      <c r="G231" s="23">
         <v>838.2</v>
       </c>
       <c r="H231" s="21">
@@ -11248,7 +11137,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="21">
         <v>2</v>
       </c>
@@ -11267,7 +11156,7 @@
       <c r="F232" s="21">
         <v>231</v>
       </c>
-      <c r="G232" s="21">
+      <c r="G232" s="23">
         <v>851.9</v>
       </c>
       <c r="H232" s="21">
@@ -11280,7 +11169,7 @@
         <v>851.8</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="21">
         <v>2</v>
       </c>
@@ -11299,7 +11188,7 @@
       <c r="F233" s="21">
         <v>232</v>
       </c>
-      <c r="G233" s="21">
+      <c r="G233" s="23">
         <v>863.2</v>
       </c>
       <c r="H233" s="21">
@@ -11312,7 +11201,7 @@
         <v>863.1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="21">
         <v>2</v>
       </c>
@@ -11331,7 +11220,7 @@
       <c r="F234" s="21">
         <v>233</v>
       </c>
-      <c r="G234" s="21">
+      <c r="G234" s="23">
         <v>825.3</v>
       </c>
       <c r="H234" s="21">
@@ -11344,7 +11233,7 @@
         <v>824.3</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="21">
         <v>2</v>
       </c>
@@ -11363,7 +11252,7 @@
       <c r="F235" s="21">
         <v>234</v>
       </c>
-      <c r="G235" s="21">
+      <c r="G235" s="23">
         <v>841.8</v>
       </c>
       <c r="H235" s="21">
@@ -11376,7 +11265,7 @@
         <v>840.8</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="21">
         <v>2</v>
       </c>
@@ -11395,7 +11284,7 @@
       <c r="F236" s="21">
         <v>235</v>
       </c>
-      <c r="G236" s="21">
+      <c r="G236" s="23">
         <v>838.5</v>
       </c>
       <c r="H236" s="21">
@@ -11408,12 +11297,12 @@
         <v>837.5</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="21">
         <v>2</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C237" s="21">
         <v>19012017</v>
@@ -11427,11 +11316,11 @@
       <c r="F237" s="21">
         <v>236</v>
       </c>
-      <c r="G237" s="21">
+      <c r="G237" s="23">
         <v>405.96</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="21">
         <v>2</v>
       </c>
@@ -11450,11 +11339,11 @@
       <c r="F238" s="21">
         <v>237</v>
       </c>
-      <c r="G238" s="21">
+      <c r="G238" s="23">
         <v>826.9</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="21">
         <v>2</v>
       </c>
@@ -11473,7 +11362,7 @@
       <c r="F239" s="21">
         <v>238</v>
       </c>
-      <c r="G239" s="21">
+      <c r="G239" s="23">
         <v>959.8</v>
       </c>
       <c r="H239" s="21">
@@ -11486,7 +11375,7 @@
         <v>959.7</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="21">
         <v>2</v>
       </c>
@@ -11505,7 +11394,7 @@
       <c r="F240" s="21">
         <v>239</v>
       </c>
-      <c r="G240" s="21">
+      <c r="G240" s="23">
         <v>989.8</v>
       </c>
       <c r="H240" s="21">
@@ -11518,7 +11407,7 @@
         <v>989.7</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="21">
         <v>2</v>
       </c>
@@ -11537,7 +11426,7 @@
       <c r="F241" s="21">
         <v>240</v>
       </c>
-      <c r="G241" s="21">
+      <c r="G241" s="23">
         <v>986.3</v>
       </c>
       <c r="H241" s="21">
@@ -11550,10 +11439,10 @@
         <v>986.3</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="21">
         <v>2</v>
       </c>
@@ -11572,7 +11461,7 @@
       <c r="F242" s="21">
         <v>241</v>
       </c>
-      <c r="G242" s="21">
+      <c r="G242" s="23">
         <v>1037</v>
       </c>
       <c r="H242" s="21">
@@ -11585,7 +11474,7 @@
         <v>1036.4000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="21">
         <v>2</v>
       </c>
@@ -11604,7 +11493,7 @@
       <c r="F243" s="21">
         <v>242</v>
       </c>
-      <c r="G243" s="21">
+      <c r="G243" s="23">
         <v>1021.3</v>
       </c>
       <c r="H243" s="21">
@@ -11617,7 +11506,7 @@
         <v>1020.6</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="21">
         <v>2</v>
       </c>
@@ -11636,7 +11525,7 @@
       <c r="F244" s="21">
         <v>243</v>
       </c>
-      <c r="G244" s="21">
+      <c r="G244" s="23">
         <v>1048.5999999999999</v>
       </c>
       <c r="H244" s="21">
@@ -11649,7 +11538,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="21">
         <v>2</v>
       </c>
@@ -11668,7 +11557,7 @@
       <c r="F245" s="21">
         <v>244</v>
       </c>
-      <c r="G245" s="21">
+      <c r="G245" s="23">
         <v>844.2</v>
       </c>
       <c r="H245" s="21">
@@ -11681,7 +11570,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="21">
         <v>2</v>
       </c>
@@ -11700,7 +11589,7 @@
       <c r="F246" s="21">
         <v>245</v>
       </c>
-      <c r="G246" s="21">
+      <c r="G246" s="23">
         <v>852.1</v>
       </c>
       <c r="H246" s="21">
@@ -11713,7 +11602,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="21">
         <v>2</v>
       </c>
@@ -11732,7 +11621,7 @@
       <c r="F247" s="21">
         <v>246</v>
       </c>
-      <c r="G247" s="21">
+      <c r="G247" s="23">
         <v>846.9</v>
       </c>
       <c r="H247" s="21">
@@ -11745,7 +11634,7 @@
         <v>845.7</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="21">
         <v>2</v>
       </c>
@@ -11764,7 +11653,7 @@
       <c r="F248" s="21">
         <v>247</v>
       </c>
-      <c r="G248" s="21">
+      <c r="G248" s="23">
         <v>950.2</v>
       </c>
       <c r="H248" s="21">
@@ -11777,7 +11666,7 @@
         <v>949.3</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="21">
         <v>2</v>
       </c>
@@ -11796,7 +11685,7 @@
       <c r="F249" s="21">
         <v>248</v>
       </c>
-      <c r="G249" s="21">
+      <c r="G249" s="23">
         <v>857</v>
       </c>
       <c r="H249" s="21">
@@ -11809,7 +11698,7 @@
         <v>856.4</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="21">
         <v>2</v>
       </c>
@@ -11828,7 +11717,7 @@
       <c r="F250" s="21">
         <v>249</v>
       </c>
-      <c r="G250" s="21">
+      <c r="G250" s="23">
         <v>846.6</v>
       </c>
       <c r="H250" s="21">
@@ -11841,7 +11730,7 @@
         <v>845.8</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="21">
         <v>2</v>
       </c>
@@ -11860,7 +11749,7 @@
       <c r="F251" s="21">
         <v>250</v>
       </c>
-      <c r="G251" s="21">
+      <c r="G251" s="23">
         <v>850.9</v>
       </c>
       <c r="H251" s="21">
@@ -11873,7 +11762,7 @@
         <v>850.6</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="21">
         <v>2</v>
       </c>
@@ -11892,7 +11781,7 @@
       <c r="F252" s="21">
         <v>251</v>
       </c>
-      <c r="G252" s="21">
+      <c r="G252" s="23">
         <v>841</v>
       </c>
       <c r="H252" s="21">
@@ -11905,7 +11794,7 @@
         <v>840.8</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="21">
         <v>2</v>
       </c>
@@ -11924,7 +11813,7 @@
       <c r="F253" s="21">
         <v>252</v>
       </c>
-      <c r="G253" s="21">
+      <c r="G253" s="23">
         <v>871.3</v>
       </c>
       <c r="H253" s="21">
@@ -11937,7 +11826,7 @@
         <v>871.1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="21">
         <v>2</v>
       </c>
@@ -11956,7 +11845,7 @@
       <c r="F254" s="21">
         <v>253</v>
       </c>
-      <c r="G254" s="21">
+      <c r="G254" s="23">
         <v>949.3</v>
       </c>
       <c r="H254" s="21">
@@ -11969,7 +11858,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="21">
         <v>2</v>
       </c>
@@ -11988,7 +11877,7 @@
       <c r="F255" s="21">
         <v>254</v>
       </c>
-      <c r="G255" s="21">
+      <c r="G255" s="23">
         <v>856.1</v>
       </c>
       <c r="H255" s="21">
@@ -12001,7 +11890,7 @@
         <v>855.7</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="21">
         <v>2</v>
       </c>
@@ -12020,7 +11909,7 @@
       <c r="F256" s="21">
         <v>255</v>
       </c>
-      <c r="G256" s="21">
+      <c r="G256" s="23">
         <v>845.8</v>
       </c>
       <c r="H256" s="21">
@@ -12033,7 +11922,7 @@
         <v>845.2</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="21">
         <v>2</v>
       </c>
@@ -12052,7 +11941,7 @@
       <c r="F257" s="21">
         <v>256</v>
       </c>
-      <c r="G257" s="21">
+      <c r="G257" s="23">
         <v>850.6</v>
       </c>
       <c r="H257" s="21">
@@ -12065,7 +11954,7 @@
         <v>849.8</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="21">
         <v>2</v>
       </c>
@@ -12084,7 +11973,7 @@
       <c r="F258" s="21">
         <v>257</v>
       </c>
-      <c r="G258" s="21">
+      <c r="G258" s="23">
         <v>840.8</v>
       </c>
       <c r="H258" s="21">
@@ -12097,7 +11986,7 @@
         <v>839.9</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="21">
         <v>2</v>
       </c>
@@ -12116,7 +12005,7 @@
       <c r="F259" s="21">
         <v>258</v>
       </c>
-      <c r="G259" s="21">
+      <c r="G259" s="23">
         <v>871.1</v>
       </c>
       <c r="H259" s="21">
@@ -12129,7 +12018,7 @@
         <v>870.2</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="21">
         <v>2</v>
       </c>
@@ -12148,7 +12037,7 @@
       <c r="F260" s="21">
         <v>259</v>
       </c>
-      <c r="G260" s="21">
+      <c r="G260" s="23">
         <v>1036.4000000000001</v>
       </c>
       <c r="H260" s="21">
@@ -12161,7 +12050,7 @@
         <v>1035.8</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="21">
         <v>2</v>
       </c>
@@ -12180,7 +12069,7 @@
       <c r="F261" s="21">
         <v>260</v>
       </c>
-      <c r="G261" s="21">
+      <c r="G261" s="23">
         <v>1020.6</v>
       </c>
       <c r="H261" s="21">
@@ -12193,7 +12082,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="21">
         <v>2</v>
       </c>
@@ -12212,7 +12101,7 @@
       <c r="F262" s="21">
         <v>261</v>
       </c>
-      <c r="G262" s="21">
+      <c r="G262" s="23">
         <v>1048</v>
       </c>
       <c r="H262" s="21">
@@ -12225,7 +12114,7 @@
         <v>1047.5</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="21">
         <v>2</v>
       </c>
@@ -12244,7 +12133,7 @@
       <c r="F263" s="21">
         <v>262</v>
       </c>
-      <c r="G263" s="21">
+      <c r="G263" s="23">
         <v>843</v>
       </c>
       <c r="H263" s="21">
@@ -12257,7 +12146,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="21">
         <v>2</v>
       </c>
@@ -12276,7 +12165,7 @@
       <c r="F264" s="21">
         <v>263</v>
       </c>
-      <c r="G264" s="21">
+      <c r="G264" s="23">
         <v>851.1</v>
       </c>
       <c r="H264" s="21">
@@ -12289,7 +12178,7 @@
         <v>850.5</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="21">
         <v>2</v>
       </c>
@@ -12308,7 +12197,7 @@
       <c r="F265" s="21">
         <v>264</v>
       </c>
-      <c r="G265" s="21">
+      <c r="G265" s="23">
         <v>845.7</v>
       </c>
       <c r="H265" s="21">
@@ -12321,7 +12210,7 @@
         <v>845.3</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="21">
         <v>2</v>
       </c>
@@ -12340,7 +12229,7 @@
       <c r="F266" s="21">
         <v>265</v>
       </c>
-      <c r="G266" s="21">
+      <c r="G266" s="23">
         <v>824.3</v>
       </c>
       <c r="H266" s="21">
@@ -12353,7 +12242,7 @@
         <v>823.8</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="21">
         <v>2</v>
       </c>
@@ -12372,7 +12261,7 @@
       <c r="F267" s="21">
         <v>266</v>
       </c>
-      <c r="G267" s="21">
+      <c r="G267" s="23">
         <v>840.8</v>
       </c>
       <c r="H267" s="21">
@@ -12385,7 +12274,7 @@
         <v>840.3</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="21">
         <v>2</v>
       </c>
@@ -12404,7 +12293,7 @@
       <c r="F268" s="21">
         <v>267</v>
       </c>
-      <c r="G268" s="21">
+      <c r="G268" s="23">
         <v>837.6</v>
       </c>
       <c r="H268" s="21">
@@ -12417,7 +12306,7 @@
         <v>837.1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="21">
         <v>2</v>
       </c>
@@ -12436,7 +12325,7 @@
       <c r="F269" s="21">
         <v>268</v>
       </c>
-      <c r="G269" s="21">
+      <c r="G269" s="23">
         <v>959.7</v>
       </c>
       <c r="H269" s="21">
@@ -12449,10 +12338,10 @@
         <v>959.6</v>
       </c>
       <c r="K269" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="21">
         <v>2</v>
       </c>
@@ -12471,7 +12360,7 @@
       <c r="F270" s="21">
         <v>269</v>
       </c>
-      <c r="G270" s="21">
+      <c r="G270" s="23">
         <v>989.7</v>
       </c>
       <c r="H270" s="21">
@@ -12484,7 +12373,7 @@
         <v>989.6</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="21">
         <v>2</v>
       </c>
@@ -12503,7 +12392,7 @@
       <c r="F271" s="21">
         <v>270</v>
       </c>
-      <c r="G271" s="21">
+      <c r="G271" s="23">
         <v>986.3</v>
       </c>
       <c r="H271" s="21">
@@ -12516,7 +12405,7 @@
         <v>986.2</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="21">
         <v>2</v>
       </c>
@@ -12535,7 +12424,7 @@
       <c r="F272" s="21">
         <v>271</v>
       </c>
-      <c r="G272" s="21">
+      <c r="G272" s="23">
         <v>838</v>
       </c>
       <c r="H272" s="21">
@@ -12548,7 +12437,7 @@
         <v>837.4</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="21">
         <v>2</v>
       </c>
@@ -12567,7 +12456,7 @@
       <c r="F273" s="21">
         <v>272</v>
       </c>
-      <c r="G273" s="21">
+      <c r="G273" s="23">
         <v>851.7</v>
       </c>
       <c r="H273" s="21">
@@ -12580,7 +12469,7 @@
         <v>851.3</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="21">
         <v>2</v>
       </c>
@@ -12599,7 +12488,7 @@
       <c r="F274" s="21">
         <v>273</v>
       </c>
-      <c r="G274" s="21">
+      <c r="G274" s="23">
         <v>863.1</v>
       </c>
       <c r="H274" s="21">
@@ -12612,12 +12501,12 @@
         <v>862.4</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="21">
         <v>2</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C275" s="21">
         <v>20012017</v>
@@ -12631,14 +12520,14 @@
       <c r="F275" s="21">
         <v>274</v>
       </c>
-      <c r="G275" s="21">
+      <c r="G275" s="23">
         <v>405.96</v>
       </c>
       <c r="K275" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="21">
         <v>2</v>
       </c>
@@ -12657,14 +12546,14 @@
       <c r="F276" s="21">
         <v>275</v>
       </c>
-      <c r="G276" s="21">
+      <c r="G276" s="23">
         <v>1073.5999999999999</v>
       </c>
       <c r="K276" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="21">
         <v>2</v>
       </c>
@@ -12683,14 +12572,14 @@
       <c r="F277" s="21">
         <v>276</v>
       </c>
-      <c r="G277" s="21">
+      <c r="G277" s="23">
         <v>826.9</v>
       </c>
       <c r="K277" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="21">
         <v>2</v>
       </c>
@@ -12709,7 +12598,7 @@
       <c r="F278" s="21">
         <v>277</v>
       </c>
-      <c r="G278" s="21">
+      <c r="G278" s="23">
         <v>837.4</v>
       </c>
       <c r="H278" s="21">
@@ -12722,7 +12611,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="21">
         <v>2</v>
       </c>
@@ -12741,7 +12630,7 @@
       <c r="F279" s="21">
         <v>278</v>
       </c>
-      <c r="G279" s="21">
+      <c r="G279" s="23">
         <v>851.2</v>
       </c>
       <c r="H279" s="21">
@@ -12754,7 +12643,7 @@
         <v>850.9</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="21">
         <v>2</v>
       </c>
@@ -12773,7 +12662,7 @@
       <c r="F280" s="21">
         <v>279</v>
       </c>
-      <c r="G280" s="21">
+      <c r="G280" s="23">
         <v>862.4</v>
       </c>
       <c r="H280" s="21">
@@ -12786,7 +12675,7 @@
         <v>861.9</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="21">
         <v>2</v>
       </c>
@@ -12805,7 +12694,7 @@
       <c r="F281" s="21">
         <v>280</v>
       </c>
-      <c r="G281" s="21">
+      <c r="G281" s="23">
         <v>823.8</v>
       </c>
       <c r="H281" s="21">
@@ -12818,7 +12707,7 @@
         <v>823.5</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="21">
         <v>2</v>
       </c>
@@ -12837,7 +12726,7 @@
       <c r="F282" s="21">
         <v>281</v>
       </c>
-      <c r="G282" s="21">
+      <c r="G282" s="23">
         <v>840.3</v>
       </c>
       <c r="H282" s="21">
@@ -12850,7 +12739,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="21">
         <v>2</v>
       </c>
@@ -12869,7 +12758,7 @@
       <c r="F283" s="21">
         <v>282</v>
       </c>
-      <c r="G283" s="21">
+      <c r="G283" s="23">
         <v>837.1</v>
       </c>
       <c r="H283" s="21">
@@ -12882,7 +12771,7 @@
         <v>836.8</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="21">
         <v>2</v>
       </c>
@@ -12901,7 +12790,7 @@
       <c r="F284" s="21">
         <v>283</v>
       </c>
-      <c r="G284" s="21">
+      <c r="G284" s="23">
         <v>959.6</v>
       </c>
       <c r="H284" s="21">
@@ -12914,7 +12803,7 @@
         <v>959.6</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="21">
         <v>2</v>
       </c>
@@ -12933,7 +12822,7 @@
       <c r="F285" s="21">
         <v>284</v>
       </c>
-      <c r="G285" s="21">
+      <c r="G285" s="23">
         <v>989.6</v>
       </c>
       <c r="H285" s="21">
@@ -12946,7 +12835,7 @@
         <v>989.6</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="21">
         <v>2</v>
       </c>
@@ -12965,7 +12854,7 @@
       <c r="F286" s="21">
         <v>285</v>
       </c>
-      <c r="G286" s="21">
+      <c r="G286" s="23">
         <v>986.2</v>
       </c>
       <c r="H286" s="21">
@@ -12978,7 +12867,7 @@
         <v>986.1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="21">
         <v>2</v>
       </c>
@@ -12997,7 +12886,7 @@
       <c r="F287" s="21">
         <v>286</v>
       </c>
-      <c r="G287" s="21">
+      <c r="G287" s="23">
         <v>1035.8</v>
       </c>
       <c r="H287" s="21">
@@ -13010,7 +12899,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="21">
         <v>2</v>
       </c>
@@ -13029,7 +12918,7 @@
       <c r="F288" s="21">
         <v>287</v>
       </c>
-      <c r="G288" s="21">
+      <c r="G288" s="23">
         <v>1020</v>
       </c>
       <c r="H288" s="21">
@@ -13042,7 +12931,7 @@
         <v>1019.5</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="21">
         <v>2</v>
       </c>
@@ -13061,7 +12950,7 @@
       <c r="F289" s="21">
         <v>288</v>
       </c>
-      <c r="G289" s="21">
+      <c r="G289" s="23">
         <v>1047.5</v>
       </c>
       <c r="H289" s="21">
@@ -13074,7 +12963,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="21">
         <v>2</v>
       </c>
@@ -13093,7 +12982,7 @@
       <c r="F290" s="21">
         <v>289</v>
       </c>
-      <c r="G290" s="21">
+      <c r="G290" s="23">
         <v>842.4</v>
       </c>
       <c r="H290" s="21">
@@ -13106,7 +12995,7 @@
         <v>842.1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="21">
         <v>2</v>
       </c>
@@ -13125,7 +13014,7 @@
       <c r="F291" s="21">
         <v>290</v>
       </c>
-      <c r="G291" s="21">
+      <c r="G291" s="23">
         <v>850.5</v>
       </c>
       <c r="H291" s="21">
@@ -13138,7 +13027,7 @@
         <v>850.3</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="21">
         <v>2</v>
       </c>
@@ -13157,7 +13046,7 @@
       <c r="F292" s="21">
         <v>291</v>
       </c>
-      <c r="G292" s="21">
+      <c r="G292" s="23">
         <v>845.3</v>
       </c>
       <c r="H292" s="21">
@@ -13170,7 +13059,7 @@
         <v>845.1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="21">
         <v>2</v>
       </c>
@@ -13189,7 +13078,7 @@
       <c r="F293" s="21">
         <v>292</v>
       </c>
-      <c r="G293" s="21">
+      <c r="G293" s="23">
         <v>948.5</v>
       </c>
       <c r="H293" s="21">
@@ -13202,7 +13091,7 @@
         <v>947.9</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="21">
         <v>2</v>
       </c>
@@ -13221,7 +13110,7 @@
       <c r="F294" s="21">
         <v>293</v>
       </c>
-      <c r="G294" s="21">
+      <c r="G294" s="23">
         <v>855.4</v>
       </c>
       <c r="H294" s="21">
@@ -13234,7 +13123,7 @@
         <v>855.1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="21">
         <v>2</v>
       </c>
@@ -13253,7 +13142,7 @@
       <c r="F295" s="21">
         <v>294</v>
       </c>
-      <c r="G295" s="21">
+      <c r="G295" s="23">
         <v>845.2</v>
       </c>
       <c r="H295" s="21">
@@ -13266,7 +13155,7 @@
         <v>844.8</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="21">
         <v>2</v>
       </c>
@@ -13285,7 +13174,7 @@
       <c r="F296" s="21">
         <v>295</v>
       </c>
-      <c r="G296" s="21">
+      <c r="G296" s="23">
         <v>849.8</v>
       </c>
       <c r="H296" s="21">
@@ -13298,7 +13187,7 @@
         <v>849.5</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="21">
         <v>2</v>
       </c>
@@ -13317,7 +13206,7 @@
       <c r="F297" s="21">
         <v>296</v>
       </c>
-      <c r="G297" s="21">
+      <c r="G297" s="23">
         <v>840</v>
       </c>
       <c r="H297" s="21">
@@ -13330,7 +13219,7 @@
         <v>839.6</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="21">
         <v>2</v>
       </c>
@@ -13349,7 +13238,7 @@
       <c r="F298" s="21">
         <v>297</v>
       </c>
-      <c r="G298" s="21">
+      <c r="G298" s="23">
         <v>870.2</v>
       </c>
       <c r="H298" s="21">
@@ -13362,7 +13251,7 @@
         <v>869.8</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="21">
         <v>2</v>
       </c>
@@ -13381,16 +13270,16 @@
       <c r="F299" s="21">
         <v>298</v>
       </c>
-      <c r="G299" s="21">
+      <c r="G299" s="23">
         <v>826.9</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="21">
         <v>2</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C300" s="21">
         <v>22012017</v>
@@ -13404,11 +13293,11 @@
       <c r="F300" s="21">
         <v>299</v>
       </c>
-      <c r="G300" s="21">
+      <c r="G300" s="23">
         <v>405.97</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="21">
         <v>2</v>
       </c>
@@ -13427,11 +13316,11 @@
       <c r="F301" s="21">
         <v>300</v>
       </c>
-      <c r="G301" s="21">
+      <c r="G301" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="21">
         <v>2</v>
       </c>
@@ -13450,7 +13339,7 @@
       <c r="F302" s="21">
         <v>301</v>
       </c>
-      <c r="G302" s="21">
+      <c r="G302" s="23">
         <v>849.4</v>
       </c>
       <c r="H302" s="21">
@@ -13463,7 +13352,7 @@
         <v>849.3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="21">
         <v>2</v>
       </c>
@@ -13482,7 +13371,7 @@
       <c r="F303" s="21">
         <v>302</v>
       </c>
-      <c r="G303" s="21">
+      <c r="G303" s="23">
         <v>839.5</v>
       </c>
       <c r="H303" s="21">
@@ -13495,7 +13384,7 @@
         <v>839.5</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="21">
         <v>2</v>
       </c>
@@ -13514,7 +13403,7 @@
       <c r="F304" s="21">
         <v>303</v>
       </c>
-      <c r="G304" s="21">
+      <c r="G304" s="23">
         <v>869.8</v>
       </c>
       <c r="H304" s="21">
@@ -13527,7 +13416,7 @@
         <v>869.7</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="21">
         <v>2</v>
       </c>
@@ -13546,7 +13435,7 @@
       <c r="F305" s="21">
         <v>304</v>
       </c>
-      <c r="G305" s="21">
+      <c r="G305" s="23">
         <v>842.1</v>
       </c>
       <c r="H305" s="21">
@@ -13559,7 +13448,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="21">
         <v>2</v>
       </c>
@@ -13578,7 +13467,7 @@
       <c r="F306" s="21">
         <v>305</v>
       </c>
-      <c r="G306" s="21">
+      <c r="G306" s="23">
         <v>850.3</v>
       </c>
       <c r="H306" s="21">
@@ -13591,7 +13480,7 @@
         <v>850.1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="21">
         <v>2</v>
       </c>
@@ -13610,7 +13499,7 @@
       <c r="F307" s="21">
         <v>306</v>
       </c>
-      <c r="G307" s="21">
+      <c r="G307" s="23">
         <v>845.1</v>
       </c>
       <c r="H307" s="21">
@@ -13623,7 +13512,7 @@
         <v>844.9</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="21">
         <v>2</v>
       </c>
@@ -13642,7 +13531,7 @@
       <c r="F308" s="21">
         <v>307</v>
       </c>
-      <c r="G308" s="21">
+      <c r="G308" s="23">
         <v>947.9</v>
       </c>
       <c r="H308" s="21">
@@ -13655,7 +13544,7 @@
         <v>947.6</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="21">
         <v>2</v>
       </c>
@@ -13674,7 +13563,7 @@
       <c r="F309" s="21">
         <v>308</v>
       </c>
-      <c r="G309" s="21">
+      <c r="G309" s="23">
         <v>854.9</v>
       </c>
       <c r="H309" s="21">
@@ -13687,7 +13576,7 @@
         <v>854.8</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="21">
         <v>2</v>
       </c>
@@ -13706,7 +13595,7 @@
       <c r="F310" s="21">
         <v>309</v>
       </c>
-      <c r="G310" s="21">
+      <c r="G310" s="23">
         <v>844.7</v>
       </c>
       <c r="H310" s="21">
@@ -13719,7 +13608,7 @@
         <v>844.5</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="21">
         <v>2</v>
       </c>
@@ -13738,7 +13627,7 @@
       <c r="F311" s="21">
         <v>310</v>
       </c>
-      <c r="G311" s="21">
+      <c r="G311" s="23">
         <v>1035.3</v>
       </c>
       <c r="H311" s="21">
@@ -13751,7 +13640,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="21">
         <v>2</v>
       </c>
@@ -13770,7 +13659,7 @@
       <c r="F312" s="21">
         <v>311</v>
       </c>
-      <c r="G312" s="21">
+      <c r="G312" s="23">
         <v>1019.5</v>
       </c>
       <c r="H312" s="21">
@@ -13783,7 +13672,7 @@
         <v>1019.2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="21">
         <v>2</v>
       </c>
@@ -13802,7 +13691,7 @@
       <c r="F313" s="21">
         <v>312</v>
       </c>
-      <c r="G313" s="21">
+      <c r="G313" s="23">
         <v>1047.0999999999999</v>
       </c>
       <c r="H313" s="21">
@@ -13815,10 +13704,10 @@
         <v>1046.8</v>
       </c>
       <c r="K313" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="21">
         <v>2</v>
       </c>
@@ -13837,7 +13726,7 @@
       <c r="F314" s="21">
         <v>313</v>
       </c>
-      <c r="G314" s="21">
+      <c r="G314" s="23">
         <v>823.4</v>
       </c>
       <c r="H314" s="21">
@@ -13850,7 +13739,7 @@
         <v>823.2</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="21">
         <v>2</v>
       </c>
@@ -13869,7 +13758,7 @@
       <c r="F315" s="21">
         <v>314</v>
       </c>
-      <c r="G315" s="21">
+      <c r="G315" s="23">
         <v>840</v>
       </c>
       <c r="H315" s="21">
@@ -13882,10 +13771,10 @@
         <v>839.8</v>
       </c>
       <c r="K315" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="21">
         <v>2</v>
       </c>
@@ -13904,7 +13793,7 @@
       <c r="F316" s="21">
         <v>315</v>
       </c>
-      <c r="G316" s="21">
+      <c r="G316" s="23">
         <v>836.8</v>
       </c>
       <c r="H316" s="21">
@@ -13917,7 +13806,7 @@
         <v>836.6</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="21">
         <v>2</v>
       </c>
@@ -13936,7 +13825,7 @@
       <c r="F317" s="21">
         <v>316</v>
       </c>
-      <c r="G317" s="21">
+      <c r="G317" s="23">
         <v>959.5</v>
       </c>
       <c r="H317" s="21">
@@ -13949,7 +13838,7 @@
         <v>959.5</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="21">
         <v>2</v>
       </c>
@@ -13968,7 +13857,7 @@
       <c r="F318" s="21">
         <v>317</v>
       </c>
-      <c r="G318" s="21">
+      <c r="G318" s="23">
         <v>989.5</v>
       </c>
       <c r="H318" s="21">
@@ -13981,7 +13870,7 @@
         <v>989.5</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="21">
         <v>2</v>
       </c>
@@ -14000,7 +13889,7 @@
       <c r="F319" s="21">
         <v>318</v>
       </c>
-      <c r="G319" s="21">
+      <c r="G319" s="23">
         <v>986.1</v>
       </c>
       <c r="H319" s="21">
@@ -14013,7 +13902,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="21">
         <v>2</v>
       </c>
@@ -14032,7 +13921,7 @@
       <c r="F320" s="21">
         <v>319</v>
       </c>
-      <c r="G320" s="21">
+      <c r="G320" s="23">
         <v>837</v>
       </c>
       <c r="H320" s="21">
@@ -14045,7 +13934,7 @@
         <v>836.8</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="21">
         <v>2</v>
       </c>
@@ -14064,7 +13953,7 @@
       <c r="F321" s="21">
         <v>320</v>
       </c>
-      <c r="G321" s="21">
+      <c r="G321" s="23">
         <v>850.8</v>
       </c>
       <c r="H321" s="21">
@@ -14077,7 +13966,7 @@
         <v>850.6</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="21">
         <v>2</v>
       </c>
@@ -14096,7 +13985,7 @@
       <c r="F322" s="21">
         <v>321</v>
       </c>
-      <c r="G322" s="21">
+      <c r="G322" s="23">
         <v>861.9</v>
       </c>
       <c r="H322" s="21">
@@ -14109,7 +13998,7 @@
         <v>861.6</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="21">
         <v>2</v>
       </c>
@@ -14128,11 +14017,11 @@
       <c r="F323" s="21">
         <v>322</v>
       </c>
-      <c r="G323" s="21">
+      <c r="G323" s="23">
         <v>826.9</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="21">
         <v>2</v>
       </c>
@@ -14151,16 +14040,16 @@
       <c r="F324" s="21">
         <v>323</v>
       </c>
-      <c r="G324" s="21">
+      <c r="G324" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="21">
         <v>2</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C325" s="21">
         <v>24012017</v>
@@ -14174,11 +14063,11 @@
       <c r="F325" s="21">
         <v>324</v>
       </c>
-      <c r="G325" s="21">
+      <c r="G325" s="23">
         <v>405.96</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="21">
         <v>2</v>
       </c>
@@ -14197,7 +14086,7 @@
       <c r="F326" s="21">
         <v>325</v>
       </c>
-      <c r="G326" s="21">
+      <c r="G326" s="23">
         <v>836.8</v>
       </c>
       <c r="H326" s="21">
@@ -14210,10 +14099,10 @@
         <v>836.6</v>
       </c>
       <c r="K326" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="21">
         <v>2</v>
       </c>
@@ -14232,7 +14121,7 @@
       <c r="F327" s="21">
         <v>326</v>
       </c>
-      <c r="G327" s="21">
+      <c r="G327" s="23">
         <v>850.5</v>
       </c>
       <c r="H327" s="21">
@@ -14245,7 +14134,7 @@
         <v>850.4</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="21">
         <v>2</v>
       </c>
@@ -14264,7 +14153,7 @@
       <c r="F328" s="21">
         <v>327</v>
       </c>
-      <c r="G328" s="21">
+      <c r="G328" s="23">
         <v>861.6</v>
       </c>
       <c r="H328" s="21">
@@ -14277,7 +14166,7 @@
         <v>861.4</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="21">
         <v>2</v>
       </c>
@@ -14296,7 +14185,7 @@
       <c r="F329" s="21">
         <v>328</v>
       </c>
-      <c r="G329" s="21">
+      <c r="G329" s="23">
         <v>823.2</v>
       </c>
       <c r="H329" s="21">
@@ -14309,7 +14198,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="21">
         <v>2</v>
       </c>
@@ -14328,7 +14217,7 @@
       <c r="F330" s="21">
         <v>329</v>
       </c>
-      <c r="G330" s="21">
+      <c r="G330" s="23">
         <v>839.8</v>
       </c>
       <c r="H330" s="21">
@@ -14341,7 +14230,7 @@
         <v>839.5</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="21">
         <v>2</v>
       </c>
@@ -14360,7 +14249,7 @@
       <c r="F331" s="21">
         <v>330</v>
       </c>
-      <c r="G331" s="21">
+      <c r="G331" s="23">
         <v>836.6</v>
       </c>
       <c r="H331" s="21">
@@ -14373,7 +14262,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="21">
         <v>2</v>
       </c>
@@ -14392,7 +14281,7 @@
       <c r="F332" s="21">
         <v>331</v>
       </c>
-      <c r="G332" s="21">
+      <c r="G332" s="23">
         <v>959.5</v>
       </c>
       <c r="H332" s="21">
@@ -14405,7 +14294,7 @@
         <v>959.3</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="21">
         <v>2</v>
       </c>
@@ -14424,7 +14313,7 @@
       <c r="F333" s="21">
         <v>332</v>
       </c>
-      <c r="G333" s="21">
+      <c r="G333" s="23">
         <v>989.5</v>
       </c>
       <c r="H333" s="21">
@@ -14437,7 +14326,7 @@
         <v>989.3</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="21">
         <v>2</v>
       </c>
@@ -14456,7 +14345,7 @@
       <c r="F334" s="21">
         <v>333</v>
       </c>
-      <c r="G334" s="21">
+      <c r="G334" s="23">
         <v>986</v>
       </c>
       <c r="H334" s="21">
@@ -14469,7 +14358,7 @@
         <v>985.9</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="21">
         <v>2</v>
       </c>
@@ -14488,7 +14377,7 @@
       <c r="F335" s="21">
         <v>334</v>
       </c>
-      <c r="G335" s="21">
+      <c r="G335" s="23">
         <v>841.9</v>
       </c>
       <c r="H335" s="21">
@@ -14501,7 +14390,7 @@
         <v>841.8</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="21">
         <v>2</v>
       </c>
@@ -14520,7 +14409,7 @@
       <c r="F336" s="21">
         <v>335</v>
       </c>
-      <c r="G336" s="21">
+      <c r="G336" s="23">
         <v>850.1</v>
       </c>
       <c r="H336" s="21">
@@ -14533,7 +14422,7 @@
         <v>849.9</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="21">
         <v>2</v>
       </c>
@@ -14552,7 +14441,7 @@
       <c r="F337" s="21">
         <v>336</v>
       </c>
-      <c r="G337" s="21">
+      <c r="G337" s="23">
         <v>844.9</v>
       </c>
       <c r="H337" s="21">
@@ -14565,7 +14454,7 @@
         <v>844.7</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="21">
         <v>2</v>
       </c>
@@ -14584,7 +14473,7 @@
       <c r="F338" s="21">
         <v>337</v>
       </c>
-      <c r="G338" s="21">
+      <c r="G338" s="23">
         <v>1035</v>
       </c>
       <c r="H338" s="21">
@@ -14597,7 +14486,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="21">
         <v>2</v>
       </c>
@@ -14616,7 +14505,7 @@
       <c r="F339" s="21">
         <v>338</v>
       </c>
-      <c r="G339" s="21">
+      <c r="G339" s="23">
         <v>1019.2</v>
       </c>
       <c r="H339" s="21">
@@ -14629,10 +14518,10 @@
         <v>1018.9</v>
       </c>
       <c r="K339" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="21">
         <v>2</v>
       </c>
@@ -14651,7 +14540,7 @@
       <c r="F340" s="21">
         <v>339</v>
       </c>
-      <c r="G340" s="21">
+      <c r="G340" s="23">
         <v>1046.8</v>
       </c>
       <c r="H340" s="21">
@@ -14664,7 +14553,7 @@
         <v>1046.5</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="21">
         <v>2</v>
       </c>
@@ -14683,7 +14572,7 @@
       <c r="F341" s="21">
         <v>340</v>
       </c>
-      <c r="G341" s="21">
+      <c r="G341" s="23">
         <v>849.3</v>
       </c>
       <c r="H341" s="21">
@@ -14696,7 +14585,7 @@
         <v>849.2</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="21">
         <v>2</v>
       </c>
@@ -14715,7 +14604,7 @@
       <c r="F342" s="21">
         <v>341</v>
       </c>
-      <c r="G342" s="21">
+      <c r="G342" s="23">
         <v>839.5</v>
       </c>
       <c r="H342" s="21">
@@ -14728,7 +14617,7 @@
         <v>839.4</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="21">
         <v>2</v>
       </c>
@@ -14747,7 +14636,7 @@
       <c r="F343" s="21">
         <v>342</v>
       </c>
-      <c r="G343" s="21">
+      <c r="G343" s="23">
         <v>869.7</v>
       </c>
       <c r="H343" s="21">
@@ -14760,10 +14649,10 @@
         <v>869.6</v>
       </c>
       <c r="K343" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="21">
         <v>2</v>
       </c>
@@ -14782,7 +14671,7 @@
       <c r="F344" s="21">
         <v>343</v>
       </c>
-      <c r="G344" s="21">
+      <c r="G344" s="23">
         <v>947.5</v>
       </c>
       <c r="H344" s="21">
@@ -14795,7 +14684,7 @@
         <v>947.2</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="21">
         <v>2</v>
       </c>
@@ -14814,7 +14703,7 @@
       <c r="F345" s="21">
         <v>344</v>
       </c>
-      <c r="G345" s="21">
+      <c r="G345" s="23">
         <v>854.6</v>
       </c>
       <c r="H345" s="21">
@@ -14827,10 +14716,10 @@
         <v>854.5</v>
       </c>
       <c r="K345" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="21">
         <v>2</v>
       </c>
@@ -14849,7 +14738,7 @@
       <c r="F346" s="21">
         <v>345</v>
       </c>
-      <c r="G346" s="21">
+      <c r="G346" s="23">
         <v>844.5</v>
       </c>
       <c r="H346" s="21">
@@ -14862,7 +14751,7 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="21">
         <v>2</v>
       </c>
@@ -14878,11 +14767,11 @@
       <c r="F347" s="21">
         <v>346</v>
       </c>
-      <c r="G347" s="21">
+      <c r="G347" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="21">
         <v>2</v>
       </c>
@@ -14898,16 +14787,16 @@
       <c r="F348" s="21">
         <v>347</v>
       </c>
-      <c r="G348" s="21">
+      <c r="G348" s="23">
         <v>826.9</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="21">
         <v>2</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C349" s="21">
         <v>28012017</v>
@@ -14918,11 +14807,11 @@
       <c r="F349" s="21">
         <v>348</v>
       </c>
-      <c r="G349" s="21">
+      <c r="G349" s="23">
         <v>405.96</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="21">
         <v>2</v>
       </c>
@@ -14941,7 +14830,7 @@
       <c r="F350" s="21">
         <v>349</v>
       </c>
-      <c r="G350" s="21">
+      <c r="G350" s="23">
         <v>947.2</v>
       </c>
       <c r="H350" s="21">
@@ -14954,7 +14843,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="21">
         <v>2</v>
       </c>
@@ -14973,7 +14862,7 @@
       <c r="F351" s="21">
         <v>350</v>
       </c>
-      <c r="G351" s="21">
+      <c r="G351" s="23">
         <v>854.4</v>
       </c>
       <c r="H351" s="21">
@@ -14986,7 +14875,7 @@
         <v>854.4</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="21">
         <v>2</v>
       </c>
@@ -15005,7 +14894,7 @@
       <c r="F352" s="21">
         <v>351</v>
       </c>
-      <c r="G352" s="21">
+      <c r="G352" s="23">
         <v>844.2</v>
       </c>
       <c r="H352" s="21">
@@ -15018,7 +14907,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="21">
         <v>2</v>
       </c>
@@ -15037,7 +14926,7 @@
       <c r="F353" s="21">
         <v>352</v>
       </c>
-      <c r="G353" s="21">
+      <c r="G353" s="23">
         <v>1034.7</v>
       </c>
       <c r="H353" s="21">
@@ -15050,7 +14939,7 @@
         <v>1034.5</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="21">
         <v>2</v>
       </c>
@@ -15069,7 +14958,7 @@
       <c r="F354" s="21">
         <v>353</v>
       </c>
-      <c r="G354" s="21">
+      <c r="G354" s="23">
         <v>1018.8</v>
       </c>
       <c r="H354" s="21">
@@ -15082,7 +14971,7 @@
         <v>1018.7</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="21">
         <v>2</v>
       </c>
@@ -15101,7 +14990,7 @@
       <c r="F355" s="21">
         <v>354</v>
       </c>
-      <c r="G355" s="21">
+      <c r="G355" s="23">
         <v>1046.4000000000001</v>
       </c>
       <c r="H355" s="21">
@@ -15114,7 +15003,7 @@
         <v>1046.3</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="21">
         <v>2</v>
       </c>
@@ -15133,7 +15022,7 @@
       <c r="F356" s="21">
         <v>355</v>
       </c>
-      <c r="G356" s="21">
+      <c r="G356" s="23">
         <v>959.3</v>
       </c>
       <c r="H356" s="21">
@@ -15146,7 +15035,7 @@
         <v>959.2</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="21">
         <v>2</v>
       </c>
@@ -15165,7 +15054,7 @@
       <c r="F357" s="21">
         <v>356</v>
       </c>
-      <c r="G357" s="21">
+      <c r="G357" s="23">
         <v>989.3</v>
       </c>
       <c r="H357" s="21">
@@ -15178,7 +15067,7 @@
         <v>989.2</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="21">
         <v>2</v>
       </c>
@@ -15197,7 +15086,7 @@
       <c r="F358" s="21">
         <v>357</v>
       </c>
-      <c r="G358" s="21">
+      <c r="G358" s="23">
         <v>985.8</v>
       </c>
       <c r="H358" s="21">
@@ -15210,7 +15099,7 @@
         <v>985.8</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="21">
         <v>2</v>
       </c>
@@ -15229,7 +15118,7 @@
       <c r="F359" s="21">
         <v>358</v>
       </c>
-      <c r="G359" s="21">
+      <c r="G359" s="23">
         <v>849.2</v>
       </c>
       <c r="H359" s="21">
@@ -15242,7 +15131,7 @@
         <v>849.1</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="21">
         <v>2</v>
       </c>
@@ -15261,7 +15150,7 @@
       <c r="F360" s="21">
         <v>359</v>
       </c>
-      <c r="G360" s="21">
+      <c r="G360" s="23">
         <v>839.3</v>
       </c>
       <c r="H360" s="21">
@@ -15274,7 +15163,7 @@
         <v>839.3</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="21">
         <v>2</v>
       </c>
@@ -15293,7 +15182,7 @@
       <c r="F361" s="21">
         <v>360</v>
       </c>
-      <c r="G361" s="21">
+      <c r="G361" s="23">
         <v>869.5</v>
       </c>
       <c r="H361" s="21">
@@ -15306,7 +15195,7 @@
         <v>869.5</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="21">
         <v>2</v>
       </c>
@@ -15325,7 +15214,7 @@
       <c r="F362" s="21">
         <v>361</v>
       </c>
-      <c r="G362" s="21">
+      <c r="G362" s="23">
         <v>841.7</v>
       </c>
       <c r="H362" s="21">
@@ -15338,7 +15227,7 @@
         <v>841.6</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="21">
         <v>2</v>
       </c>
@@ -15357,7 +15246,7 @@
       <c r="F363" s="21">
         <v>362</v>
       </c>
-      <c r="G363" s="21">
+      <c r="G363" s="23">
         <v>849.9</v>
       </c>
       <c r="H363" s="21">
@@ -15370,7 +15259,7 @@
         <v>849.8</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="21">
         <v>2</v>
       </c>
@@ -15389,7 +15278,7 @@
       <c r="F364" s="21">
         <v>363</v>
       </c>
-      <c r="G364" s="21">
+      <c r="G364" s="23">
         <v>844.7</v>
       </c>
       <c r="H364" s="21">
@@ -15402,7 +15291,7 @@
         <v>844.6</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="21">
         <v>2</v>
       </c>
@@ -15421,7 +15310,7 @@
       <c r="F365" s="21">
         <v>364</v>
       </c>
-      <c r="G365" s="21">
+      <c r="G365" s="23">
         <v>836.5</v>
       </c>
       <c r="H365" s="21">
@@ -15434,7 +15323,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="21">
         <v>2</v>
       </c>
@@ -15453,7 +15342,7 @@
       <c r="F366" s="21">
         <v>365</v>
       </c>
-      <c r="G366" s="21">
+      <c r="G366" s="23">
         <v>850.3</v>
       </c>
       <c r="H366" s="21">
@@ -15466,7 +15355,7 @@
         <v>850.3</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="21">
         <v>2</v>
       </c>
@@ -15485,7 +15374,7 @@
       <c r="F367" s="21">
         <v>366</v>
       </c>
-      <c r="G367" s="21">
+      <c r="G367" s="23">
         <v>861.3</v>
       </c>
       <c r="H367" s="21">
@@ -15498,7 +15387,7 @@
         <v>861.3</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="21">
         <v>2</v>
       </c>
@@ -15517,7 +15406,7 @@
       <c r="F368" s="21">
         <v>367</v>
       </c>
-      <c r="G368" s="21">
+      <c r="G368" s="23">
         <v>823</v>
       </c>
       <c r="H368" s="21">
@@ -15530,7 +15419,7 @@
         <v>822.9</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="21">
         <v>2</v>
       </c>
@@ -15549,7 +15438,7 @@
       <c r="F369" s="21">
         <v>368</v>
       </c>
-      <c r="G369" s="21">
+      <c r="G369" s="23">
         <v>839.5</v>
       </c>
       <c r="H369" s="21">
@@ -15562,7 +15451,7 @@
         <v>839.4</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="21">
         <v>2</v>
       </c>
@@ -15581,7 +15470,7 @@
       <c r="F370" s="21">
         <v>369</v>
       </c>
-      <c r="G370" s="21">
+      <c r="G370" s="23">
         <v>836.4</v>
       </c>
       <c r="H370" s="21">
@@ -15594,7 +15483,7 @@
         <v>836.3</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="21">
         <v>2</v>
       </c>
@@ -15610,11 +15499,11 @@
       <c r="F371" s="21">
         <v>370</v>
       </c>
-      <c r="G371" s="21">
+      <c r="G371" s="23">
         <v>1073.5</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="21">
         <v>2</v>
       </c>
@@ -15630,16 +15519,16 @@
       <c r="F372" s="21">
         <v>371</v>
       </c>
-      <c r="G372" s="21">
+      <c r="G372" s="23">
         <v>826.8</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="21">
         <v>2</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C373" s="21">
         <v>1022017</v>
@@ -15650,11 +15539,11 @@
       <c r="F373" s="21">
         <v>372</v>
       </c>
-      <c r="G373" s="21">
+      <c r="G373" s="23">
         <v>405.94</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="21">
         <v>2</v>
       </c>
@@ -15673,7 +15562,7 @@
       <c r="F374" s="21">
         <v>373</v>
       </c>
-      <c r="G374" s="21">
+      <c r="G374" s="23">
         <v>947</v>
       </c>
       <c r="H374" s="21">
@@ -15686,7 +15575,7 @@
         <v>946.8</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="21">
         <v>2</v>
       </c>
@@ -15705,7 +15594,7 @@
       <c r="F375" s="21">
         <v>374</v>
       </c>
-      <c r="G375" s="21">
+      <c r="G375" s="23">
         <v>854.2</v>
       </c>
       <c r="H375" s="21">
@@ -15718,7 +15607,7 @@
         <v>854.2</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="21">
         <v>2</v>
       </c>
@@ -15737,7 +15626,7 @@
       <c r="F376" s="21">
         <v>375</v>
       </c>
-      <c r="G376" s="21">
+      <c r="G376" s="23">
         <v>844</v>
       </c>
       <c r="H376" s="21">
@@ -15750,7 +15639,7 @@
         <v>843.9</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="21">
         <v>2</v>
       </c>
@@ -15769,7 +15658,7 @@
       <c r="F377" s="21">
         <v>376</v>
       </c>
-      <c r="G377" s="21">
+      <c r="G377" s="23">
         <v>1034.5</v>
       </c>
       <c r="H377" s="21">
@@ -15782,7 +15671,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="21">
         <v>2</v>
       </c>
@@ -15801,7 +15690,7 @@
       <c r="F378" s="21">
         <v>377</v>
       </c>
-      <c r="G378" s="21">
+      <c r="G378" s="23">
         <v>1018.7</v>
       </c>
       <c r="H378" s="21">
@@ -15814,7 +15703,7 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="21">
         <v>2</v>
       </c>
@@ -15833,7 +15722,7 @@
       <c r="F379" s="21">
         <v>378</v>
       </c>
-      <c r="G379" s="21">
+      <c r="G379" s="23">
         <v>1046.3</v>
       </c>
       <c r="H379" s="21">
@@ -15846,7 +15735,7 @@
         <v>1046.2</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="21">
         <v>2</v>
       </c>
@@ -15865,7 +15754,7 @@
       <c r="F380" s="21">
         <v>379</v>
       </c>
-      <c r="G380" s="21">
+      <c r="G380" s="23">
         <v>959.2</v>
       </c>
       <c r="H380" s="21">
@@ -15878,7 +15767,7 @@
         <v>959.2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="21">
         <v>2</v>
       </c>
@@ -15897,7 +15786,7 @@
       <c r="F381" s="21">
         <v>380</v>
       </c>
-      <c r="G381" s="21">
+      <c r="G381" s="23">
         <v>989.2</v>
       </c>
       <c r="H381" s="21">
@@ -15910,7 +15799,7 @@
         <v>989.1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="21">
         <v>2</v>
       </c>
@@ -15929,7 +15818,7 @@
       <c r="F382" s="21">
         <v>381</v>
       </c>
-      <c r="G382" s="21">
+      <c r="G382" s="23">
         <v>985.7</v>
       </c>
       <c r="H382" s="21">
@@ -15942,7 +15831,7 @@
         <v>985.7</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="21">
         <v>2</v>
       </c>
@@ -15961,7 +15850,7 @@
       <c r="F383" s="21">
         <v>382</v>
       </c>
-      <c r="G383" s="21">
+      <c r="G383" s="23">
         <v>849.1</v>
       </c>
       <c r="H383" s="21">
@@ -15974,7 +15863,7 @@
         <v>849.1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="21">
         <v>2</v>
       </c>
@@ -15993,7 +15882,7 @@
       <c r="F384" s="21">
         <v>383</v>
       </c>
-      <c r="G384" s="21">
+      <c r="G384" s="23">
         <v>839.3</v>
       </c>
       <c r="H384" s="21">
@@ -16006,7 +15895,7 @@
         <v>839.2</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="21">
         <v>2</v>
       </c>
@@ -16025,7 +15914,7 @@
       <c r="F385" s="21">
         <v>384</v>
       </c>
-      <c r="G385" s="21">
+      <c r="G385" s="23">
         <v>869.5</v>
       </c>
       <c r="H385" s="21">
@@ -16038,7 +15927,7 @@
         <v>869.4</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="21">
         <v>2</v>
       </c>
@@ -16057,7 +15946,7 @@
       <c r="F386" s="21">
         <v>385</v>
       </c>
-      <c r="G386" s="21">
+      <c r="G386" s="23">
         <v>841.6</v>
       </c>
       <c r="H386" s="21">
@@ -16070,7 +15959,7 @@
         <v>841.5</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="21">
         <v>2</v>
       </c>
@@ -16089,7 +15978,7 @@
       <c r="F387" s="21">
         <v>386</v>
       </c>
-      <c r="G387" s="21">
+      <c r="G387" s="23">
         <v>849.8</v>
       </c>
       <c r="H387" s="21">
@@ -16102,7 +15991,7 @@
         <v>849.7</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="21">
         <v>2</v>
       </c>
@@ -16121,7 +16010,7 @@
       <c r="F388" s="21">
         <v>387</v>
       </c>
-      <c r="G388" s="21">
+      <c r="G388" s="23">
         <v>844.6</v>
       </c>
       <c r="H388" s="21">
@@ -16134,7 +16023,7 @@
         <v>844.5</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="21">
         <v>2</v>
       </c>
@@ -16153,7 +16042,7 @@
       <c r="F389" s="21">
         <v>388</v>
       </c>
-      <c r="G389" s="21">
+      <c r="G389" s="23">
         <v>836.4</v>
       </c>
       <c r="H389" s="21">
@@ -16166,7 +16055,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="21">
         <v>2</v>
       </c>
@@ -16185,7 +16074,7 @@
       <c r="F390" s="21">
         <v>389</v>
       </c>
-      <c r="G390" s="21">
+      <c r="G390" s="23">
         <v>850.2</v>
       </c>
       <c r="H390" s="21">
@@ -16198,7 +16087,7 @@
         <v>850.2</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="21">
         <v>2</v>
       </c>
@@ -16217,7 +16106,7 @@
       <c r="F391" s="21">
         <v>390</v>
       </c>
-      <c r="G391" s="21">
+      <c r="G391" s="23">
         <v>861.3</v>
       </c>
       <c r="H391" s="21">
@@ -16230,7 +16119,7 @@
         <v>861.2</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="21">
         <v>2</v>
       </c>
@@ -16249,7 +16138,7 @@
       <c r="F392" s="21">
         <v>391</v>
       </c>
-      <c r="G392" s="21">
+      <c r="G392" s="23">
         <v>822.9</v>
       </c>
       <c r="H392" s="21">
@@ -16262,7 +16151,7 @@
         <v>822.8</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="21">
         <v>2</v>
       </c>
@@ -16281,7 +16170,7 @@
       <c r="F393" s="21">
         <v>392</v>
       </c>
-      <c r="G393" s="21">
+      <c r="G393" s="23">
         <v>839.4</v>
       </c>
       <c r="H393" s="21">
@@ -16294,10 +16183,10 @@
         <v>839.3</v>
       </c>
       <c r="K393" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="21">
         <v>2</v>
       </c>
@@ -16316,7 +16205,7 @@
       <c r="F394" s="21">
         <v>393</v>
       </c>
-      <c r="G394" s="21">
+      <c r="G394" s="23">
         <v>836.3</v>
       </c>
       <c r="H394" s="21">
@@ -16329,7 +16218,7 @@
         <v>836.2</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="21">
         <v>2</v>
       </c>
@@ -16345,11 +16234,11 @@
       <c r="F395" s="21">
         <v>394</v>
       </c>
-      <c r="G395" s="21">
+      <c r="G395" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="21">
         <v>2</v>
       </c>
@@ -16365,16 +16254,16 @@
       <c r="F396" s="21">
         <v>395</v>
       </c>
-      <c r="G396" s="21">
+      <c r="G396" s="23">
         <v>826.9</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="21">
         <v>2</v>
       </c>
       <c r="B397" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C397" s="21">
         <v>6022017</v>
@@ -16385,11 +16274,11 @@
       <c r="F397" s="21">
         <v>396</v>
       </c>
-      <c r="G397" s="21">
+      <c r="G397" s="23">
         <v>405.95</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="21">
         <v>2</v>
       </c>
@@ -16408,7 +16297,7 @@
       <c r="F398" s="21">
         <v>397</v>
       </c>
-      <c r="G398" s="21">
+      <c r="G398" s="23">
         <v>822.8</v>
       </c>
       <c r="H398" s="21">
@@ -16421,10 +16310,10 @@
         <v>822.6</v>
       </c>
       <c r="K398" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="21">
         <v>2</v>
       </c>
@@ -16443,7 +16332,7 @@
       <c r="F399" s="21">
         <v>398</v>
       </c>
-      <c r="G399" s="21">
+      <c r="G399" s="23">
         <v>839.3</v>
       </c>
       <c r="H399" s="21">
@@ -16456,7 +16345,7 @@
         <v>839.1</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="21">
         <v>2</v>
       </c>
@@ -16475,7 +16364,7 @@
       <c r="F400" s="21">
         <v>399</v>
       </c>
-      <c r="G400" s="21">
+      <c r="G400" s="23">
         <v>836.2</v>
       </c>
       <c r="H400" s="21">
@@ -16488,7 +16377,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="21">
         <v>2</v>
       </c>
@@ -16507,7 +16396,7 @@
       <c r="F401" s="21">
         <v>400</v>
       </c>
-      <c r="G401" s="21">
+      <c r="G401" s="23">
         <v>841.5</v>
       </c>
       <c r="H401" s="21">
@@ -16520,7 +16409,7 @@
         <v>841.4</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="21">
         <v>2</v>
       </c>
@@ -16539,7 +16428,7 @@
       <c r="F402" s="21">
         <v>401</v>
       </c>
-      <c r="G402" s="21">
+      <c r="G402" s="23">
         <v>849.7</v>
       </c>
       <c r="H402" s="21">
@@ -16552,7 +16441,7 @@
         <v>849.5</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="21">
         <v>2</v>
       </c>
@@ -16571,7 +16460,7 @@
       <c r="F403" s="21">
         <v>402</v>
       </c>
-      <c r="G403" s="21">
+      <c r="G403" s="23">
         <v>844.5</v>
       </c>
       <c r="H403" s="21">
@@ -16584,7 +16473,7 @@
         <v>844.3</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="21">
         <v>2</v>
       </c>
@@ -16603,7 +16492,7 @@
       <c r="F404" s="21">
         <v>403</v>
       </c>
-      <c r="G404" s="21">
+      <c r="G404" s="23">
         <v>959.1</v>
       </c>
       <c r="H404" s="21">
@@ -16616,7 +16505,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="21">
         <v>2</v>
       </c>
@@ -16635,7 +16524,7 @@
       <c r="F405" s="21">
         <v>404</v>
       </c>
-      <c r="G405" s="21">
+      <c r="G405" s="23">
         <v>989.1</v>
       </c>
       <c r="H405" s="21">
@@ -16648,7 +16537,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="21">
         <v>2</v>
       </c>
@@ -16667,7 +16556,7 @@
       <c r="F406" s="21">
         <v>405</v>
       </c>
-      <c r="G406" s="21">
+      <c r="G406" s="23">
         <v>985.6</v>
       </c>
       <c r="H406" s="21">
@@ -16680,7 +16569,7 @@
         <v>985.5</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="21">
         <v>2</v>
       </c>
@@ -16699,7 +16588,7 @@
       <c r="F407" s="21">
         <v>406</v>
       </c>
-      <c r="G407" s="21">
+      <c r="G407" s="23">
         <v>946.8</v>
       </c>
       <c r="H407" s="21">
@@ -16712,7 +16601,7 @@
         <v>946.5</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="21">
         <v>2</v>
       </c>
@@ -16731,7 +16620,7 @@
       <c r="F408" s="21">
         <v>407</v>
       </c>
-      <c r="G408" s="21">
+      <c r="G408" s="23">
         <v>854</v>
       </c>
       <c r="H408" s="21">
@@ -16744,10 +16633,10 @@
         <v>854</v>
       </c>
       <c r="K408" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="21">
         <v>2</v>
       </c>
@@ -16766,7 +16655,7 @@
       <c r="F409" s="21">
         <v>408</v>
       </c>
-      <c r="G409" s="21">
+      <c r="G409" s="23">
         <v>843.8</v>
       </c>
       <c r="H409" s="21">
@@ -16779,10 +16668,10 @@
         <v>843.7</v>
       </c>
       <c r="K409" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="21">
         <v>2</v>
       </c>
@@ -16801,7 +16690,7 @@
       <c r="F410" s="21">
         <v>409</v>
       </c>
-      <c r="G410" s="21">
+      <c r="G410" s="23">
         <v>836.3</v>
       </c>
       <c r="H410" s="21">
@@ -16814,7 +16703,7 @@
         <v>836.2</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="21">
         <v>2</v>
       </c>
@@ -16833,7 +16722,7 @@
       <c r="F411" s="21">
         <v>410</v>
       </c>
-      <c r="G411" s="21">
+      <c r="G411" s="23">
         <v>850.1</v>
       </c>
       <c r="H411" s="21">
@@ -16846,7 +16735,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="21">
         <v>2</v>
       </c>
@@ -16865,7 +16754,7 @@
       <c r="F412" s="21">
         <v>411</v>
       </c>
-      <c r="G412" s="21">
+      <c r="G412" s="23">
         <v>861.2</v>
       </c>
       <c r="H412" s="21">
@@ -16878,7 +16767,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="21">
         <v>2</v>
       </c>
@@ -16897,7 +16786,7 @@
       <c r="F413" s="21">
         <v>412</v>
       </c>
-      <c r="G413" s="21">
+      <c r="G413" s="23">
         <v>849.1</v>
       </c>
       <c r="H413" s="21">
@@ -16910,7 +16799,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="21">
         <v>2</v>
       </c>
@@ -16929,7 +16818,7 @@
       <c r="F414" s="21">
         <v>413</v>
       </c>
-      <c r="G414" s="21">
+      <c r="G414" s="23">
         <v>839.2</v>
       </c>
       <c r="H414" s="21">
@@ -16942,7 +16831,7 @@
         <v>839.1</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="21">
         <v>2</v>
       </c>
@@ -16961,7 +16850,7 @@
       <c r="F415" s="21">
         <v>414</v>
       </c>
-      <c r="G415" s="21">
+      <c r="G415" s="23">
         <v>869.4</v>
       </c>
       <c r="H415" s="21">
@@ -16974,7 +16863,7 @@
         <v>869.3</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="21">
         <v>2</v>
       </c>
@@ -16993,7 +16882,7 @@
       <c r="F416" s="21">
         <v>415</v>
       </c>
-      <c r="G416" s="21">
+      <c r="G416" s="23">
         <v>1034.3</v>
       </c>
       <c r="H416" s="21">
@@ -17006,10 +16895,10 @@
         <v>1034.0999999999999</v>
       </c>
       <c r="K416" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="21">
         <v>2</v>
       </c>
@@ -17028,7 +16917,7 @@
       <c r="F417" s="21">
         <v>416</v>
       </c>
-      <c r="G417" s="21">
+      <c r="G417" s="23">
         <v>1018.5</v>
       </c>
       <c r="H417" s="21">
@@ -17041,7 +16930,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="21">
         <v>2</v>
       </c>
@@ -17060,7 +16949,7 @@
       <c r="F418" s="21">
         <v>417</v>
       </c>
-      <c r="G418" s="21">
+      <c r="G418" s="23">
         <v>1046.2</v>
       </c>
       <c r="H418" s="21">
@@ -17073,10 +16962,10 @@
         <v>1045.9000000000001</v>
       </c>
       <c r="K418" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="21">
         <v>2</v>
       </c>
@@ -17092,11 +16981,11 @@
       <c r="F419" s="21">
         <v>418</v>
       </c>
-      <c r="G419" s="21">
+      <c r="G419" s="23">
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="21">
         <v>2</v>
       </c>
@@ -17112,16 +17001,16 @@
       <c r="F420" s="21">
         <v>419</v>
       </c>
-      <c r="G420" s="21">
+      <c r="G420" s="23">
         <v>826.9</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="21">
         <v>2</v>
       </c>
       <c r="B421" s="21" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C421" s="21">
         <v>17022017</v>
@@ -17132,7 +17021,7 @@
       <c r="F421" s="21">
         <v>420</v>
       </c>
-      <c r="G421" s="21">
+      <c r="G421" s="23">
         <v>405.95</v>
       </c>
     </row>
@@ -17145,216 +17034,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1"/>
-    <col min="4" max="4" width="49.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="11.46875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.87890625" style="1"/>
+    <col min="4" max="4" width="49.87890625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
     </row>
   </sheetData>

--- a/experiments/IISBMP1/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP1/data/biogas_and_setup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au594831\Dropbox\GD-BMP-GH\experiments\IISBMP1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au521230\Documents\GitHub\GD-BMP\experiments\IISBMP1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="154">
   <si>
     <t>Experiment</t>
   </si>
@@ -494,6 +494,30 @@
   <si>
     <t>Copy out and paste in mass.init into new column to fix numeric/character issue</t>
   </si>
+  <si>
+    <t>Description 1</t>
+  </si>
+  <si>
+    <t>FIC</t>
+  </si>
+  <si>
+    <t>FIA</t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>19 March 2019</t>
+  </si>
+  <si>
+    <t>CGJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new descrip column with FIA, etc. </t>
+  </si>
+  <si>
+    <t>descrip1</t>
+  </si>
 </sst>
 </file>
 
@@ -779,7 +803,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1086,32 +1110,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI45"/>
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.87890625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.87890625" style="5"/>
-    <col min="6" max="6" width="11.234375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.1171875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.87890625" style="5" customWidth="1"/>
-    <col min="9" max="11" width="9.87890625" style="5"/>
-    <col min="12" max="12" width="11.87890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.87890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.46875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.46875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.87890625" style="5"/>
-    <col min="19" max="19" width="10.87890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.87890625" style="6"/>
-    <col min="21" max="1023" width="9.87890625" style="5"/>
-    <col min="1024" max="16384" width="9.87890625" style="1"/>
+    <col min="1" max="6" width="9.875" style="5"/>
+    <col min="7" max="7" width="11.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="5" customWidth="1"/>
+    <col min="10" max="12" width="9.875" style="5"/>
+    <col min="13" max="13" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" style="5"/>
+    <col min="20" max="20" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.875" style="6"/>
+    <col min="22" max="1024" width="9.875" style="5"/>
+    <col min="1025" max="16384" width="9.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1119,61 +1143,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1184,58 +1211,61 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1245,55 +1275,58 @@
       <c r="C3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="5">
         <v>537.16999999999996</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>497.22</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>1036.4000000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>1036.5</v>
       </c>
-      <c r="J3" s="7">
-        <f>AVERAGE(Setup!H3:I3)</f>
+      <c r="K3" s="7">
+        <f>AVERAGE(Setup!I3:J3)</f>
         <v>1036.45</v>
       </c>
-      <c r="K3" s="8">
-        <f>1000*STDEV(Setup!H3:I3)</f>
+      <c r="L3" s="8">
+        <f>1000*STDEV(Setup!I3:J3)</f>
         <v>70.710678118590437</v>
       </c>
-      <c r="L3" s="8">
-        <f>Setup!J3-(Setup!E3+Setup!F3+Setup!G3)</f>
+      <c r="M3" s="8">
+        <f>Setup!K3-(Setup!F3+Setup!G3+Setup!H3)</f>
         <v>2.0600000000001728</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="3">
+      <c r="N3" s="9"/>
+      <c r="O3" s="3">
         <v>18.28</v>
       </c>
-      <c r="O3" s="10">
-        <f>Setup!M3*Setup!G3/1000</f>
+      <c r="P3" s="10">
+        <f>Setup!N3*Setup!H3/1000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="7">
-        <f>Setup!F3*Setup!N3/1000</f>
+      <c r="Q3" s="7">
+        <f>Setup!G3*Setup!O3/1000</f>
         <v>9.0891816000000016</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="5">
+      <c r="R3" s="8"/>
+      <c r="S3" s="5">
         <v>1120</v>
       </c>
-      <c r="S3" s="8">
-        <f>Setup!R3-Setup!F3-Setup!G3-2+5</f>
+      <c r="T3" s="8">
+        <f>Setup!S3-Setup!G3-Setup!H3-2+5</f>
         <v>625.78</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1303,55 +1336,58 @@
       <c r="C4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="5">
+      <c r="D4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="5">
         <v>540.07000000000005</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>490.17</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1032.2</v>
       </c>
       <c r="I4" s="5">
         <v>1032.2</v>
       </c>
-      <c r="J4" s="7">
-        <f>AVERAGE(Setup!H4:I4)</f>
+      <c r="J4" s="5">
         <v>1032.2</v>
       </c>
-      <c r="K4" s="8">
-        <f>1000*STDEV(Setup!H4:I4)</f>
+      <c r="K4" s="7">
+        <f>AVERAGE(Setup!I4:J4)</f>
+        <v>1032.2</v>
+      </c>
+      <c r="L4" s="8">
+        <f>1000*STDEV(Setup!I4:J4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="8">
-        <f>Setup!J4-(Setup!E4+Setup!F4+Setup!G4)</f>
+      <c r="M4" s="8">
+        <f>Setup!K4-(Setup!F4+Setup!G4+Setup!H4)</f>
         <v>1.9600000000000364</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="3">
+      <c r="N4" s="9"/>
+      <c r="O4" s="3">
         <v>18.28</v>
       </c>
-      <c r="O4" s="10">
-        <f>Setup!M4*Setup!G4/1000</f>
+      <c r="P4" s="10">
+        <f>Setup!N4*Setup!H4/1000</f>
         <v>0</v>
       </c>
-      <c r="P4" s="7">
-        <f>Setup!F4*Setup!N4/1000</f>
+      <c r="Q4" s="7">
+        <f>Setup!G4*Setup!O4/1000</f>
         <v>8.9603076000000001</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="5">
+      <c r="R4" s="8"/>
+      <c r="S4" s="5">
         <v>1120</v>
       </c>
-      <c r="S4" s="8">
-        <f>Setup!R4-Setup!F4-Setup!G4-2+5</f>
+      <c r="T4" s="8">
+        <f>Setup!S4-Setup!G4-Setup!H4-2+5</f>
         <v>632.82999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1361,55 +1397,58 @@
       <c r="C5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="5">
         <v>537.28</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>538.96</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1078.3</v>
       </c>
       <c r="I5" s="5">
         <v>1078.3</v>
       </c>
-      <c r="J5" s="7">
-        <f>AVERAGE(Setup!H5:I5)</f>
+      <c r="J5" s="5">
         <v>1078.3</v>
       </c>
-      <c r="K5" s="8">
-        <f>1000*STDEV(Setup!H5:I5)</f>
+      <c r="K5" s="7">
+        <f>AVERAGE(Setup!I5:J5)</f>
+        <v>1078.3</v>
+      </c>
+      <c r="L5" s="8">
+        <f>1000*STDEV(Setup!I5:J5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="8">
-        <f>Setup!J5-(Setup!E5+Setup!F5+Setup!G5)</f>
+      <c r="M5" s="8">
+        <f>Setup!K5-(Setup!F5+Setup!G5+Setup!H5)</f>
         <v>2.0599999999999454</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="3">
+      <c r="N5" s="9"/>
+      <c r="O5" s="3">
         <v>18.28</v>
       </c>
-      <c r="O5" s="10">
-        <f>Setup!M5*Setup!G5/1000</f>
+      <c r="P5" s="10">
+        <f>Setup!N5*Setup!H5/1000</f>
         <v>0</v>
       </c>
-      <c r="P5" s="7">
-        <f>Setup!F5*Setup!N5/1000</f>
+      <c r="Q5" s="7">
+        <f>Setup!G5*Setup!O5/1000</f>
         <v>9.8521888000000022</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="5">
+      <c r="R5" s="8"/>
+      <c r="S5" s="5">
         <v>1120</v>
       </c>
-      <c r="S5" s="8">
-        <f>Setup!R5-Setup!F5-Setup!G5-2+5</f>
+      <c r="T5" s="8">
+        <f>Setup!S5-Setup!G5-Setup!H5-2+5</f>
         <v>584.04</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1419,55 +1458,58 @@
       <c r="C6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="5">
         <v>537.74</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>507.37</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1046.8</v>
       </c>
       <c r="I6" s="5">
         <v>1046.8</v>
       </c>
-      <c r="J6" s="7">
-        <f>AVERAGE(Setup!H6:I6)</f>
+      <c r="J6" s="5">
         <v>1046.8</v>
       </c>
-      <c r="K6" s="8">
-        <f>1000*STDEV(Setup!H6:I6)</f>
+      <c r="K6" s="7">
+        <f>AVERAGE(Setup!I6:J6)</f>
+        <v>1046.8</v>
+      </c>
+      <c r="L6" s="8">
+        <f>1000*STDEV(Setup!I6:J6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="8">
-        <f>Setup!J6-(Setup!E6+Setup!F6+Setup!G6)</f>
+      <c r="M6" s="8">
+        <f>Setup!K6-(Setup!F6+Setup!G6+Setup!H6)</f>
         <v>1.6899999999998272</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="3">
+      <c r="N6" s="9"/>
+      <c r="O6" s="3">
         <v>18.28</v>
       </c>
-      <c r="O6" s="10">
-        <f>Setup!M6*Setup!G6/1000</f>
+      <c r="P6" s="10">
+        <f>Setup!N6*Setup!H6/1000</f>
         <v>0</v>
       </c>
-      <c r="P6" s="7">
-        <f>Setup!F6*Setup!N6/1000</f>
+      <c r="Q6" s="7">
+        <f>Setup!G6*Setup!O6/1000</f>
         <v>9.2747236000000015</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="5">
+      <c r="R6" s="8"/>
+      <c r="S6" s="5">
         <v>1120</v>
       </c>
-      <c r="S6" s="8">
-        <f>Setup!R6-Setup!F6-Setup!G6-2+5</f>
+      <c r="T6" s="8">
+        <f>Setup!S6-Setup!G6-Setup!H6-2+5</f>
         <v>615.63</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1480,60 +1522,63 @@
       <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5">
         <v>541.54999999999995</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>492</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>2.4300000000000002</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1038</v>
       </c>
       <c r="I7" s="5">
         <v>1038</v>
       </c>
-      <c r="J7" s="7">
-        <f>AVERAGE(Setup!H7:I7)</f>
+      <c r="J7" s="5">
         <v>1038</v>
       </c>
-      <c r="K7" s="8">
-        <f>1000*STDEV(Setup!H7:I7)</f>
+      <c r="K7" s="7">
+        <f>AVERAGE(Setup!I7:J7)</f>
+        <v>1038</v>
+      </c>
+      <c r="L7" s="8">
+        <f>1000*STDEV(Setup!I7:J7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="8">
-        <f>Setup!J7-(Setup!E7+Setup!F7+Setup!G7)</f>
+      <c r="M7" s="8">
+        <f>Setup!K7-(Setup!F7+Setup!G7+Setup!H7)</f>
         <v>2.0199999999999818</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>945.69</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>18.28</v>
       </c>
-      <c r="O7" s="10">
-        <f>Setup!M7*Setup!G7/1000</f>
+      <c r="P7" s="10">
+        <f>Setup!N7*Setup!H7/1000</f>
         <v>2.2980267000000003</v>
       </c>
-      <c r="P7" s="7">
-        <f>Setup!F7*Setup!N7/1000</f>
+      <c r="Q7" s="7">
+        <f>Setup!G7*Setup!O7/1000</f>
         <v>8.99376</v>
       </c>
-      <c r="Q7" s="8">
-        <f>Setup!P7/Setup!O7</f>
+      <c r="R7" s="8">
+        <f>Setup!Q7/Setup!P7</f>
         <v>3.913688209105664</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>1120</v>
       </c>
-      <c r="S7" s="8">
-        <f>Setup!R7-Setup!F7-Setup!G7-2+5</f>
+      <c r="T7" s="8">
+        <f>Setup!S7-Setup!G7-Setup!H7-2+5</f>
         <v>628.57000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1546,60 +1591,63 @@
       <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5">
         <v>537.27</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>487.01</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>2.34</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1028.5999999999999</v>
       </c>
       <c r="I8" s="5">
         <v>1028.5999999999999</v>
       </c>
-      <c r="J8" s="7">
-        <f>AVERAGE(Setup!H8:I8)</f>
+      <c r="J8" s="5">
         <v>1028.5999999999999</v>
       </c>
-      <c r="K8" s="8">
-        <f>1000*STDEV(Setup!H8:I8)</f>
+      <c r="K8" s="7">
+        <f>AVERAGE(Setup!I8:J8)</f>
+        <v>1028.5999999999999</v>
+      </c>
+      <c r="L8" s="8">
+        <f>1000*STDEV(Setup!I8:J8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="8">
-        <f>Setup!J8-(Setup!E8+Setup!F8+Setup!G8)</f>
+      <c r="M8" s="8">
+        <f>Setup!K8-(Setup!F8+Setup!G8+Setup!H8)</f>
         <v>1.9800000000000182</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>945.69</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18.28</v>
       </c>
-      <c r="O8" s="10">
-        <f>Setup!M8*Setup!G8/1000</f>
+      <c r="P8" s="10">
+        <f>Setup!N8*Setup!H8/1000</f>
         <v>2.2129146</v>
       </c>
-      <c r="P8" s="7">
-        <f>Setup!F8*Setup!N8/1000</f>
+      <c r="Q8" s="7">
+        <f>Setup!G8*Setup!O8/1000</f>
         <v>8.9025428000000009</v>
       </c>
-      <c r="Q8" s="8">
-        <f>Setup!P8/Setup!O8</f>
+      <c r="R8" s="8">
+        <f>Setup!Q8/Setup!P8</f>
         <v>4.0229942899739557</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>1120</v>
       </c>
-      <c r="S8" s="8">
-        <f>Setup!R8-Setup!F8-Setup!G8-2+5</f>
+      <c r="T8" s="8">
+        <f>Setup!S8-Setup!G8-Setup!H8-2+5</f>
         <v>633.65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1612,60 +1660,63 @@
       <c r="D9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5">
         <v>540.13</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>510.27</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>2.37</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1054.5999999999999</v>
       </c>
       <c r="I9" s="5">
         <v>1054.5999999999999</v>
       </c>
-      <c r="J9" s="7">
-        <f>AVERAGE(Setup!H9:I9)</f>
+      <c r="J9" s="5">
         <v>1054.5999999999999</v>
       </c>
-      <c r="K9" s="8">
-        <f>1000*STDEV(Setup!H9:I9)</f>
+      <c r="K9" s="7">
+        <f>AVERAGE(Setup!I9:J9)</f>
+        <v>1054.5999999999999</v>
+      </c>
+      <c r="L9" s="8">
+        <f>1000*STDEV(Setup!I9:J9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="8">
-        <f>Setup!J9-(Setup!E9+Setup!F9+Setup!G9)</f>
+      <c r="M9" s="8">
+        <f>Setup!K9-(Setup!F9+Setup!G9+Setup!H9)</f>
         <v>1.8299999999999272</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>945.69</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18.28</v>
       </c>
-      <c r="O9" s="10">
-        <f>Setup!M9*Setup!G9/1000</f>
+      <c r="P9" s="10">
+        <f>Setup!N9*Setup!H9/1000</f>
         <v>2.2412852999999999</v>
       </c>
-      <c r="P9" s="7">
-        <f>Setup!F9*Setup!N9/1000</f>
+      <c r="Q9" s="7">
+        <f>Setup!G9*Setup!O9/1000</f>
         <v>9.3277356000000005</v>
       </c>
-      <c r="Q9" s="8">
-        <f>Setup!P9/Setup!O9</f>
+      <c r="R9" s="8">
+        <f>Setup!Q9/Setup!P9</f>
         <v>4.1617796716910611</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>1120</v>
       </c>
-      <c r="S9" s="8">
-        <f>Setup!R9-Setup!F9-Setup!G9-2+5</f>
+      <c r="T9" s="8">
+        <f>Setup!S9-Setup!G9-Setup!H9-2+5</f>
         <v>610.36</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1673,65 +1724,68 @@
         <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5">
         <v>534.77</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>484.04</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>3.06</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1023.9</v>
       </c>
       <c r="I10" s="5">
         <v>1023.9</v>
       </c>
-      <c r="J10" s="7">
-        <f>AVERAGE(Setup!H10:I10)</f>
+      <c r="J10" s="5">
         <v>1023.9</v>
       </c>
-      <c r="K10" s="8">
-        <f>1000*STDEV(Setup!H10:I10)</f>
+      <c r="K10" s="7">
+        <f>AVERAGE(Setup!I10:J10)</f>
+        <v>1023.9</v>
+      </c>
+      <c r="L10" s="8">
+        <f>1000*STDEV(Setup!I10:J10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="8">
-        <f>Setup!J10-(Setup!E10+Setup!F10+Setup!G10)</f>
+      <c r="M10" s="8">
+        <f>Setup!K10-(Setup!F10+Setup!G10+Setup!H10)</f>
         <v>2.0300000000000864</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>799.27</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18.28</v>
       </c>
-      <c r="O10" s="10">
-        <f>Setup!M10*Setup!G10/1000</f>
+      <c r="P10" s="10">
+        <f>Setup!N10*Setup!H10/1000</f>
         <v>2.4457662</v>
       </c>
-      <c r="P10" s="7">
-        <f>Setup!F10*Setup!N10/1000</f>
+      <c r="Q10" s="7">
+        <f>Setup!G10*Setup!O10/1000</f>
         <v>8.8482512</v>
       </c>
-      <c r="Q10" s="8">
-        <f>Setup!P10/Setup!O10</f>
+      <c r="R10" s="8">
+        <f>Setup!Q10/Setup!P10</f>
         <v>3.6177829262666235</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>1120</v>
       </c>
-      <c r="S10" s="8">
-        <f>Setup!R10-Setup!F10-Setup!G10-2+5</f>
+      <c r="T10" s="8">
+        <f>Setup!S10-Setup!G10-Setup!H10-2+5</f>
         <v>635.90000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1739,65 +1793,68 @@
         <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5">
         <v>539.03</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>493.82</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>2.84</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1037.9000000000001</v>
       </c>
       <c r="I11" s="5">
         <v>1037.9000000000001</v>
       </c>
-      <c r="J11" s="7">
-        <f>AVERAGE(Setup!H11:I11)</f>
+      <c r="J11" s="5">
         <v>1037.9000000000001</v>
       </c>
-      <c r="K11" s="8">
-        <f>1000*STDEV(Setup!H11:I11)</f>
+      <c r="K11" s="7">
+        <f>AVERAGE(Setup!I11:J11)</f>
+        <v>1037.9000000000001</v>
+      </c>
+      <c r="L11" s="8">
+        <f>1000*STDEV(Setup!I11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="8">
-        <f>Setup!J11-(Setup!E11+Setup!F11+Setup!G11)</f>
+      <c r="M11" s="8">
+        <f>Setup!K11-(Setup!F11+Setup!G11+Setup!H11)</f>
         <v>2.2100000000002638</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>799.27</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>18.28</v>
       </c>
-      <c r="O11" s="10">
-        <f>Setup!M11*Setup!G11/1000</f>
+      <c r="P11" s="10">
+        <f>Setup!N11*Setup!H11/1000</f>
         <v>2.2699267999999999</v>
       </c>
-      <c r="P11" s="7">
-        <f>Setup!F11*Setup!N11/1000</f>
+      <c r="Q11" s="7">
+        <f>Setup!G11*Setup!O11/1000</f>
         <v>9.0270296000000005</v>
       </c>
-      <c r="Q11" s="8">
-        <f>Setup!P11/Setup!O11</f>
+      <c r="R11" s="8">
+        <f>Setup!Q11/Setup!P11</f>
         <v>3.9767932604698975</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>1120</v>
       </c>
-      <c r="S11" s="8">
-        <f>Setup!R11-Setup!F11-Setup!G11-2+5</f>
+      <c r="T11" s="8">
+        <f>Setup!S11-Setup!G11-Setup!H11-2+5</f>
         <v>626.34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -1805,65 +1862,68 @@
         <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5">
         <v>544.16</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>508.58</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>2.9</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1057.5999999999999</v>
       </c>
       <c r="I12" s="5">
         <v>1057.5999999999999</v>
       </c>
-      <c r="J12" s="7">
-        <f>AVERAGE(Setup!H12:I12)</f>
+      <c r="J12" s="5">
         <v>1057.5999999999999</v>
       </c>
-      <c r="K12" s="8">
-        <f>1000*STDEV(Setup!H12:I12)</f>
+      <c r="K12" s="7">
+        <f>AVERAGE(Setup!I12:J12)</f>
+        <v>1057.5999999999999</v>
+      </c>
+      <c r="L12" s="8">
+        <f>1000*STDEV(Setup!I12:J12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="8">
-        <f>Setup!J12-(Setup!E12+Setup!F12+Setup!G12)</f>
+      <c r="M12" s="8">
+        <f>Setup!K12-(Setup!F12+Setup!G12+Setup!H12)</f>
         <v>1.959999999999809</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>799.27</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18.28</v>
       </c>
-      <c r="O12" s="10">
-        <f>Setup!M12*Setup!G12/1000</f>
+      <c r="P12" s="10">
+        <f>Setup!N12*Setup!H12/1000</f>
         <v>2.3178829999999997</v>
       </c>
-      <c r="P12" s="7">
-        <f>Setup!F12*Setup!N12/1000</f>
+      <c r="Q12" s="7">
+        <f>Setup!G12*Setup!O12/1000</f>
         <v>9.2968423999999992</v>
       </c>
-      <c r="Q12" s="8">
-        <f>Setup!P12/Setup!O12</f>
+      <c r="R12" s="8">
+        <f>Setup!Q12/Setup!P12</f>
         <v>4.0109196193250485</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>1120</v>
       </c>
-      <c r="S12" s="8">
-        <f>Setup!R12-Setup!F12-Setup!G12-2+5</f>
+      <c r="T12" s="8">
+        <f>Setup!S12-Setup!G12-Setup!H12-2+5</f>
         <v>611.5200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -1876,60 +1936,63 @@
       <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5">
         <v>541.44000000000005</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>520.23</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>2.36</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1065.9000000000001</v>
       </c>
       <c r="I13" s="5">
         <v>1065.9000000000001</v>
       </c>
-      <c r="J13" s="7">
-        <f>AVERAGE(Setup!H13:I13)</f>
+      <c r="J13" s="5">
         <v>1065.9000000000001</v>
       </c>
-      <c r="K13" s="8">
-        <f>1000*STDEV(Setup!H13:I13)</f>
+      <c r="K13" s="7">
+        <f>AVERAGE(Setup!I13:J13)</f>
+        <v>1065.9000000000001</v>
+      </c>
+      <c r="L13" s="8">
+        <f>1000*STDEV(Setup!I13:J13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="8">
-        <f>Setup!J13-(Setup!E13+Setup!F13+Setup!G13)</f>
+      <c r="M13" s="8">
+        <f>Setup!K13-(Setup!F13+Setup!G13+Setup!H13)</f>
         <v>1.8700000000001182</v>
       </c>
-      <c r="M13" s="9">
+      <c r="N13" s="9">
         <v>1000</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>18.28</v>
       </c>
-      <c r="O13" s="10">
-        <f>Setup!M13*Setup!G13/1000</f>
+      <c r="P13" s="10">
+        <f>Setup!N13*Setup!H13/1000</f>
         <v>2.36</v>
       </c>
-      <c r="P13" s="7">
-        <f>Setup!F13*Setup!N13/1000</f>
+      <c r="Q13" s="7">
+        <f>Setup!G13*Setup!O13/1000</f>
         <v>9.5098044000000002</v>
       </c>
-      <c r="Q13" s="8">
-        <f>Setup!P13/Setup!O13</f>
+      <c r="R13" s="8">
+        <f>Setup!Q13/Setup!P13</f>
         <v>4.029578135593221</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>1120</v>
       </c>
-      <c r="S13" s="8">
-        <f>Setup!R13-Setup!F13-Setup!G13-2+5</f>
+      <c r="T13" s="8">
+        <f>Setup!S13-Setup!G13-Setup!H13-2+5</f>
         <v>600.41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -1942,60 +2005,63 @@
       <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="5">
         <v>539.08000000000004</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>512</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>2.78</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>1055.9000000000001</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>1055.8</v>
       </c>
-      <c r="J14" s="7">
-        <f>AVERAGE(Setup!H14:I14)</f>
+      <c r="K14" s="7">
+        <f>AVERAGE(Setup!I14:J14)</f>
         <v>1055.8499999999999</v>
       </c>
-      <c r="K14" s="8">
-        <f>1000*STDEV(Setup!H14:I14)</f>
+      <c r="L14" s="8">
+        <f>1000*STDEV(Setup!I14:J14)</f>
         <v>70.710678118751218</v>
       </c>
-      <c r="L14" s="8">
-        <f>Setup!J14-(Setup!E14+Setup!F14+Setup!G14)</f>
+      <c r="M14" s="8">
+        <f>Setup!K14-(Setup!F14+Setup!G14+Setup!H14)</f>
         <v>1.9900000000000091</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="9">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18.28</v>
       </c>
-      <c r="O14" s="10">
-        <f>Setup!M14*Setup!G14/1000</f>
+      <c r="P14" s="10">
+        <f>Setup!N14*Setup!H14/1000</f>
         <v>2.78</v>
       </c>
-      <c r="P14" s="7">
-        <f>Setup!F14*Setup!N14/1000</f>
+      <c r="Q14" s="7">
+        <f>Setup!G14*Setup!O14/1000</f>
         <v>9.3593600000000006</v>
       </c>
-      <c r="Q14" s="8">
-        <f>Setup!P14/Setup!O14</f>
+      <c r="R14" s="8">
+        <f>Setup!Q14/Setup!P14</f>
         <v>3.3666762589928063</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>1120</v>
       </c>
-      <c r="S14" s="8">
-        <f>Setup!R14-Setup!F14-Setup!G14-2+5</f>
+      <c r="T14" s="8">
+        <f>Setup!S14-Setup!G14-Setup!H14-2+5</f>
         <v>608.22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2008,60 +2074,63 @@
       <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5">
         <v>541.73</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>499.52</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>2.33</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1045.5</v>
       </c>
       <c r="I15" s="5">
         <v>1045.5</v>
       </c>
-      <c r="J15" s="7">
-        <f>AVERAGE(Setup!H15:I15)</f>
+      <c r="J15" s="5">
         <v>1045.5</v>
       </c>
-      <c r="K15" s="8">
-        <f>1000*STDEV(Setup!H15:I15)</f>
+      <c r="K15" s="7">
+        <f>AVERAGE(Setup!I15:J15)</f>
+        <v>1045.5</v>
+      </c>
+      <c r="L15" s="8">
+        <f>1000*STDEV(Setup!I15:J15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="8">
-        <f>Setup!J15-(Setup!E15+Setup!F15+Setup!G15)</f>
+      <c r="M15" s="8">
+        <f>Setup!K15-(Setup!F15+Setup!G15+Setup!H15)</f>
         <v>1.9200000000000728</v>
       </c>
-      <c r="M15" s="9">
+      <c r="N15" s="9">
         <v>1000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>18.28</v>
       </c>
-      <c r="O15" s="10">
-        <f>Setup!M15*Setup!G15/1000</f>
+      <c r="P15" s="10">
+        <f>Setup!N15*Setup!H15/1000</f>
         <v>2.33</v>
       </c>
-      <c r="P15" s="7">
-        <f>Setup!F15*Setup!N15/1000</f>
+      <c r="Q15" s="7">
+        <f>Setup!G15*Setup!O15/1000</f>
         <v>9.1312256000000005</v>
       </c>
-      <c r="Q15" s="8">
-        <f>Setup!P15/Setup!O15</f>
+      <c r="R15" s="8">
+        <f>Setup!Q15/Setup!P15</f>
         <v>3.9189809442060088</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>1120</v>
       </c>
-      <c r="S15" s="8">
-        <f>Setup!R15-Setup!F15-Setup!G15-2+5</f>
+      <c r="T15" s="8">
+        <f>Setup!S15-Setup!G15-Setup!H15-2+5</f>
         <v>621.15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2069,65 +2138,68 @@
         <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5">
         <v>540.47</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>510.74</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>5.54</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1058.7</v>
       </c>
       <c r="I16" s="5">
         <v>1058.7</v>
       </c>
-      <c r="J16" s="7">
-        <f>AVERAGE(Setup!H16:I16)</f>
+      <c r="J16" s="5">
         <v>1058.7</v>
       </c>
-      <c r="K16" s="8">
-        <f>1000*STDEV(Setup!H16:I16)</f>
+      <c r="K16" s="7">
+        <f>AVERAGE(Setup!I16:J16)</f>
+        <v>1058.7</v>
+      </c>
+      <c r="L16" s="8">
+        <f>1000*STDEV(Setup!I16:J16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="8">
-        <f>Setup!J16-(Setup!E16+Setup!F16+Setup!G16)</f>
+      <c r="M16" s="8">
+        <f>Setup!K16-(Setup!F16+Setup!G16+Setup!H16)</f>
         <v>1.9500000000000455</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>821</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>18.28</v>
       </c>
-      <c r="O16" s="10">
-        <f>Setup!M16*Setup!G16/1000</f>
+      <c r="P16" s="10">
+        <f>Setup!N16*Setup!H16/1000</f>
         <v>4.5483400000000005</v>
       </c>
-      <c r="P16" s="7">
-        <f>Setup!F16*Setup!N16/1000</f>
+      <c r="Q16" s="7">
+        <f>Setup!G16*Setup!O16/1000</f>
         <v>9.3363272000000013</v>
       </c>
-      <c r="Q16" s="8">
-        <f>Setup!P16/Setup!O16</f>
+      <c r="R16" s="8">
+        <f>Setup!Q16/Setup!P16</f>
         <v>2.0526889370627526</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>1120</v>
       </c>
-      <c r="S16" s="8">
-        <f>Setup!R16-Setup!F16-Setup!G16-2+5</f>
+      <c r="T16" s="8">
+        <f>Setup!S16-Setup!G16-Setup!H16-2+5</f>
         <v>606.72</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2135,65 +2207,68 @@
         <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5">
         <v>538.39</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>490.35</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>5.39</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1036.4000000000001</v>
       </c>
       <c r="I17" s="5">
         <v>1036.4000000000001</v>
       </c>
-      <c r="J17" s="7">
-        <f>AVERAGE(Setup!H17:I17)</f>
+      <c r="J17" s="5">
         <v>1036.4000000000001</v>
       </c>
-      <c r="K17" s="8">
-        <f>1000*STDEV(Setup!H17:I17)</f>
+      <c r="K17" s="7">
+        <f>AVERAGE(Setup!I17:J17)</f>
+        <v>1036.4000000000001</v>
+      </c>
+      <c r="L17" s="8">
+        <f>1000*STDEV(Setup!I17:J17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="8">
-        <f>Setup!J17-(Setup!E17+Setup!F17+Setup!G17)</f>
+      <c r="M17" s="8">
+        <f>Setup!K17-(Setup!F17+Setup!G17+Setup!H17)</f>
         <v>2.2699999999999818</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>821</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18.28</v>
       </c>
-      <c r="O17" s="10">
-        <f>Setup!M17*Setup!G17/1000</f>
+      <c r="P17" s="10">
+        <f>Setup!N17*Setup!H17/1000</f>
         <v>4.4251899999999997</v>
       </c>
-      <c r="P17" s="7">
-        <f>Setup!F17*Setup!N17/1000</f>
+      <c r="Q17" s="7">
+        <f>Setup!G17*Setup!O17/1000</f>
         <v>8.9635980000000011</v>
       </c>
-      <c r="Q17" s="8">
-        <f>Setup!P17/Setup!O17</f>
+      <c r="R17" s="8">
+        <f>Setup!Q17/Setup!P17</f>
         <v>2.0255848901403106</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>1120</v>
       </c>
-      <c r="S17" s="8">
-        <f>Setup!R17-Setup!F17-Setup!G17-2+5</f>
+      <c r="T17" s="8">
+        <f>Setup!S17-Setup!G17-Setup!H17-2+5</f>
         <v>627.26</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2201,65 +2276,68 @@
         <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5">
         <v>538.71</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>506.21</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>5.75</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1052.5999999999999</v>
       </c>
       <c r="I18" s="5">
         <v>1052.5999999999999</v>
       </c>
-      <c r="J18" s="7">
-        <f>AVERAGE(Setup!H18:I18)</f>
+      <c r="J18" s="5">
         <v>1052.5999999999999</v>
       </c>
-      <c r="K18" s="8">
-        <f>1000*STDEV(Setup!H18:I18)</f>
+      <c r="K18" s="7">
+        <f>AVERAGE(Setup!I18:J18)</f>
+        <v>1052.5999999999999</v>
+      </c>
+      <c r="L18" s="8">
+        <f>1000*STDEV(Setup!I18:J18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="8">
-        <f>Setup!J18-(Setup!E18+Setup!F18+Setup!G18)</f>
+      <c r="M18" s="8">
+        <f>Setup!K18-(Setup!F18+Setup!G18+Setup!H18)</f>
         <v>1.9299999999998363</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>821</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18.28</v>
       </c>
-      <c r="O18" s="10">
-        <f>Setup!M18*Setup!G18/1000</f>
+      <c r="P18" s="10">
+        <f>Setup!N18*Setup!H18/1000</f>
         <v>4.7207499999999998</v>
       </c>
-      <c r="P18" s="7">
-        <f>Setup!F18*Setup!N18/1000</f>
+      <c r="Q18" s="7">
+        <f>Setup!G18*Setup!O18/1000</f>
         <v>9.2535188000000002</v>
       </c>
-      <c r="Q18" s="8">
-        <f>Setup!P18/Setup!O18</f>
+      <c r="R18" s="8">
+        <f>Setup!Q18/Setup!P18</f>
         <v>1.9601798019382515</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>1120</v>
       </c>
-      <c r="S18" s="8">
-        <f>Setup!R18-Setup!F18-Setup!G18-2+5</f>
+      <c r="T18" s="8">
+        <f>Setup!S18-Setup!G18-Setup!H18-2+5</f>
         <v>611.04</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2267,65 +2345,68 @@
         <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="5">
         <v>538.07000000000005</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>485.05</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>5.48</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1029.9000000000001</v>
       </c>
       <c r="I19" s="5">
         <v>1029.9000000000001</v>
       </c>
-      <c r="J19" s="7">
-        <f>AVERAGE(Setup!H19:I19)</f>
+      <c r="J19" s="5">
         <v>1029.9000000000001</v>
       </c>
-      <c r="K19" s="8">
-        <f>1000*STDEV(Setup!H19:I19)</f>
+      <c r="K19" s="7">
+        <f>AVERAGE(Setup!I19:J19)</f>
+        <v>1029.9000000000001</v>
+      </c>
+      <c r="L19" s="8">
+        <f>1000*STDEV(Setup!I19:J19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="8">
-        <f>Setup!J19-(Setup!E19+Setup!F19+Setup!G19)</f>
+      <c r="M19" s="8">
+        <f>Setup!K19-(Setup!F19+Setup!G19+Setup!H19)</f>
         <v>1.2999999999999545</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>858.47</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>18.28</v>
       </c>
-      <c r="O19" s="10">
-        <f>Setup!M19*Setup!G19/1000</f>
+      <c r="P19" s="10">
+        <f>Setup!N19*Setup!H19/1000</f>
         <v>4.7044155999999999</v>
       </c>
-      <c r="P19" s="7">
-        <f>Setup!F19*Setup!N19/1000</f>
+      <c r="Q19" s="7">
+        <f>Setup!G19*Setup!O19/1000</f>
         <v>8.866714</v>
       </c>
-      <c r="Q19" s="8">
-        <f>Setup!P19/Setup!O19</f>
+      <c r="R19" s="8">
+        <f>Setup!Q19/Setup!P19</f>
         <v>1.8847641777227335</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>1120</v>
       </c>
-      <c r="S19" s="8">
-        <f>Setup!R19-Setup!F19-Setup!G19-2+5</f>
+      <c r="T19" s="8">
+        <f>Setup!S19-Setup!G19-Setup!H19-2+5</f>
         <v>632.47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -2333,65 +2414,68 @@
         <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5">
         <v>537.48</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>481.17</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>5.35</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1025.2</v>
       </c>
       <c r="I20" s="5">
         <v>1025.2</v>
       </c>
-      <c r="J20" s="7">
-        <f>AVERAGE(Setup!H20:I20)</f>
+      <c r="J20" s="5">
         <v>1025.2</v>
       </c>
-      <c r="K20" s="8">
-        <f>1000*STDEV(Setup!H20:I20)</f>
+      <c r="K20" s="7">
+        <f>AVERAGE(Setup!I20:J20)</f>
+        <v>1025.2</v>
+      </c>
+      <c r="L20" s="8">
+        <f>1000*STDEV(Setup!I20:J20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="8">
-        <f>Setup!J20-(Setup!E20+Setup!F20+Setup!G20)</f>
+      <c r="M20" s="8">
+        <f>Setup!K20-(Setup!F20+Setup!G20+Setup!H20)</f>
         <v>1.2000000000000455</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>858.47</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18.28</v>
       </c>
-      <c r="O20" s="10">
-        <f>Setup!M20*Setup!G20/1000</f>
+      <c r="P20" s="10">
+        <f>Setup!N20*Setup!H20/1000</f>
         <v>4.5928144999999994</v>
       </c>
-      <c r="P20" s="7">
-        <f>Setup!F20*Setup!N20/1000</f>
+      <c r="Q20" s="7">
+        <f>Setup!G20*Setup!O20/1000</f>
         <v>8.7957876000000006</v>
       </c>
-      <c r="Q20" s="8">
-        <f>Setup!P20/Setup!O20</f>
+      <c r="R20" s="8">
+        <f>Setup!Q20/Setup!P20</f>
         <v>1.9151192803454182</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S20" s="5">
         <v>1120</v>
       </c>
-      <c r="S20" s="8">
-        <f>Setup!R20-Setup!F20-Setup!G20-2+5</f>
+      <c r="T20" s="8">
+        <f>Setup!S20-Setup!G20-Setup!H20-2+5</f>
         <v>636.4799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -2399,65 +2483,68 @@
         <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="5">
         <v>538.23</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>493.63</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>5.37</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1039</v>
       </c>
       <c r="I21" s="5">
         <v>1039</v>
       </c>
-      <c r="J21" s="7">
-        <f>AVERAGE(Setup!H21:I21)</f>
+      <c r="J21" s="5">
         <v>1039</v>
       </c>
-      <c r="K21" s="8">
-        <f>1000*STDEV(Setup!H21:I21)</f>
+      <c r="K21" s="7">
+        <f>AVERAGE(Setup!I21:J21)</f>
+        <v>1039</v>
+      </c>
+      <c r="L21" s="8">
+        <f>1000*STDEV(Setup!I21:J21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="8">
-        <f>Setup!J21-(Setup!E21+Setup!F21+Setup!G21)</f>
+      <c r="M21" s="8">
+        <f>Setup!K21-(Setup!F21+Setup!G21+Setup!H21)</f>
         <v>1.7699999999999818</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>858.47</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18.28</v>
       </c>
-      <c r="O21" s="10">
-        <f>Setup!M21*Setup!G21/1000</f>
+      <c r="P21" s="10">
+        <f>Setup!N21*Setup!H21/1000</f>
         <v>4.6099839000000005</v>
       </c>
-      <c r="P21" s="7">
-        <f>Setup!F21*Setup!N21/1000</f>
+      <c r="Q21" s="7">
+        <f>Setup!G21*Setup!O21/1000</f>
         <v>9.0235564000000021</v>
       </c>
-      <c r="Q21" s="8">
-        <f>Setup!P21/Setup!O21</f>
+      <c r="R21" s="8">
+        <f>Setup!Q21/Setup!P21</f>
         <v>1.9573943414422774</v>
       </c>
-      <c r="R21" s="5">
+      <c r="S21" s="5">
         <v>1120</v>
       </c>
-      <c r="S21" s="8">
-        <f>Setup!R21-Setup!F21-Setup!G21-2+5</f>
+      <c r="T21" s="8">
+        <f>Setup!S21-Setup!G21-Setup!H21-2+5</f>
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -2467,49 +2554,52 @@
       <c r="C22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="5">
+      <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5">
         <v>537.03</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>1073.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
         <v>1073.5999999999999</v>
       </c>
-      <c r="J22" s="7">
-        <f>AVERAGE(Setup!H22:I22)</f>
+      <c r="J22" s="5">
         <v>1073.5999999999999</v>
       </c>
-      <c r="K22" s="8">
-        <f>1000*STDEV(Setup!H22:I22)</f>
+      <c r="K22" s="7">
+        <f>AVERAGE(Setup!I22:J22)</f>
+        <v>1073.5999999999999</v>
+      </c>
+      <c r="L22" s="8">
+        <f>1000*STDEV(Setup!I22:J22)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="3">
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="3">
         <v>18.28</v>
       </c>
-      <c r="O22" s="10">
-        <f>Setup!M22*Setup!G22/1000</f>
+      <c r="P22" s="10">
+        <f>Setup!N22*Setup!H22/1000</f>
         <v>0</v>
       </c>
-      <c r="P22" s="7">
-        <f>Setup!F22*Setup!N22/1000</f>
+      <c r="Q22" s="7">
+        <f>Setup!G22*Setup!O22/1000</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="5">
+      <c r="R22" s="8"/>
+      <c r="S22" s="5">
         <v>1120</v>
       </c>
-      <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -2519,40 +2609,43 @@
       <c r="C23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="5">
+      <c r="D23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5">
         <v>539.15</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>419.34</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="5">
+      <c r="H23" s="1"/>
+      <c r="I23" s="5">
         <v>959.9</v>
       </c>
-      <c r="J23" s="7">
-        <f>AVERAGE(Setup!H23:I23)</f>
+      <c r="K23" s="7">
+        <f>AVERAGE(Setup!I23:J23)</f>
         <v>959.9</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8">
-        <f>Setup!J23-(Setup!E23+Setup!F23+Setup!G23)</f>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8">
+        <f>Setup!K23-(Setup!F23+Setup!G23+Setup!H23)</f>
         <v>1.4099999999999682</v>
       </c>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="5">
+      <c r="O23" s="1"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="5">
         <v>1120</v>
       </c>
-      <c r="S23" s="8">
-        <f>Setup!R23-Setup!F23-Setup!G23-2+5</f>
+      <c r="T23" s="8">
+        <f>Setup!S23-Setup!G23-Setup!H23-2+5</f>
         <v>703.66000000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2562,40 +2655,43 @@
       <c r="C24" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5">
+      <c r="D24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5">
         <v>538.97</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>449.12</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5">
+      <c r="H24" s="1"/>
+      <c r="I24" s="5">
         <v>989.9</v>
       </c>
-      <c r="J24" s="7">
-        <f>AVERAGE(Setup!H24:I24)</f>
+      <c r="K24" s="7">
+        <f>AVERAGE(Setup!I24:J24)</f>
         <v>989.9</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8">
-        <f>Setup!J24-(Setup!E24+Setup!F24+Setup!G24)</f>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8">
+        <f>Setup!K24-(Setup!F24+Setup!G24+Setup!H24)</f>
         <v>1.8099999999999454</v>
       </c>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="5">
+      <c r="O24" s="1"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="5">
         <v>1120</v>
       </c>
-      <c r="S24" s="8">
-        <f>Setup!R24-Setup!F24-Setup!G24-2+5</f>
+      <c r="T24" s="8">
+        <f>Setup!S24-Setup!G24-Setup!H24-2+5</f>
         <v>673.88</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -2605,40 +2701,43 @@
       <c r="C25" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5">
+      <c r="D25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5">
         <v>537.30999999999995</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>447.4</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5">
+      <c r="H25" s="1"/>
+      <c r="I25" s="5">
         <v>986.5</v>
       </c>
-      <c r="J25" s="7">
-        <f>AVERAGE(Setup!H25:I25)</f>
+      <c r="K25" s="7">
+        <f>AVERAGE(Setup!I25:J25)</f>
         <v>986.5</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8">
-        <f>Setup!J25-(Setup!E25+Setup!F25+Setup!G25)</f>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8">
+        <f>Setup!K25-(Setup!F25+Setup!G25+Setup!H25)</f>
         <v>1.7900000000000773</v>
       </c>
-      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="5">
+      <c r="O25" s="1"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="5">
         <v>1120</v>
       </c>
-      <c r="S25" s="8">
-        <f>Setup!R25-Setup!F25-Setup!G25-2+5</f>
+      <c r="T25" s="8">
+        <f>Setup!S25-Setup!G25-Setup!H25-2+5</f>
         <v>675.6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -2646,59 +2745,62 @@
         <v>51</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="5">
         <v>538.12</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>281.87</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>3.89</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>826.2</v>
       </c>
-      <c r="J26" s="7">
-        <f>AVERAGE(Setup!H26:I26)</f>
+      <c r="K26" s="7">
+        <f>AVERAGE(Setup!I26:J26)</f>
         <v>826.2</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8">
-        <f>Setup!J26-(Setup!E26+Setup!F26+Setup!G26)</f>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8">
+        <f>Setup!K26-(Setup!F26+Setup!G26+Setup!H26)</f>
         <v>2.32000000000005</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>821</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19.86</v>
       </c>
-      <c r="O26" s="10">
-        <f>Setup!M26*Setup!G26/1000</f>
+      <c r="P26" s="10">
+        <f>Setup!N26*Setup!H26/1000</f>
         <v>3.1936900000000001</v>
       </c>
-      <c r="P26" s="7">
-        <f>Setup!F26*Setup!N26/1000</f>
+      <c r="Q26" s="7">
+        <f>Setup!G26*Setup!O26/1000</f>
         <v>5.5979381999999998</v>
       </c>
-      <c r="Q26" s="8">
-        <f>Setup!P26/Setup!O26</f>
+      <c r="R26" s="8">
+        <f>Setup!Q26/Setup!P26</f>
         <v>1.7528120136894938</v>
       </c>
-      <c r="R26" s="5">
+      <c r="S26" s="5">
         <v>1120</v>
       </c>
-      <c r="S26" s="8">
-        <f>Setup!R26-Setup!F26-Setup!G26-2+5</f>
+      <c r="T26" s="8">
+        <f>Setup!S26-Setup!G26-Setup!H26-2+5</f>
         <v>837.24</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -2706,59 +2808,62 @@
         <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="5">
         <v>540.96</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>296.05</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>3.82</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>842.7</v>
       </c>
-      <c r="J27" s="7">
-        <f>AVERAGE(Setup!H27:I27)</f>
+      <c r="K27" s="7">
+        <f>AVERAGE(Setup!I27:J27)</f>
         <v>842.7</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8">
-        <f>Setup!J27-(Setup!E27+Setup!F27+Setup!G27)</f>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8">
+        <f>Setup!K27-(Setup!F27+Setup!G27+Setup!H27)</f>
         <v>1.8700000000000045</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>821</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19.86</v>
       </c>
-      <c r="O27" s="10">
-        <f>Setup!M27*Setup!G27/1000</f>
+      <c r="P27" s="10">
+        <f>Setup!N27*Setup!H27/1000</f>
         <v>3.1362199999999998</v>
       </c>
-      <c r="P27" s="7">
-        <f>Setup!F27*Setup!N27/1000</f>
+      <c r="Q27" s="7">
+        <f>Setup!G27*Setup!O27/1000</f>
         <v>5.8795529999999996</v>
       </c>
-      <c r="Q27" s="8">
-        <f>Setup!P27/Setup!O27</f>
+      <c r="R27" s="8">
+        <f>Setup!Q27/Setup!P27</f>
         <v>1.8747259439707673</v>
       </c>
-      <c r="R27" s="5">
+      <c r="S27" s="5">
         <v>1120</v>
       </c>
-      <c r="S27" s="8">
-        <f>Setup!R27-Setup!F27-Setup!G27-2+5</f>
+      <c r="T27" s="8">
+        <f>Setup!S27-Setup!G27-Setup!H27-2+5</f>
         <v>823.13</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -2766,63 +2871,66 @@
         <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="5">
         <v>527.29</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>296.7</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>3.49</v>
       </c>
-      <c r="H28" s="14">
+      <c r="I28" s="14">
         <v>839.3</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15">
-        <f>AVERAGE(Setup!H28:I28)</f>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15">
+        <f>AVERAGE(Setup!I28:J28)</f>
         <v>839.3</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16">
-        <f>Setup!J28-(Setup!E28+Setup!F28+Setup!G28)</f>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16">
+        <f>Setup!K28-(Setup!F28+Setup!G28+Setup!H28)</f>
         <v>11.819999999999936</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>821</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>19.86</v>
       </c>
-      <c r="O28" s="10">
-        <f>Setup!M28*Setup!G28/1000</f>
+      <c r="P28" s="10">
+        <f>Setup!N28*Setup!H28/1000</f>
         <v>2.8652899999999999</v>
       </c>
-      <c r="P28" s="7">
-        <f>Setup!F28*Setup!N28/1000</f>
+      <c r="Q28" s="7">
+        <f>Setup!G28*Setup!O28/1000</f>
         <v>5.8924619999999992</v>
       </c>
-      <c r="Q28" s="8">
-        <f>Setup!P28/Setup!O28</f>
+      <c r="R28" s="8">
+        <f>Setup!Q28/Setup!P28</f>
         <v>2.0564975971018638</v>
       </c>
-      <c r="R28" s="5">
+      <c r="S28" s="5">
         <v>1120</v>
       </c>
-      <c r="S28" s="8">
-        <f>Setup!R28-Setup!F28-Setup!G28-2+5</f>
+      <c r="T28" s="8">
+        <f>Setup!S28-Setup!G28-Setup!H28-2+5</f>
         <v>822.81</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="U28" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -2830,59 +2938,62 @@
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="5">
         <v>537.91999999999996</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>301.66000000000003</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>3.94</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>845.4</v>
       </c>
-      <c r="J29" s="7">
-        <f>AVERAGE(Setup!H29:I29)</f>
+      <c r="K29" s="7">
+        <f>AVERAGE(Setup!I29:J29)</f>
         <v>845.4</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8">
-        <f>Setup!J29-(Setup!E29+Setup!F29+Setup!G29)</f>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8">
+        <f>Setup!K29-(Setup!F29+Setup!G29+Setup!H29)</f>
         <v>1.8799999999999955</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>858.47</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>19.86</v>
       </c>
-      <c r="O29" s="10">
-        <f>Setup!M29*Setup!G29/1000</f>
+      <c r="P29" s="10">
+        <f>Setup!N29*Setup!H29/1000</f>
         <v>3.3823718</v>
       </c>
-      <c r="P29" s="7">
-        <f>Setup!F29*Setup!N29/1000</f>
+      <c r="Q29" s="7">
+        <f>Setup!G29*Setup!O29/1000</f>
         <v>5.9909676000000003</v>
       </c>
-      <c r="Q29" s="8">
-        <f>Setup!P29/Setup!O29</f>
+      <c r="R29" s="8">
+        <f>Setup!Q29/Setup!P29</f>
         <v>1.7712327190050485</v>
       </c>
-      <c r="R29" s="5">
+      <c r="S29" s="5">
         <v>1120</v>
       </c>
-      <c r="S29" s="8">
-        <f>Setup!R29-Setup!F29-Setup!G29-2+5</f>
+      <c r="T29" s="8">
+        <f>Setup!S29-Setup!G29-Setup!H29-2+5</f>
         <v>817.39999999999986</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>2</v>
       </c>
@@ -2890,59 +3001,62 @@
         <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="5">
         <v>537.39</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>310.41000000000003</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>3.51</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>853.2</v>
       </c>
-      <c r="J30" s="7">
-        <f>AVERAGE(Setup!H30:I30)</f>
+      <c r="K30" s="7">
+        <f>AVERAGE(Setup!I30:J30)</f>
         <v>853.2</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8">
-        <f>Setup!J30-(Setup!E30+Setup!F30+Setup!G30)</f>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8">
+        <f>Setup!K30-(Setup!F30+Setup!G30+Setup!H30)</f>
         <v>1.8900000000001</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>858.47</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="3">
         <v>19.86</v>
       </c>
-      <c r="O30" s="10">
-        <f>Setup!M30*Setup!G30/1000</f>
+      <c r="P30" s="10">
+        <f>Setup!N30*Setup!H30/1000</f>
         <v>3.0132296999999997</v>
       </c>
-      <c r="P30" s="7">
-        <f>Setup!F30*Setup!N30/1000</f>
+      <c r="Q30" s="7">
+        <f>Setup!G30*Setup!O30/1000</f>
         <v>6.1647426000000003</v>
       </c>
-      <c r="Q30" s="8">
-        <f>Setup!P30/Setup!O30</f>
+      <c r="R30" s="8">
+        <f>Setup!Q30/Setup!P30</f>
         <v>2.0458920207775733</v>
       </c>
-      <c r="R30" s="5">
+      <c r="S30" s="5">
         <v>1120</v>
       </c>
-      <c r="S30" s="8">
-        <f>Setup!R30-Setup!F30-Setup!G30-2+5</f>
+      <c r="T30" s="8">
+        <f>Setup!S30-Setup!G30-Setup!H30-2+5</f>
         <v>809.07999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -2950,59 +3064,62 @@
         <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="5">
         <v>537.30999999999995</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>302.25</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>3.45</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>847.9</v>
       </c>
-      <c r="J31" s="7">
-        <f>AVERAGE(Setup!H31:I31)</f>
+      <c r="K31" s="7">
+        <f>AVERAGE(Setup!I31:J31)</f>
         <v>847.9</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8">
-        <f>Setup!J31-(Setup!E31+Setup!F31+Setup!G31)</f>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8">
+        <f>Setup!K31-(Setup!F31+Setup!G31+Setup!H31)</f>
         <v>4.8899999999999864</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>858.47</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
         <v>19.86</v>
       </c>
-      <c r="O31" s="10">
-        <f>Setup!M31*Setup!G31/1000</f>
+      <c r="P31" s="10">
+        <f>Setup!N31*Setup!H31/1000</f>
         <v>2.9617214999999999</v>
       </c>
-      <c r="P31" s="7">
-        <f>Setup!F31*Setup!N31/1000</f>
+      <c r="Q31" s="7">
+        <f>Setup!G31*Setup!O31/1000</f>
         <v>6.0026849999999996</v>
       </c>
-      <c r="Q31" s="8">
-        <f>Setup!P31/Setup!O31</f>
+      <c r="R31" s="8">
+        <f>Setup!Q31/Setup!P31</f>
         <v>2.0267553853392357</v>
       </c>
-      <c r="R31" s="5">
+      <c r="S31" s="5">
         <v>1120</v>
       </c>
-      <c r="S31" s="8">
-        <f>Setup!R31-Setup!F31-Setup!G31-2+5</f>
+      <c r="T31" s="8">
+        <f>Setup!S31-Setup!G31-Setup!H31-2+5</f>
         <v>817.3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -3010,59 +3127,62 @@
         <v>43</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5">
         <v>536.09</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>496.42</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>3.42</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>1037.8</v>
       </c>
-      <c r="J32" s="7">
-        <f>AVERAGE(Setup!H32:I32)</f>
+      <c r="K32" s="7">
+        <f>AVERAGE(Setup!I32:J32)</f>
         <v>1037.8</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8">
-        <f>Setup!J32-(Setup!E32+Setup!F32+Setup!G32)</f>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8">
+        <f>Setup!K32-(Setup!F32+Setup!G32+Setup!H32)</f>
         <v>1.8699999999998909</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>799.27</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19.86</v>
       </c>
-      <c r="O32" s="10">
-        <f>Setup!M32*Setup!G32/1000</f>
+      <c r="P32" s="10">
+        <f>Setup!N32*Setup!H32/1000</f>
         <v>2.7335034</v>
       </c>
-      <c r="P32" s="7">
-        <f>Setup!F32*Setup!N32/1000</f>
+      <c r="Q32" s="7">
+        <f>Setup!G32*Setup!O32/1000</f>
         <v>9.8589012</v>
       </c>
-      <c r="Q32" s="8">
-        <f>Setup!P32/Setup!O32</f>
+      <c r="R32" s="8">
+        <f>Setup!Q32/Setup!P32</f>
         <v>3.606690666636815</v>
       </c>
-      <c r="R32" s="5">
+      <c r="S32" s="5">
         <v>1120</v>
       </c>
-      <c r="S32" s="8">
-        <f>Setup!R32-Setup!F32-Setup!G32-2+5</f>
+      <c r="T32" s="8">
+        <f>Setup!S32-Setup!G32-Setup!H32-2+5</f>
         <v>623.16</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -3070,59 +3190,62 @@
         <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5">
         <v>536.44000000000005</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>480.16</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>3.6</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>1022.1</v>
       </c>
-      <c r="J33" s="7">
-        <f>AVERAGE(Setup!H33:I33)</f>
+      <c r="K33" s="7">
+        <f>AVERAGE(Setup!I33:J33)</f>
         <v>1022.1</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8">
-        <f>Setup!J33-(Setup!E33+Setup!F33+Setup!G33)</f>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8">
+        <f>Setup!K33-(Setup!F33+Setup!G33+Setup!H33)</f>
         <v>1.8999999999998636</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>799.27</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19.86</v>
       </c>
-      <c r="O33" s="10">
-        <f>Setup!M33*Setup!G33/1000</f>
+      <c r="P33" s="10">
+        <f>Setup!N33*Setup!H33/1000</f>
         <v>2.8773719999999998</v>
       </c>
-      <c r="P33" s="7">
-        <f>Setup!F33*Setup!N33/1000</f>
+      <c r="Q33" s="7">
+        <f>Setup!G33*Setup!O33/1000</f>
         <v>9.5359776000000007</v>
       </c>
-      <c r="Q33" s="16">
-        <f>Setup!P33/Setup!O33</f>
+      <c r="R33" s="16">
+        <f>Setup!Q33/Setup!P33</f>
         <v>3.3141274746539557</v>
       </c>
-      <c r="R33" s="5">
+      <c r="S33" s="5">
         <v>1120</v>
       </c>
-      <c r="S33" s="8">
-        <f>Setup!R33-Setup!F33-Setup!G33-2+5</f>
+      <c r="T33" s="8">
+        <f>Setup!S33-Setup!G33-Setup!H33-2+5</f>
         <v>639.2399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -3130,59 +3253,62 @@
         <v>46</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5">
         <v>537.69000000000005</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>506.59</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>3.09</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>1049.3</v>
       </c>
-      <c r="J34" s="7">
-        <f>AVERAGE(Setup!H34:I34)</f>
+      <c r="K34" s="7">
+        <f>AVERAGE(Setup!I34:J34)</f>
         <v>1049.3</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8">
-        <f>Setup!J34-(Setup!E34+Setup!F34+Setup!G34)</f>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8">
+        <f>Setup!K34-(Setup!F34+Setup!G34+Setup!H34)</f>
         <v>1.9300000000000637</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>799.27</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="3">
         <v>19.86</v>
       </c>
-      <c r="O34" s="10">
-        <f>Setup!M34*Setup!G34/1000</f>
+      <c r="P34" s="10">
+        <f>Setup!N34*Setup!H34/1000</f>
         <v>2.4697442999999999</v>
       </c>
-      <c r="P34" s="7">
-        <f>Setup!F34*Setup!N34/1000</f>
+      <c r="Q34" s="7">
+        <f>Setup!G34*Setup!O34/1000</f>
         <v>10.060877399999999</v>
       </c>
-      <c r="Q34" s="8">
-        <f>Setup!P34/Setup!O34</f>
+      <c r="R34" s="8">
+        <f>Setup!Q34/Setup!P34</f>
         <v>4.0736514302310569</v>
       </c>
-      <c r="R34" s="5">
+      <c r="S34" s="5">
         <v>1120</v>
       </c>
-      <c r="S34" s="8">
-        <f>Setup!R34-Setup!F34-Setup!G34-2+5</f>
+      <c r="T34" s="8">
+        <f>Setup!S34-Setup!G34-Setup!H34-2+5</f>
         <v>613.32000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -3193,57 +3319,60 @@
         <v>62</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>541.97</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <f>308.12+94.48</f>
         <v>402.6</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>951.5</v>
       </c>
-      <c r="J35" s="7">
-        <f>AVERAGE(Setup!H35:I35)</f>
+      <c r="K35" s="7">
+        <f>AVERAGE(Setup!I35:J35)</f>
         <v>951.5</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8">
-        <f>Setup!J35-(Setup!E35+Setup!F35+Setup!G35)</f>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8">
+        <f>Setup!K35-(Setup!F35+Setup!G35+Setup!H35)</f>
         <v>2.2799999999999727</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>799.27</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19.86</v>
       </c>
-      <c r="O35" s="10">
-        <f>Setup!M35*Setup!G35/1000</f>
+      <c r="P35" s="10">
+        <f>Setup!N35*Setup!H35/1000</f>
         <v>3.7166055</v>
       </c>
-      <c r="P35" s="7">
-        <f>Setup!F35*Setup!N35/1000</f>
+      <c r="Q35" s="7">
+        <f>Setup!G35*Setup!O35/1000</f>
         <v>7.9956360000000002</v>
       </c>
-      <c r="Q35" s="8">
-        <f>Setup!P35/Setup!O35</f>
+      <c r="R35" s="8">
+        <f>Setup!Q35/Setup!P35</f>
         <v>2.1513276025663743</v>
       </c>
-      <c r="R35" s="5">
+      <c r="S35" s="5">
         <v>1120</v>
       </c>
-      <c r="S35" s="8">
-        <f>Setup!R35-Setup!F35-Setup!G35-2+5</f>
+      <c r="T35" s="8">
+        <f>Setup!S35-Setup!G35-Setup!H35-2+5</f>
         <v>715.75</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -3254,56 +3383,59 @@
         <v>62</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>536.87</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>315.18</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>4.04</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>858</v>
       </c>
-      <c r="J36" s="7">
-        <f>AVERAGE(Setup!H36:I36)</f>
+      <c r="K36" s="7">
+        <f>AVERAGE(Setup!I36:J36)</f>
         <v>858</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8">
-        <f>Setup!J36-(Setup!E36+Setup!F36+Setup!G36)</f>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8">
+        <f>Setup!K36-(Setup!F36+Setup!G36+Setup!H36)</f>
         <v>1.9100000000000819</v>
       </c>
-      <c r="M36" s="3">
+      <c r="N36" s="3">
         <v>799.27</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O36" s="3">
         <v>19.86</v>
       </c>
-      <c r="O36" s="10">
-        <f>Setup!M36*Setup!G36/1000</f>
+      <c r="P36" s="10">
+        <f>Setup!N36*Setup!H36/1000</f>
         <v>3.2290508</v>
       </c>
-      <c r="P36" s="7">
-        <f>Setup!F36*Setup!N36/1000</f>
+      <c r="Q36" s="7">
+        <f>Setup!G36*Setup!O36/1000</f>
         <v>6.2594747999999996</v>
       </c>
-      <c r="Q36" s="8">
-        <f>Setup!P36/Setup!O36</f>
+      <c r="R36" s="8">
+        <f>Setup!Q36/Setup!P36</f>
         <v>1.938487558015501</v>
       </c>
-      <c r="R36" s="5">
+      <c r="S36" s="5">
         <v>1120</v>
       </c>
-      <c r="S36" s="8">
-        <f>Setup!R36-Setup!F36-Setup!G36-2+5</f>
+      <c r="T36" s="8">
+        <f>Setup!S36-Setup!G36-Setup!H36-2+5</f>
         <v>803.78</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -3314,56 +3446,59 @@
         <v>62</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>537.1</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>304.64999999999998</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>3.69</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>847.3</v>
       </c>
-      <c r="J37" s="7">
-        <f>AVERAGE(Setup!H37:I37)</f>
+      <c r="K37" s="7">
+        <f>AVERAGE(Setup!I37:J37)</f>
         <v>847.3</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8">
-        <f>Setup!J37-(Setup!E37+Setup!F37+Setup!G37)</f>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8">
+        <f>Setup!K37-(Setup!F37+Setup!G37+Setup!H37)</f>
         <v>1.8599999999999</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>799.27</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>19.86</v>
       </c>
-      <c r="O37" s="10">
-        <f>Setup!M37*Setup!G37/1000</f>
+      <c r="P37" s="10">
+        <f>Setup!N37*Setup!H37/1000</f>
         <v>2.9493062999999999</v>
       </c>
-      <c r="P37" s="7">
-        <f>Setup!F37*Setup!N37/1000</f>
+      <c r="Q37" s="7">
+        <f>Setup!G37*Setup!O37/1000</f>
         <v>6.0503489999999989</v>
       </c>
-      <c r="Q37" s="8">
-        <f>Setup!P37/Setup!O37</f>
+      <c r="R37" s="8">
+        <f>Setup!Q37/Setup!P37</f>
         <v>2.0514481659636368</v>
       </c>
-      <c r="R37" s="5">
+      <c r="S37" s="5">
         <v>1120</v>
       </c>
-      <c r="S37" s="8">
-        <f>Setup!R37-Setup!F37-Setup!G37-2+5</f>
+      <c r="T37" s="8">
+        <f>Setup!S37-Setup!G37-Setup!H37-2+5</f>
         <v>814.66</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -3376,54 +3511,57 @@
       <c r="D38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="5">
         <v>537.98</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>296.94</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>1.56</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>838.3</v>
       </c>
-      <c r="J38" s="7">
-        <f>AVERAGE(Setup!H38:I38)</f>
+      <c r="K38" s="7">
+        <f>AVERAGE(Setup!I38:J38)</f>
         <v>838.3</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8">
-        <f>Setup!J38-(Setup!E38+Setup!F38+Setup!G38)</f>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8">
+        <f>Setup!K38-(Setup!F38+Setup!G38+Setup!H38)</f>
         <v>1.8199999999999363</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>945.69</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>19.86</v>
       </c>
-      <c r="O38" s="10">
-        <f>Setup!M38*Setup!G38/1000</f>
+      <c r="P38" s="10">
+        <f>Setup!N38*Setup!H38/1000</f>
         <v>1.4752764000000003</v>
       </c>
-      <c r="P38" s="7">
-        <f>Setup!F38*Setup!N38/1000</f>
+      <c r="Q38" s="7">
+        <f>Setup!G38*Setup!O38/1000</f>
         <v>5.8972284000000004</v>
       </c>
-      <c r="Q38" s="8">
-        <f>Setup!P38/Setup!O38</f>
+      <c r="R38" s="8">
+        <f>Setup!Q38/Setup!P38</f>
         <v>3.9973718823130358</v>
       </c>
-      <c r="R38" s="5">
+      <c r="S38" s="5">
         <v>1120</v>
       </c>
-      <c r="S38" s="8">
-        <f>Setup!R38-Setup!F38-Setup!G38-2+5</f>
+      <c r="T38" s="8">
+        <f>Setup!S38-Setup!G38-Setup!H38-2+5</f>
         <v>824.5</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -3436,54 +3574,57 @@
       <c r="D39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="5">
         <v>537.51</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>311.27</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>1.43</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>852.1</v>
       </c>
-      <c r="J39" s="7">
-        <f>AVERAGE(Setup!H39:I39)</f>
+      <c r="K39" s="7">
+        <f>AVERAGE(Setup!I39:J39)</f>
         <v>852.1</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8">
-        <f>Setup!J39-(Setup!E39+Setup!F39+Setup!G39)</f>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8">
+        <f>Setup!K39-(Setup!F39+Setup!G39+Setup!H39)</f>
         <v>1.8900000000001</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N39" s="3">
         <v>945.69</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>19.86</v>
       </c>
-      <c r="O39" s="10">
-        <f>Setup!M39*Setup!G39/1000</f>
+      <c r="P39" s="10">
+        <f>Setup!N39*Setup!H39/1000</f>
         <v>1.3523367000000002</v>
       </c>
-      <c r="P39" s="7">
-        <f>Setup!F39*Setup!N39/1000</f>
+      <c r="Q39" s="7">
+        <f>Setup!G39*Setup!O39/1000</f>
         <v>6.1818222</v>
       </c>
-      <c r="Q39" s="17">
-        <f>Setup!P39/Setup!O39</f>
+      <c r="R39" s="17">
+        <f>Setup!Q39/Setup!P39</f>
         <v>4.5712152898017182</v>
       </c>
-      <c r="R39" s="5">
+      <c r="S39" s="5">
         <v>1120</v>
       </c>
-      <c r="S39" s="8">
-        <f>Setup!R39-Setup!F39-Setup!G39-2+5</f>
+      <c r="T39" s="8">
+        <f>Setup!S39-Setup!G39-Setup!H39-2+5</f>
         <v>810.30000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -3496,54 +3637,57 @@
       <c r="D40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="5">
         <v>537.02</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>322.27</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>1.75</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>863.3</v>
       </c>
-      <c r="J40" s="7">
-        <f>AVERAGE(Setup!H40:I40)</f>
+      <c r="K40" s="7">
+        <f>AVERAGE(Setup!I40:J40)</f>
         <v>863.3</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8">
-        <f>Setup!J40-(Setup!E40+Setup!F40+Setup!G40)</f>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8">
+        <f>Setup!K40-(Setup!F40+Setup!G40+Setup!H40)</f>
         <v>2.2599999999999909</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
         <v>945.69</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="3">
         <v>19.86</v>
       </c>
-      <c r="O40" s="10">
-        <f>Setup!M40*Setup!G40/1000</f>
+      <c r="P40" s="10">
+        <f>Setup!N40*Setup!H40/1000</f>
         <v>1.6549575000000001</v>
       </c>
-      <c r="P40" s="7">
-        <f>Setup!F40*Setup!N40/1000</f>
+      <c r="Q40" s="7">
+        <f>Setup!G40*Setup!O40/1000</f>
         <v>6.4002821999999995</v>
       </c>
-      <c r="Q40" s="8">
-        <f>Setup!P40/Setup!O40</f>
+      <c r="R40" s="8">
+        <f>Setup!Q40/Setup!P40</f>
         <v>3.867339312338836</v>
       </c>
-      <c r="R40" s="5">
+      <c r="S40" s="5">
         <v>1120</v>
       </c>
-      <c r="S40" s="8">
-        <f>Setup!R40-Setup!F40-Setup!G40-2+5</f>
+      <c r="T40" s="8">
+        <f>Setup!S40-Setup!G40-Setup!H40-2+5</f>
         <v>798.98</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -3556,54 +3700,57 @@
       <c r="D41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="5">
         <v>539.62</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>308.27999999999997</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>1.44</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>851.1</v>
       </c>
-      <c r="J41" s="7">
-        <f>AVERAGE(Setup!H41:I41)</f>
+      <c r="K41" s="7">
+        <f>AVERAGE(Setup!I41:J41)</f>
         <v>851.1</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8">
-        <f>Setup!J41-(Setup!E41+Setup!F41+Setup!G41)</f>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8">
+        <f>Setup!K41-(Setup!F41+Setup!G41+Setup!H41)</f>
         <v>1.7599999999999909</v>
       </c>
-      <c r="M41" s="9">
+      <c r="N41" s="9">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19.86</v>
       </c>
-      <c r="O41" s="10">
-        <f>Setup!M41*Setup!G41/1000</f>
+      <c r="P41" s="10">
+        <f>Setup!N41*Setup!H41/1000</f>
         <v>1.44</v>
       </c>
-      <c r="P41" s="7">
-        <f>Setup!F41*Setup!N41/1000</f>
+      <c r="Q41" s="7">
+        <f>Setup!G41*Setup!O41/1000</f>
         <v>6.1224407999999997</v>
       </c>
-      <c r="Q41" s="8">
-        <f>Setup!P41/Setup!O41</f>
+      <c r="R41" s="8">
+        <f>Setup!Q41/Setup!P41</f>
         <v>4.2516949999999998</v>
       </c>
-      <c r="R41" s="5">
+      <c r="S41" s="5">
         <v>1120</v>
       </c>
-      <c r="S41" s="8">
-        <f>Setup!R41-Setup!F41-Setup!G41-2+5</f>
+      <c r="T41" s="8">
+        <f>Setup!S41-Setup!G41-Setup!H41-2+5</f>
         <v>813.28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>2</v>
       </c>
@@ -3616,54 +3763,57 @@
       <c r="D42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="5">
         <v>537.6</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>300.31</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <v>1.48</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>841.2</v>
       </c>
-      <c r="J42" s="7">
-        <f>AVERAGE(Setup!H42:I42)</f>
+      <c r="K42" s="7">
+        <f>AVERAGE(Setup!I42:J42)</f>
         <v>841.2</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8">
-        <f>Setup!J42-(Setup!E42+Setup!F42+Setup!G42)</f>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8">
+        <f>Setup!K42-(Setup!F42+Setup!G42+Setup!H42)</f>
         <v>1.8099999999999454</v>
       </c>
-      <c r="M42" s="9">
+      <c r="N42" s="9">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19.86</v>
       </c>
-      <c r="O42" s="10">
-        <f>Setup!M42*Setup!G42/1000</f>
+      <c r="P42" s="10">
+        <f>Setup!N42*Setup!H42/1000</f>
         <v>1.48</v>
       </c>
-      <c r="P42" s="7">
-        <f>Setup!F42*Setup!N42/1000</f>
+      <c r="Q42" s="7">
+        <f>Setup!G42*Setup!O42/1000</f>
         <v>5.9641565999999999</v>
       </c>
-      <c r="Q42" s="8">
-        <f>Setup!P42/Setup!O42</f>
+      <c r="R42" s="8">
+        <f>Setup!Q42/Setup!P42</f>
         <v>4.0298355405405406</v>
       </c>
-      <c r="R42" s="5">
+      <c r="S42" s="5">
         <v>1120</v>
       </c>
-      <c r="S42" s="8">
-        <f>Setup!R42-Setup!F42-Setup!G42-2+5</f>
+      <c r="T42" s="8">
+        <f>Setup!S42-Setup!G42-Setup!H42-2+5</f>
         <v>821.21</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>2</v>
       </c>
@@ -3676,54 +3826,57 @@
       <c r="D43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="5">
         <v>536.89</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>331.33</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>1.52</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>871.6</v>
       </c>
-      <c r="J43" s="7">
-        <f>AVERAGE(Setup!H43:I43)</f>
+      <c r="K43" s="7">
+        <f>AVERAGE(Setup!I43:J43)</f>
         <v>871.6</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8">
-        <f>Setup!J43-(Setup!E43+Setup!F43+Setup!G43)</f>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8">
+        <f>Setup!K43-(Setup!F43+Setup!G43+Setup!H43)</f>
         <v>1.8600000000000136</v>
       </c>
-      <c r="M43" s="9">
+      <c r="N43" s="9">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19.86</v>
       </c>
-      <c r="O43" s="10">
-        <f>Setup!M43*Setup!G43/1000</f>
+      <c r="P43" s="10">
+        <f>Setup!N43*Setup!H43/1000</f>
         <v>1.52</v>
       </c>
-      <c r="P43" s="7">
-        <f>Setup!F43*Setup!N43/1000</f>
+      <c r="Q43" s="7">
+        <f>Setup!G43*Setup!O43/1000</f>
         <v>6.5802137999999992</v>
       </c>
-      <c r="Q43" s="8">
-        <f>Setup!P43/Setup!O43</f>
+      <c r="R43" s="8">
+        <f>Setup!Q43/Setup!P43</f>
         <v>4.3290880263157892</v>
       </c>
-      <c r="R43" s="5">
+      <c r="S43" s="5">
         <v>1120</v>
       </c>
-      <c r="S43" s="8">
-        <f>Setup!R43-Setup!F43-Setup!G43-2+5</f>
+      <c r="T43" s="8">
+        <f>Setup!S43-Setup!G43-Setup!H43-2+5</f>
         <v>790.15000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>2</v>
       </c>
@@ -3733,23 +3886,26 @@
       <c r="C44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="5">
+      <c r="D44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="5">
         <v>541.12</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>826.9</v>
       </c>
-      <c r="J44" s="7">
-        <f>AVERAGE(Setup!H44:I44)</f>
+      <c r="K44" s="7">
+        <f>AVERAGE(Setup!I44:J44)</f>
         <v>826.9</v>
       </c>
-      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="19"/>
-      <c r="S44" s="8"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M44" s="8"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="19"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>2</v>
       </c>
@@ -3759,17 +3915,20 @@
       <c r="C45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="5">
+      <c r="D45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="5">
         <v>1073.5999999999999</v>
       </c>
-      <c r="J45" s="7">
-        <f>AVERAGE(Setup!H45:I45)</f>
+      <c r="K45" s="7">
+        <f>AVERAGE(Setup!I45:J45)</f>
         <v>1073.5999999999999</v>
       </c>
-      <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="19"/>
+      <c r="M45" s="8"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3787,22 +3946,22 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.87890625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1171875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.76171875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.64453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.64453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="21" customWidth="1"/>
     <col min="8" max="8" width="28" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1171875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.234375" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.1171875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.125" style="22" customWidth="1"/>
     <col min="12" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3872,7 +4031,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -3904,7 +4063,7 @@
         <v>1036.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -3936,7 +4095,7 @@
         <v>1032.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -3968,7 +4127,7 @@
         <v>1078.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -4000,7 +4159,7 @@
         <v>1046.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>1</v>
       </c>
@@ -4032,7 +4191,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1</v>
       </c>
@@ -4064,7 +4223,7 @@
         <v>1028.5999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -4096,7 +4255,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>1</v>
       </c>
@@ -4128,7 +4287,7 @@
         <v>1023.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>1</v>
       </c>
@@ -4160,7 +4319,7 @@
         <v>1037.9000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>1</v>
       </c>
@@ -4192,7 +4351,7 @@
         <v>1057.5999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>1</v>
       </c>
@@ -4224,7 +4383,7 @@
         <v>1065.9000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -4256,7 +4415,7 @@
         <v>1055.9000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>1</v>
       </c>
@@ -4288,7 +4447,7 @@
         <v>1045.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>1</v>
       </c>
@@ -4320,7 +4479,7 @@
         <v>1058.7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -4352,7 +4511,7 @@
         <v>1036.4000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>1</v>
       </c>
@@ -4384,7 +4543,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>1</v>
       </c>
@@ -4416,7 +4575,7 @@
         <v>1029.9000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>1</v>
       </c>
@@ -4448,7 +4607,7 @@
         <v>1025.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>1</v>
       </c>
@@ -4480,7 +4639,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>1</v>
       </c>
@@ -4512,7 +4671,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>1</v>
       </c>
@@ -4544,7 +4703,7 @@
         <v>1057.7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>1</v>
       </c>
@@ -4576,7 +4735,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>1</v>
       </c>
@@ -4608,7 +4767,7 @@
         <v>1051.5999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>1</v>
       </c>
@@ -4640,7 +4799,7 @@
         <v>1065.5999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>1</v>
       </c>
@@ -4670,7 +4829,7 @@
         <v>1055.5999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>1</v>
       </c>
@@ -4705,7 +4864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>1</v>
       </c>
@@ -4735,7 +4894,7 @@
         <v>1023.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>1</v>
       </c>
@@ -4767,7 +4926,7 @@
         <v>1037.3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>1</v>
       </c>
@@ -4799,7 +4958,7 @@
         <v>1057.0999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>1</v>
       </c>
@@ -4829,7 +4988,7 @@
         <v>1028.4000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>1</v>
       </c>
@@ -4864,7 +5023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>1</v>
       </c>
@@ -4896,7 +5055,7 @@
         <v>1037.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>1</v>
       </c>
@@ -4928,7 +5087,7 @@
         <v>1037.8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>1</v>
       </c>
@@ -4960,7 +5119,7 @@
         <v>1028.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>1</v>
       </c>
@@ -4995,7 +5154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>1</v>
       </c>
@@ -5027,7 +5186,7 @@
         <v>1036.3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>1</v>
       </c>
@@ -5059,7 +5218,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>1</v>
       </c>
@@ -5091,7 +5250,7 @@
         <v>1078.2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>1</v>
       </c>
@@ -5123,7 +5282,7 @@
         <v>1046.5999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>1</v>
       </c>
@@ -5146,7 +5305,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>1</v>
       </c>
@@ -5178,7 +5337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>1</v>
       </c>
@@ -5210,7 +5369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>1</v>
       </c>
@@ -5239,7 +5398,7 @@
         <v>1049.9000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>1</v>
       </c>
@@ -5265,7 +5424,7 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>1</v>
       </c>
@@ -5297,7 +5456,7 @@
         <v>1022.6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>1</v>
       </c>
@@ -5329,7 +5488,7 @@
         <v>1036.5999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>1</v>
       </c>
@@ -5361,7 +5520,7 @@
         <v>1056.5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>1</v>
       </c>
@@ -5393,7 +5552,7 @@
         <v>1065.0999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>1</v>
       </c>
@@ -5425,7 +5584,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>1</v>
       </c>
@@ -5460,7 +5619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>1</v>
       </c>
@@ -5492,7 +5651,7 @@
         <v>1037.4000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>1</v>
       </c>
@@ -5524,7 +5683,7 @@
         <v>1027.9000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>1</v>
       </c>
@@ -5556,7 +5715,7 @@
         <v>1053.9000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>1</v>
       </c>
@@ -5588,7 +5747,7 @@
         <v>1036.2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>1</v>
       </c>
@@ -5620,7 +5779,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>1</v>
       </c>
@@ -5652,7 +5811,7 @@
         <v>1078.2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>1</v>
       </c>
@@ -5687,7 +5846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>1</v>
       </c>
@@ -5710,7 +5869,7 @@
         <v>1073.8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>1</v>
       </c>
@@ -5742,7 +5901,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <v>1</v>
       </c>
@@ -5774,7 +5933,7 @@
         <v>1055.5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>1</v>
       </c>
@@ -5806,7 +5965,7 @@
         <v>1033.3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>1</v>
       </c>
@@ -5838,7 +5997,7 @@
         <v>1049.4000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>1</v>
       </c>
@@ -5870,7 +6029,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>1</v>
       </c>
@@ -5902,7 +6061,7 @@
         <v>1064.0999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>1</v>
       </c>
@@ -5934,7 +6093,7 @@
         <v>1054.0999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>1</v>
       </c>
@@ -5966,7 +6125,7 @@
         <v>1043.7</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>1</v>
       </c>
@@ -5998,7 +6157,7 @@
         <v>1036.5</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>1</v>
       </c>
@@ -6030,7 +6189,7 @@
         <v>1027.2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>1</v>
       </c>
@@ -6062,7 +6221,7 @@
         <v>1053.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>1</v>
       </c>
@@ -6094,7 +6253,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>1</v>
       </c>
@@ -6126,7 +6285,7 @@
         <v>1036.2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>1</v>
       </c>
@@ -6158,7 +6317,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>1</v>
       </c>
@@ -6184,7 +6343,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>1</v>
       </c>
@@ -6207,7 +6366,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>1</v>
       </c>
@@ -6239,7 +6398,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>1</v>
       </c>
@@ -6271,7 +6430,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>1</v>
       </c>
@@ -6303,7 +6462,7 @@
         <v>1052.8</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
         <v>1</v>
       </c>
@@ -6335,7 +6494,7 @@
         <v>1063.3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="21">
         <v>1</v>
       </c>
@@ -6367,7 +6526,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
         <v>1</v>
       </c>
@@ -6399,7 +6558,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="21">
         <v>1</v>
       </c>
@@ -6431,7 +6590,7 @@
         <v>1021.8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="21">
         <v>1</v>
       </c>
@@ -6463,7 +6622,7 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
         <v>1</v>
       </c>
@@ -6495,7 +6654,7 @@
         <v>1055.7</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
         <v>1</v>
       </c>
@@ -6527,7 +6686,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
         <v>1</v>
       </c>
@@ -6559,7 +6718,7 @@
         <v>1032.8</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
         <v>1</v>
       </c>
@@ -6591,7 +6750,7 @@
         <v>1048.9000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
         <v>1</v>
       </c>
@@ -6623,7 +6782,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
         <v>1</v>
       </c>
@@ -6655,7 +6814,7 @@
         <v>1031.8</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
         <v>1</v>
       </c>
@@ -6687,7 +6846,7 @@
         <v>1077.9000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
         <v>1</v>
       </c>
@@ -6719,7 +6878,7 @@
         <v>1046.4000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
         <v>1</v>
       </c>
@@ -6751,7 +6910,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>1</v>
       </c>
@@ -6783,7 +6942,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
         <v>1</v>
       </c>
@@ -6815,7 +6974,7 @@
         <v>1031.7</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
         <v>1</v>
       </c>
@@ -6847,7 +7006,7 @@
         <v>1077.8</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
         <v>1</v>
       </c>
@@ -6879,7 +7038,7 @@
         <v>1046.3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
         <v>1</v>
       </c>
@@ -6911,7 +7070,7 @@
         <v>1054.7</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
         <v>1</v>
       </c>
@@ -6943,7 +7102,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
         <v>1</v>
       </c>
@@ -6975,7 +7134,7 @@
         <v>1048.5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
         <v>1</v>
       </c>
@@ -7007,7 +7166,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>1</v>
       </c>
@@ -7039,7 +7198,7 @@
         <v>1063.2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>1</v>
       </c>
@@ -7071,7 +7230,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
         <v>1</v>
       </c>
@@ -7103,7 +7262,7 @@
         <v>1042.8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
         <v>1</v>
       </c>
@@ -7135,7 +7294,7 @@
         <v>1021.5</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>1</v>
       </c>
@@ -7167,7 +7326,7 @@
         <v>1035.5999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>1</v>
       </c>
@@ -7199,7 +7358,7 @@
         <v>1055.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>1</v>
       </c>
@@ -7231,7 +7390,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>1</v>
       </c>
@@ -7263,7 +7422,7 @@
         <v>1026.4000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
         <v>1</v>
       </c>
@@ -7295,7 +7454,7 @@
         <v>1052.4000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
         <v>1</v>
       </c>
@@ -7318,7 +7477,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
         <v>1</v>
       </c>
@@ -7341,7 +7500,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
         <v>1</v>
       </c>
@@ -7373,7 +7532,7 @@
         <v>1021.2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
         <v>1</v>
       </c>
@@ -7405,7 +7564,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
         <v>1</v>
       </c>
@@ -7437,7 +7596,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>1</v>
       </c>
@@ -7469,7 +7628,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
         <v>1</v>
       </c>
@@ -7501,7 +7660,7 @@
         <v>1026.0999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
         <v>1</v>
       </c>
@@ -7533,7 +7692,7 @@
         <v>1052.0999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
         <v>1</v>
       </c>
@@ -7565,7 +7724,7 @@
         <v>1054.3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
         <v>1</v>
       </c>
@@ -7597,7 +7756,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
         <v>1</v>
       </c>
@@ -7629,7 +7788,7 @@
         <v>1048.0999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
         <v>1</v>
       </c>
@@ -7664,7 +7823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
         <v>1</v>
       </c>
@@ -7696,7 +7855,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
         <v>1</v>
       </c>
@@ -7728,7 +7887,7 @@
         <v>1042.5999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="21">
         <v>1</v>
       </c>
@@ -7760,7 +7919,7 @@
         <v>1035.8</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="21">
         <v>1</v>
       </c>
@@ -7792,7 +7951,7 @@
         <v>1031.5999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>1</v>
       </c>
@@ -7824,7 +7983,7 @@
         <v>1077.5999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>1</v>
       </c>
@@ -7856,7 +8015,7 @@
         <v>1046.2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
         <v>1</v>
       </c>
@@ -7891,7 +8050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>1</v>
       </c>
@@ -7923,7 +8082,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>1</v>
       </c>
@@ -7955,7 +8114,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
         <v>1</v>
       </c>
@@ -7987,7 +8146,7 @@
         <v>1054.9000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>1</v>
       </c>
@@ -8019,7 +8178,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>1</v>
       </c>
@@ -8051,7 +8210,7 @@
         <v>1025.9000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
         <v>1</v>
       </c>
@@ -8083,7 +8242,7 @@
         <v>1051.8</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>1</v>
       </c>
@@ -8115,7 +8274,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>1</v>
       </c>
@@ -8147,7 +8306,7 @@
         <v>1031.9000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
         <v>1</v>
       </c>
@@ -8179,7 +8338,7 @@
         <v>1047.9000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>1</v>
       </c>
@@ -8211,7 +8370,7 @@
         <v>1062.9000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
         <v>1</v>
       </c>
@@ -8243,7 +8402,7 @@
         <v>1052.5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
         <v>1</v>
       </c>
@@ -8275,7 +8434,7 @@
         <v>1042.5</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>1</v>
       </c>
@@ -8307,7 +8466,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
         <v>1</v>
       </c>
@@ -8339,7 +8498,7 @@
         <v>1031.4000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
         <v>1</v>
       </c>
@@ -8371,7 +8530,7 @@
         <v>1077.5</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
         <v>1</v>
       </c>
@@ -8403,7 +8562,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
         <v>1</v>
       </c>
@@ -8435,7 +8594,7 @@
         <v>1033.9000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
         <v>1</v>
       </c>
@@ -8458,7 +8617,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
         <v>1</v>
       </c>
@@ -8490,7 +8649,7 @@
         <v>1035.5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
         <v>1</v>
       </c>
@@ -8522,7 +8681,7 @@
         <v>1031.3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
         <v>1</v>
       </c>
@@ -8557,7 +8716,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
         <v>1</v>
       </c>
@@ -8589,7 +8748,7 @@
         <v>1045.9000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
         <v>1</v>
       </c>
@@ -8621,7 +8780,7 @@
         <v>1062.7</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
         <v>1</v>
       </c>
@@ -8653,7 +8812,7 @@
         <v>1052.3</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
         <v>1</v>
       </c>
@@ -8685,7 +8844,7 @@
         <v>1042.3</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
         <v>1</v>
       </c>
@@ -8717,7 +8876,7 @@
         <v>1033.5999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
         <v>1</v>
       </c>
@@ -8752,7 +8911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
         <v>1</v>
       </c>
@@ -8784,7 +8943,7 @@
         <v>1025.7</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
         <v>1</v>
       </c>
@@ -8816,7 +8975,7 @@
         <v>1051.5999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
         <v>1</v>
       </c>
@@ -8851,7 +9010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
         <v>1</v>
       </c>
@@ -8886,7 +9045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
         <v>1</v>
       </c>
@@ -8921,7 +9080,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
         <v>1</v>
       </c>
@@ -8953,7 +9112,7 @@
         <v>1020.7</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
         <v>1</v>
       </c>
@@ -8985,7 +9144,7 @@
         <v>1034.9000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
         <v>1</v>
       </c>
@@ -9017,7 +9176,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="21">
         <v>1</v>
       </c>
@@ -9040,7 +9199,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="21">
         <v>1</v>
       </c>
@@ -9072,7 +9231,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="21">
         <v>1</v>
       </c>
@@ -9107,7 +9266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="21">
         <v>1</v>
       </c>
@@ -9139,7 +9298,7 @@
         <v>1077.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="21">
         <v>1</v>
       </c>
@@ -9171,7 +9330,7 @@
         <v>1045.7</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="21">
         <v>1</v>
       </c>
@@ -9203,7 +9362,7 @@
         <v>1062.5</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="21">
         <v>1</v>
       </c>
@@ -9235,7 +9394,7 @@
         <v>1052.0999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="21">
         <v>1</v>
       </c>
@@ -9267,7 +9426,7 @@
         <v>1042.2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="21">
         <v>1</v>
       </c>
@@ -9299,7 +9458,7 @@
         <v>1033.4000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="21">
         <v>1</v>
       </c>
@@ -9331,7 +9490,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="21">
         <v>1</v>
       </c>
@@ -9363,7 +9522,7 @@
         <v>1025.5</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="21">
         <v>1</v>
       </c>
@@ -9398,7 +9557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="21">
         <v>1</v>
       </c>
@@ -9430,7 +9589,7 @@
         <v>1053.5</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>1</v>
       </c>
@@ -9462,7 +9621,7 @@
         <v>1031.4000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="21">
         <v>1</v>
       </c>
@@ -9494,7 +9653,7 @@
         <v>1047.3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="21">
         <v>1</v>
       </c>
@@ -9526,7 +9685,7 @@
         <v>1020.5</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="21">
         <v>1</v>
       </c>
@@ -9558,7 +9717,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>1</v>
       </c>
@@ -9590,7 +9749,7 @@
         <v>1054.4000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="21">
         <v>1</v>
       </c>
@@ -9619,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>2</v>
       </c>
@@ -9654,7 +9813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>2</v>
       </c>
@@ -9686,7 +9845,7 @@
         <v>989.9</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="21">
         <v>2</v>
       </c>
@@ -9718,7 +9877,7 @@
         <v>986.5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>2</v>
       </c>
@@ -9750,7 +9909,7 @@
         <v>826.2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>2</v>
       </c>
@@ -9782,7 +9941,7 @@
         <v>842.7</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="21">
         <v>2</v>
       </c>
@@ -9814,7 +9973,7 @@
         <v>839.3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="21">
         <v>2</v>
       </c>
@@ -9846,7 +10005,7 @@
         <v>845.4</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="21">
         <v>2</v>
       </c>
@@ -9878,7 +10037,7 @@
         <v>853.2</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="21">
         <v>2</v>
       </c>
@@ -9910,7 +10069,7 @@
         <v>847.9</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="21">
         <v>2</v>
       </c>
@@ -9942,7 +10101,7 @@
         <v>1037.8</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="21">
         <v>2</v>
       </c>
@@ -9974,7 +10133,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="21">
         <v>2</v>
       </c>
@@ -10006,7 +10165,7 @@
         <v>1049.3</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="21">
         <v>2</v>
       </c>
@@ -10038,7 +10197,7 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="21">
         <v>2</v>
       </c>
@@ -10070,7 +10229,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="21">
         <v>2</v>
       </c>
@@ -10102,7 +10261,7 @@
         <v>847.3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="21">
         <v>2</v>
       </c>
@@ -10134,7 +10293,7 @@
         <v>838.3</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="21">
         <v>2</v>
       </c>
@@ -10166,7 +10325,7 @@
         <v>852.1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="21">
         <v>2</v>
       </c>
@@ -10198,7 +10357,7 @@
         <v>863.3</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="21">
         <v>2</v>
       </c>
@@ -10230,7 +10389,7 @@
         <v>851.1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="21">
         <v>2</v>
       </c>
@@ -10262,7 +10421,7 @@
         <v>841.2</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="21">
         <v>2</v>
       </c>
@@ -10294,7 +10453,7 @@
         <v>871.6</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="21">
         <v>2</v>
       </c>
@@ -10326,7 +10485,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="21">
         <v>2</v>
       </c>
@@ -10358,7 +10517,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="21">
         <v>2</v>
       </c>
@@ -10381,7 +10540,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="21">
         <v>2</v>
       </c>
@@ -10416,7 +10575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="21">
         <v>2</v>
       </c>
@@ -10448,7 +10607,7 @@
         <v>857.2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="21">
         <v>2</v>
       </c>
@@ -10471,7 +10630,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="21">
         <v>2</v>
       </c>
@@ -10506,7 +10665,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="21">
         <v>2</v>
       </c>
@@ -10538,7 +10697,7 @@
         <v>850.9</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="21">
         <v>2</v>
       </c>
@@ -10570,7 +10729,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="21">
         <v>2</v>
       </c>
@@ -10602,7 +10761,7 @@
         <v>871.3</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="21">
         <v>2</v>
       </c>
@@ -10634,7 +10793,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="21">
         <v>2</v>
       </c>
@@ -10666,7 +10825,7 @@
         <v>1021.3</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="21">
         <v>2</v>
       </c>
@@ -10698,7 +10857,7 @@
         <v>1048.5999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="21">
         <v>2</v>
       </c>
@@ -10730,7 +10889,7 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="21">
         <v>2</v>
       </c>
@@ -10762,7 +10921,7 @@
         <v>852.1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="21">
         <v>2</v>
       </c>
@@ -10794,7 +10953,7 @@
         <v>846.9</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="21">
         <v>2</v>
       </c>
@@ -10826,7 +10985,7 @@
         <v>825.3</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="21">
         <v>2</v>
       </c>
@@ -10858,7 +11017,7 @@
         <v>841.8</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="21">
         <v>2</v>
       </c>
@@ -10890,7 +11049,7 @@
         <v>838.5</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="21">
         <v>2</v>
       </c>
@@ -10922,7 +11081,7 @@
         <v>959.8</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="21">
         <v>2</v>
       </c>
@@ -10954,7 +11113,7 @@
         <v>989.8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="21">
         <v>2</v>
       </c>
@@ -10986,7 +11145,7 @@
         <v>986.4</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="21">
         <v>2</v>
       </c>
@@ -11018,7 +11177,7 @@
         <v>838.2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="21">
         <v>2</v>
       </c>
@@ -11050,7 +11209,7 @@
         <v>851.9</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="21">
         <v>2</v>
       </c>
@@ -11082,7 +11241,7 @@
         <v>863.2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="21">
         <v>2</v>
       </c>
@@ -11105,7 +11264,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="21">
         <v>2</v>
       </c>
@@ -11137,7 +11296,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="21">
         <v>2</v>
       </c>
@@ -11169,7 +11328,7 @@
         <v>851.8</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="21">
         <v>2</v>
       </c>
@@ -11201,7 +11360,7 @@
         <v>863.1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="21">
         <v>2</v>
       </c>
@@ -11233,7 +11392,7 @@
         <v>824.3</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="21">
         <v>2</v>
       </c>
@@ -11265,7 +11424,7 @@
         <v>840.8</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="21">
         <v>2</v>
       </c>
@@ -11297,7 +11456,7 @@
         <v>837.5</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="21">
         <v>2</v>
       </c>
@@ -11320,7 +11479,7 @@
         <v>405.96</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="21">
         <v>2</v>
       </c>
@@ -11343,7 +11502,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="21">
         <v>2</v>
       </c>
@@ -11375,7 +11534,7 @@
         <v>959.7</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="21">
         <v>2</v>
       </c>
@@ -11407,7 +11566,7 @@
         <v>989.7</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="21">
         <v>2</v>
       </c>
@@ -11442,7 +11601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="21">
         <v>2</v>
       </c>
@@ -11474,7 +11633,7 @@
         <v>1036.4000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="21">
         <v>2</v>
       </c>
@@ -11506,7 +11665,7 @@
         <v>1020.6</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="21">
         <v>2</v>
       </c>
@@ -11538,7 +11697,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="21">
         <v>2</v>
       </c>
@@ -11570,7 +11729,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="21">
         <v>2</v>
       </c>
@@ -11602,7 +11761,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="21">
         <v>2</v>
       </c>
@@ -11634,7 +11793,7 @@
         <v>845.7</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="21">
         <v>2</v>
       </c>
@@ -11666,7 +11825,7 @@
         <v>949.3</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="21">
         <v>2</v>
       </c>
@@ -11698,7 +11857,7 @@
         <v>856.4</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="21">
         <v>2</v>
       </c>
@@ -11730,7 +11889,7 @@
         <v>845.8</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="21">
         <v>2</v>
       </c>
@@ -11762,7 +11921,7 @@
         <v>850.6</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="21">
         <v>2</v>
       </c>
@@ -11794,7 +11953,7 @@
         <v>840.8</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="21">
         <v>2</v>
       </c>
@@ -11826,7 +11985,7 @@
         <v>871.1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="21">
         <v>2</v>
       </c>
@@ -11858,7 +12017,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="21">
         <v>2</v>
       </c>
@@ -11890,7 +12049,7 @@
         <v>855.7</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="21">
         <v>2</v>
       </c>
@@ -11922,7 +12081,7 @@
         <v>845.2</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="21">
         <v>2</v>
       </c>
@@ -11954,7 +12113,7 @@
         <v>849.8</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="21">
         <v>2</v>
       </c>
@@ -11986,7 +12145,7 @@
         <v>839.9</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="21">
         <v>2</v>
       </c>
@@ -12018,7 +12177,7 @@
         <v>870.2</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="21">
         <v>2</v>
       </c>
@@ -12050,7 +12209,7 @@
         <v>1035.8</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="21">
         <v>2</v>
       </c>
@@ -12082,7 +12241,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="21">
         <v>2</v>
       </c>
@@ -12114,7 +12273,7 @@
         <v>1047.5</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="21">
         <v>2</v>
       </c>
@@ -12146,7 +12305,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="21">
         <v>2</v>
       </c>
@@ -12178,7 +12337,7 @@
         <v>850.5</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="21">
         <v>2</v>
       </c>
@@ -12210,7 +12369,7 @@
         <v>845.3</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="21">
         <v>2</v>
       </c>
@@ -12242,7 +12401,7 @@
         <v>823.8</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="21">
         <v>2</v>
       </c>
@@ -12274,7 +12433,7 @@
         <v>840.3</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="21">
         <v>2</v>
       </c>
@@ -12306,7 +12465,7 @@
         <v>837.1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="21">
         <v>2</v>
       </c>
@@ -12341,7 +12500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="21">
         <v>2</v>
       </c>
@@ -12373,7 +12532,7 @@
         <v>989.6</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="21">
         <v>2</v>
       </c>
@@ -12405,7 +12564,7 @@
         <v>986.2</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="21">
         <v>2</v>
       </c>
@@ -12437,7 +12596,7 @@
         <v>837.4</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="21">
         <v>2</v>
       </c>
@@ -12469,7 +12628,7 @@
         <v>851.3</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="21">
         <v>2</v>
       </c>
@@ -12501,7 +12660,7 @@
         <v>862.4</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="21">
         <v>2</v>
       </c>
@@ -12527,7 +12686,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="21">
         <v>2</v>
       </c>
@@ -12553,7 +12712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="21">
         <v>2</v>
       </c>
@@ -12579,7 +12738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="21">
         <v>2</v>
       </c>
@@ -12611,7 +12770,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="21">
         <v>2</v>
       </c>
@@ -12643,7 +12802,7 @@
         <v>850.9</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="21">
         <v>2</v>
       </c>
@@ -12675,7 +12834,7 @@
         <v>861.9</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="21">
         <v>2</v>
       </c>
@@ -12707,7 +12866,7 @@
         <v>823.5</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="21">
         <v>2</v>
       </c>
@@ -12739,7 +12898,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="21">
         <v>2</v>
       </c>
@@ -12771,7 +12930,7 @@
         <v>836.8</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="21">
         <v>2</v>
       </c>
@@ -12803,7 +12962,7 @@
         <v>959.6</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="21">
         <v>2</v>
       </c>
@@ -12835,7 +12994,7 @@
         <v>989.6</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="21">
         <v>2</v>
       </c>
@@ -12867,7 +13026,7 @@
         <v>986.1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="21">
         <v>2</v>
       </c>
@@ -12899,7 +13058,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="21">
         <v>2</v>
       </c>
@@ -12931,7 +13090,7 @@
         <v>1019.5</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="21">
         <v>2</v>
       </c>
@@ -12963,7 +13122,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="21">
         <v>2</v>
       </c>
@@ -12995,7 +13154,7 @@
         <v>842.1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="21">
         <v>2</v>
       </c>
@@ -13027,7 +13186,7 @@
         <v>850.3</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="21">
         <v>2</v>
       </c>
@@ -13059,7 +13218,7 @@
         <v>845.1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="21">
         <v>2</v>
       </c>
@@ -13091,7 +13250,7 @@
         <v>947.9</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="21">
         <v>2</v>
       </c>
@@ -13123,7 +13282,7 @@
         <v>855.1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="21">
         <v>2</v>
       </c>
@@ -13155,7 +13314,7 @@
         <v>844.8</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="21">
         <v>2</v>
       </c>
@@ -13187,7 +13346,7 @@
         <v>849.5</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="21">
         <v>2</v>
       </c>
@@ -13219,7 +13378,7 @@
         <v>839.6</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="21">
         <v>2</v>
       </c>
@@ -13251,7 +13410,7 @@
         <v>869.8</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="21">
         <v>2</v>
       </c>
@@ -13274,7 +13433,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="21">
         <v>2</v>
       </c>
@@ -13297,7 +13456,7 @@
         <v>405.97</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="21">
         <v>2</v>
       </c>
@@ -13320,7 +13479,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="21">
         <v>2</v>
       </c>
@@ -13352,7 +13511,7 @@
         <v>849.3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="21">
         <v>2</v>
       </c>
@@ -13384,7 +13543,7 @@
         <v>839.5</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="21">
         <v>2</v>
       </c>
@@ -13416,7 +13575,7 @@
         <v>869.7</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="21">
         <v>2</v>
       </c>
@@ -13448,7 +13607,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="21">
         <v>2</v>
       </c>
@@ -13480,7 +13639,7 @@
         <v>850.1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="21">
         <v>2</v>
       </c>
@@ -13512,7 +13671,7 @@
         <v>844.9</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="21">
         <v>2</v>
       </c>
@@ -13544,7 +13703,7 @@
         <v>947.6</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="21">
         <v>2</v>
       </c>
@@ -13576,7 +13735,7 @@
         <v>854.8</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="21">
         <v>2</v>
       </c>
@@ -13608,7 +13767,7 @@
         <v>844.5</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="21">
         <v>2</v>
       </c>
@@ -13640,7 +13799,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="21">
         <v>2</v>
       </c>
@@ -13672,7 +13831,7 @@
         <v>1019.2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="21">
         <v>2</v>
       </c>
@@ -13707,7 +13866,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="21">
         <v>2</v>
       </c>
@@ -13739,7 +13898,7 @@
         <v>823.2</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="21">
         <v>2</v>
       </c>
@@ -13774,7 +13933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="21">
         <v>2</v>
       </c>
@@ -13806,7 +13965,7 @@
         <v>836.6</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="21">
         <v>2</v>
       </c>
@@ -13838,7 +13997,7 @@
         <v>959.5</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="21">
         <v>2</v>
       </c>
@@ -13870,7 +14029,7 @@
         <v>989.5</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="21">
         <v>2</v>
       </c>
@@ -13902,7 +14061,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="21">
         <v>2</v>
       </c>
@@ -13934,7 +14093,7 @@
         <v>836.8</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="21">
         <v>2</v>
       </c>
@@ -13966,7 +14125,7 @@
         <v>850.6</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="21">
         <v>2</v>
       </c>
@@ -13998,7 +14157,7 @@
         <v>861.6</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="21">
         <v>2</v>
       </c>
@@ -14021,7 +14180,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="21">
         <v>2</v>
       </c>
@@ -14044,7 +14203,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="21">
         <v>2</v>
       </c>
@@ -14067,7 +14226,7 @@
         <v>405.96</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="21">
         <v>2</v>
       </c>
@@ -14102,7 +14261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="21">
         <v>2</v>
       </c>
@@ -14134,7 +14293,7 @@
         <v>850.4</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="21">
         <v>2</v>
       </c>
@@ -14166,7 +14325,7 @@
         <v>861.4</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="21">
         <v>2</v>
       </c>
@@ -14198,7 +14357,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="21">
         <v>2</v>
       </c>
@@ -14230,7 +14389,7 @@
         <v>839.5</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="21">
         <v>2</v>
       </c>
@@ -14262,7 +14421,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="21">
         <v>2</v>
       </c>
@@ -14294,7 +14453,7 @@
         <v>959.3</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="21">
         <v>2</v>
       </c>
@@ -14326,7 +14485,7 @@
         <v>989.3</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="21">
         <v>2</v>
       </c>
@@ -14358,7 +14517,7 @@
         <v>985.9</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="21">
         <v>2</v>
       </c>
@@ -14390,7 +14549,7 @@
         <v>841.8</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="21">
         <v>2</v>
       </c>
@@ -14422,7 +14581,7 @@
         <v>849.9</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="21">
         <v>2</v>
       </c>
@@ -14454,7 +14613,7 @@
         <v>844.7</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="21">
         <v>2</v>
       </c>
@@ -14486,7 +14645,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="21">
         <v>2</v>
       </c>
@@ -14521,7 +14680,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="21">
         <v>2</v>
       </c>
@@ -14553,7 +14712,7 @@
         <v>1046.5</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="21">
         <v>2</v>
       </c>
@@ -14585,7 +14744,7 @@
         <v>849.2</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="21">
         <v>2</v>
       </c>
@@ -14617,7 +14776,7 @@
         <v>839.4</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="21">
         <v>2</v>
       </c>
@@ -14652,7 +14811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="21">
         <v>2</v>
       </c>
@@ -14684,7 +14843,7 @@
         <v>947.2</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="21">
         <v>2</v>
       </c>
@@ -14719,7 +14878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="21">
         <v>2</v>
       </c>
@@ -14751,7 +14910,7 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="21">
         <v>2</v>
       </c>
@@ -14771,7 +14930,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="21">
         <v>2</v>
       </c>
@@ -14791,7 +14950,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="21">
         <v>2</v>
       </c>
@@ -14811,7 +14970,7 @@
         <v>405.96</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="21">
         <v>2</v>
       </c>
@@ -14843,7 +15002,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="21">
         <v>2</v>
       </c>
@@ -14875,7 +15034,7 @@
         <v>854.4</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="21">
         <v>2</v>
       </c>
@@ -14907,7 +15066,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="21">
         <v>2</v>
       </c>
@@ -14939,7 +15098,7 @@
         <v>1034.5</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="21">
         <v>2</v>
       </c>
@@ -14971,7 +15130,7 @@
         <v>1018.7</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="21">
         <v>2</v>
       </c>
@@ -15003,7 +15162,7 @@
         <v>1046.3</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="21">
         <v>2</v>
       </c>
@@ -15035,7 +15194,7 @@
         <v>959.2</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="21">
         <v>2</v>
       </c>
@@ -15067,7 +15226,7 @@
         <v>989.2</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="21">
         <v>2</v>
       </c>
@@ -15099,7 +15258,7 @@
         <v>985.8</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="21">
         <v>2</v>
       </c>
@@ -15131,7 +15290,7 @@
         <v>849.1</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="21">
         <v>2</v>
       </c>
@@ -15163,7 +15322,7 @@
         <v>839.3</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="21">
         <v>2</v>
       </c>
@@ -15195,7 +15354,7 @@
         <v>869.5</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="21">
         <v>2</v>
       </c>
@@ -15227,7 +15386,7 @@
         <v>841.6</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="21">
         <v>2</v>
       </c>
@@ -15259,7 +15418,7 @@
         <v>849.8</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="21">
         <v>2</v>
       </c>
@@ -15291,7 +15450,7 @@
         <v>844.6</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="21">
         <v>2</v>
       </c>
@@ -15323,7 +15482,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="21">
         <v>2</v>
       </c>
@@ -15355,7 +15514,7 @@
         <v>850.3</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="21">
         <v>2</v>
       </c>
@@ -15387,7 +15546,7 @@
         <v>861.3</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="21">
         <v>2</v>
       </c>
@@ -15419,7 +15578,7 @@
         <v>822.9</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="21">
         <v>2</v>
       </c>
@@ -15451,7 +15610,7 @@
         <v>839.4</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="21">
         <v>2</v>
       </c>
@@ -15483,7 +15642,7 @@
         <v>836.3</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="21">
         <v>2</v>
       </c>
@@ -15503,7 +15662,7 @@
         <v>1073.5</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="21">
         <v>2</v>
       </c>
@@ -15523,7 +15682,7 @@
         <v>826.8</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="21">
         <v>2</v>
       </c>
@@ -15543,7 +15702,7 @@
         <v>405.94</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="21">
         <v>2</v>
       </c>
@@ -15575,7 +15734,7 @@
         <v>946.8</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="21">
         <v>2</v>
       </c>
@@ -15607,7 +15766,7 @@
         <v>854.2</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="21">
         <v>2</v>
       </c>
@@ -15639,7 +15798,7 @@
         <v>843.9</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="21">
         <v>2</v>
       </c>
@@ -15671,7 +15830,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="21">
         <v>2</v>
       </c>
@@ -15703,7 +15862,7 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="21">
         <v>2</v>
       </c>
@@ -15735,7 +15894,7 @@
         <v>1046.2</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="21">
         <v>2</v>
       </c>
@@ -15767,7 +15926,7 @@
         <v>959.2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="21">
         <v>2</v>
       </c>
@@ -15799,7 +15958,7 @@
         <v>989.1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="21">
         <v>2</v>
       </c>
@@ -15831,7 +15990,7 @@
         <v>985.7</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="21">
         <v>2</v>
       </c>
@@ -15863,7 +16022,7 @@
         <v>849.1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="21">
         <v>2</v>
       </c>
@@ -15895,7 +16054,7 @@
         <v>839.2</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="21">
         <v>2</v>
       </c>
@@ -15927,7 +16086,7 @@
         <v>869.4</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="21">
         <v>2</v>
       </c>
@@ -15959,7 +16118,7 @@
         <v>841.5</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="21">
         <v>2</v>
       </c>
@@ -15991,7 +16150,7 @@
         <v>849.7</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="21">
         <v>2</v>
       </c>
@@ -16023,7 +16182,7 @@
         <v>844.5</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="21">
         <v>2</v>
       </c>
@@ -16055,7 +16214,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="21">
         <v>2</v>
       </c>
@@ -16087,7 +16246,7 @@
         <v>850.2</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="21">
         <v>2</v>
       </c>
@@ -16119,7 +16278,7 @@
         <v>861.2</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="21">
         <v>2</v>
       </c>
@@ -16151,7 +16310,7 @@
         <v>822.8</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="21">
         <v>2</v>
       </c>
@@ -16186,7 +16345,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="21">
         <v>2</v>
       </c>
@@ -16218,7 +16377,7 @@
         <v>836.2</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="21">
         <v>2</v>
       </c>
@@ -16238,7 +16397,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="21">
         <v>2</v>
       </c>
@@ -16258,7 +16417,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="21">
         <v>2</v>
       </c>
@@ -16278,7 +16437,7 @@
         <v>405.95</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="21">
         <v>2</v>
       </c>
@@ -16313,7 +16472,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="21">
         <v>2</v>
       </c>
@@ -16345,7 +16504,7 @@
         <v>839.1</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="21">
         <v>2</v>
       </c>
@@ -16377,7 +16536,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="21">
         <v>2</v>
       </c>
@@ -16409,7 +16568,7 @@
         <v>841.4</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="21">
         <v>2</v>
       </c>
@@ -16441,7 +16600,7 @@
         <v>849.5</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="21">
         <v>2</v>
       </c>
@@ -16473,7 +16632,7 @@
         <v>844.3</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="21">
         <v>2</v>
       </c>
@@ -16505,7 +16664,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="21">
         <v>2</v>
       </c>
@@ -16537,7 +16696,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="21">
         <v>2</v>
       </c>
@@ -16569,7 +16728,7 @@
         <v>985.5</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="21">
         <v>2</v>
       </c>
@@ -16601,7 +16760,7 @@
         <v>946.5</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="21">
         <v>2</v>
       </c>
@@ -16636,7 +16795,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="21">
         <v>2</v>
       </c>
@@ -16671,7 +16830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="21">
         <v>2</v>
       </c>
@@ -16703,7 +16862,7 @@
         <v>836.2</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="21">
         <v>2</v>
       </c>
@@ -16735,7 +16894,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="21">
         <v>2</v>
       </c>
@@ -16767,7 +16926,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="21">
         <v>2</v>
       </c>
@@ -16799,7 +16958,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="21">
         <v>2</v>
       </c>
@@ -16831,7 +16990,7 @@
         <v>839.1</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="21">
         <v>2</v>
       </c>
@@ -16863,7 +17022,7 @@
         <v>869.3</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="21">
         <v>2</v>
       </c>
@@ -16898,7 +17057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="21">
         <v>2</v>
       </c>
@@ -16930,7 +17089,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="21">
         <v>2</v>
       </c>
@@ -16965,7 +17124,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="21">
         <v>2</v>
       </c>
@@ -16985,7 +17144,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="21">
         <v>2</v>
       </c>
@@ -17005,7 +17164,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="21">
         <v>2</v>
       </c>
@@ -17034,20 +17193,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView windowProtection="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.46875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.87890625" style="1"/>
-    <col min="4" max="4" width="49.87890625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="49.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -17061,7 +17220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
@@ -17075,7 +17234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -17089,7 +17248,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>129</v>
       </c>
@@ -17103,7 +17262,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
@@ -17117,7 +17276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>131</v>
       </c>
@@ -17131,7 +17290,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -17145,7 +17304,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>138</v>
       </c>
@@ -17159,19 +17318,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>143</v>
       </c>
@@ -17185,76 +17344,87 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
     </row>
   </sheetData>

--- a/experiments/IISBMP1/data/biogas_and_setup.xlsx
+++ b/experiments/IISBMP1/data/biogas_and_setup.xlsx
@@ -10,13 +10,16 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Biogas" sheetId="4" r:id="rId2"/>
     <sheet name="ChangeLog" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Biogas!$A$1:$K$421</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3960,10 +3963,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K421"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F423" sqref="F423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4016,7 +4020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>1036.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>1032.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>1078.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>1046.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>1</v>
       </c>
@@ -4211,7 +4215,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>1028.5999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>1</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>1023.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>1</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>1037.9000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>1057.5999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>1</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>1065.9000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>1</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>1055.9000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>1</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>1045.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>1</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>1058.7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>1</v>
       </c>
@@ -4531,7 +4535,7 @@
         <v>1036.4000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>1</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>1</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>1029.9000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>1</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>1025.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>1</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>1</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>1</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>1057.7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>1</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>1</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>1051.5999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>1</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>1065.5999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>1</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>1055.5999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>1</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>1</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>1023.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>1</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>1037.3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>1</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>1057.0999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>1</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>1028.4000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>1</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>1</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>1037.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>1</v>
       </c>
@@ -5107,7 +5111,7 @@
         <v>1037.8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>1</v>
       </c>
@@ -5139,7 +5143,7 @@
         <v>1028.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>1</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>1</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>1036.3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>1</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>1</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>1078.2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>1</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>1046.5999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>1</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
         <v>1</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
         <v>1</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20">
         <v>1</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>1049.9000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
         <v>1</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>1</v>
       </c>
@@ -5476,7 +5480,7 @@
         <v>1022.6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>1</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>1036.5999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>1</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>1056.5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>1</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>1065.0999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>1</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
         <v>1</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
         <v>1</v>
       </c>
@@ -5671,7 +5675,7 @@
         <v>1037.4000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>1</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>1027.9000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>1</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>1053.9000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
         <v>1</v>
       </c>
@@ -5767,7 +5771,7 @@
         <v>1036.2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
         <v>1</v>
       </c>
@@ -5799,7 +5803,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>1</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>1078.2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
         <v>1</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20">
         <v>1</v>
       </c>
@@ -5889,7 +5893,7 @@
         <v>1073.8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>1</v>
       </c>
@@ -5921,7 +5925,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>1</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>1055.5</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20">
         <v>1</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>1033.3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>1</v>
       </c>
@@ -6017,7 +6021,7 @@
         <v>1049.4000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20">
         <v>1</v>
       </c>
@@ -6049,7 +6053,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
         <v>1</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>1064.0999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20">
         <v>1</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>1054.0999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>1</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>1043.7</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>1</v>
       </c>
@@ -6177,7 +6181,7 @@
         <v>1036.5</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20">
         <v>1</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>1027.2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20">
         <v>1</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>1053.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20">
         <v>1</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20">
         <v>1</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>1036.2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20">
         <v>1</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20">
         <v>1</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20">
         <v>1</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20">
         <v>1</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20">
         <v>1</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20">
         <v>1</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>1052.8</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20">
         <v>1</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>1063.3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
         <v>1</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
         <v>1</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20">
         <v>1</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>1021.8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>1</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20">
         <v>1</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>1055.7</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
         <v>1</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
         <v>1</v>
       </c>
@@ -6738,7 +6742,7 @@
         <v>1032.8</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
         <v>1</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>1048.9000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20">
         <v>1</v>
       </c>
@@ -6802,7 +6806,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20">
         <v>1</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>1031.8</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20">
         <v>1</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>1077.9000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20">
         <v>1</v>
       </c>
@@ -6898,7 +6902,7 @@
         <v>1046.4000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20">
         <v>1</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20">
         <v>1</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20">
         <v>1</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>1031.7</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20">
         <v>1</v>
       </c>
@@ -7026,7 +7030,7 @@
         <v>1077.8</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20">
         <v>1</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>1046.3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20">
         <v>1</v>
       </c>
@@ -7090,7 +7094,7 @@
         <v>1054.7</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20">
         <v>1</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>1032.5</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20">
         <v>1</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>1048.5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20">
         <v>1</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20">
         <v>1</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>1063.2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
         <v>1</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20">
         <v>1</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>1042.8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20">
         <v>1</v>
       </c>
@@ -7314,7 +7318,7 @@
         <v>1021.5</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20">
         <v>1</v>
       </c>
@@ -7346,7 +7350,7 @@
         <v>1035.5999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20">
         <v>1</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>1055.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20">
         <v>1</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20">
         <v>1</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>1026.4000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20">
         <v>1</v>
       </c>
@@ -7474,7 +7478,7 @@
         <v>1052.4000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20">
         <v>1</v>
       </c>
@@ -7497,7 +7501,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20">
         <v>1</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20">
         <v>1</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>1021.2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20">
         <v>1</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>1035.3</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20">
         <v>1</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>1055.0999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20">
         <v>1</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20">
         <v>1</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>1026.0999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20">
         <v>1</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>1052.0999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20">
         <v>1</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>1054.3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20">
         <v>1</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>1032.0999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20">
         <v>1</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>1048.0999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20">
         <v>1</v>
       </c>
@@ -7843,7 +7847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20">
         <v>1</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20">
         <v>1</v>
       </c>
@@ -7907,7 +7911,7 @@
         <v>1042.5999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20">
         <v>1</v>
       </c>
@@ -7939,7 +7943,7 @@
         <v>1035.8</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20">
         <v>1</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>1031.5999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20">
         <v>1</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>1077.5999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20">
         <v>1</v>
       </c>
@@ -8035,7 +8039,7 @@
         <v>1046.2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20">
         <v>1</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="20">
         <v>1</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="20">
         <v>1</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20">
         <v>1</v>
       </c>
@@ -8166,7 +8170,7 @@
         <v>1054.9000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20">
         <v>1</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>1035.0999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20">
         <v>1</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>1025.9000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20">
         <v>1</v>
       </c>
@@ -8262,7 +8266,7 @@
         <v>1051.8</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20">
         <v>1</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20">
         <v>1</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>1031.9000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20">
         <v>1</v>
       </c>
@@ -8358,7 +8362,7 @@
         <v>1047.9000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20">
         <v>1</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>1062.9000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20">
         <v>1</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>1052.5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20">
         <v>1</v>
       </c>
@@ -8454,7 +8458,7 @@
         <v>1042.5</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20">
         <v>1</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20">
         <v>1</v>
       </c>
@@ -8518,7 +8522,7 @@
         <v>1031.4000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20">
         <v>1</v>
       </c>
@@ -8550,7 +8554,7 @@
         <v>1077.5</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20">
         <v>1</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20">
         <v>1</v>
       </c>
@@ -8614,7 +8618,7 @@
         <v>1033.9000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20">
         <v>1</v>
       </c>
@@ -8637,7 +8641,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20">
         <v>1</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>1035.5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20">
         <v>1</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>1031.3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20">
         <v>1</v>
       </c>
@@ -8736,7 +8740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20">
         <v>1</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>1045.9000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20">
         <v>1</v>
       </c>
@@ -8800,7 +8804,7 @@
         <v>1062.7</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20">
         <v>1</v>
       </c>
@@ -8832,7 +8836,7 @@
         <v>1052.3</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20">
         <v>1</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>1042.3</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20">
         <v>1</v>
       </c>
@@ -8896,7 +8900,7 @@
         <v>1033.5999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20">
         <v>1</v>
       </c>
@@ -8931,7 +8935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20">
         <v>1</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>1025.7</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20">
         <v>1</v>
       </c>
@@ -8995,7 +8999,7 @@
         <v>1051.5999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20">
         <v>1</v>
       </c>
@@ -9030,7 +9034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20">
         <v>1</v>
       </c>
@@ -9065,7 +9069,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20">
         <v>1</v>
       </c>
@@ -9100,7 +9104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20">
         <v>1</v>
       </c>
@@ -9132,7 +9136,7 @@
         <v>1020.7</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20">
         <v>1</v>
       </c>
@@ -9164,7 +9168,7 @@
         <v>1034.9000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20">
         <v>1</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20">
         <v>1</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20">
         <v>1</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20">
         <v>1</v>
       </c>
@@ -9286,7 +9290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20">
         <v>1</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>1077.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20">
         <v>1</v>
       </c>
@@ -9350,7 +9354,7 @@
         <v>1045.7</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20">
         <v>1</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>1062.5</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20">
         <v>1</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>1052.0999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20">
         <v>1</v>
       </c>
@@ -9446,7 +9450,7 @@
         <v>1042.2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20">
         <v>1</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>1033.4000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20">
         <v>1</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20">
         <v>1</v>
       </c>
@@ -9542,7 +9546,7 @@
         <v>1025.5</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20">
         <v>1</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20">
         <v>1</v>
       </c>
@@ -9609,7 +9613,7 @@
         <v>1053.5</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20">
         <v>1</v>
       </c>
@@ -9641,7 +9645,7 @@
         <v>1031.4000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20">
         <v>1</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>1047.3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20">
         <v>1</v>
       </c>
@@ -9705,7 +9709,7 @@
         <v>1020.5</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20">
         <v>1</v>
       </c>
@@ -9737,7 +9741,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20">
         <v>1</v>
       </c>
@@ -9769,7 +9773,7 @@
         <v>1054.4000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="20">
         <v>1</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="20">
         <v>2</v>
       </c>
@@ -9833,7 +9837,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="20">
         <v>2</v>
       </c>
@@ -9865,7 +9869,7 @@
         <v>989.9</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="20">
         <v>2</v>
       </c>
@@ -9897,7 +9901,7 @@
         <v>986.5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="20">
         <v>2</v>
       </c>
@@ -9929,7 +9933,7 @@
         <v>826.2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="20">
         <v>2</v>
       </c>
@@ -9961,7 +9965,7 @@
         <v>842.7</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="20">
         <v>2</v>
       </c>
@@ -9993,7 +9997,7 @@
         <v>839.3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="20">
         <v>2</v>
       </c>
@@ -10025,7 +10029,7 @@
         <v>845.4</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="20">
         <v>2</v>
       </c>
@@ -10057,7 +10061,7 @@
         <v>853.2</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="20">
         <v>2</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>847.9</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="20">
         <v>2</v>
       </c>
@@ -10121,7 +10125,7 @@
         <v>1037.8</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20">
         <v>2</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>1022.1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20">
         <v>2</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>1049.3</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20">
         <v>2</v>
       </c>
@@ -10217,7 +10221,7 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20">
         <v>2</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20">
         <v>2</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>847.3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20">
         <v>2</v>
       </c>
@@ -10313,7 +10317,7 @@
         <v>838.3</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20">
         <v>2</v>
       </c>
@@ -10345,7 +10349,7 @@
         <v>852.1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="20">
         <v>2</v>
       </c>
@@ -10377,7 +10381,7 @@
         <v>863.3</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="20">
         <v>2</v>
       </c>
@@ -10409,7 +10413,7 @@
         <v>851.1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="20">
         <v>2</v>
       </c>
@@ -10441,7 +10445,7 @@
         <v>841.2</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="20">
         <v>2</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>871.6</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="20">
         <v>2</v>
       </c>
@@ -10505,7 +10509,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="20">
         <v>2</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="20">
         <v>2</v>
       </c>
@@ -10560,7 +10564,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="20">
         <v>2</v>
       </c>
@@ -10595,7 +10599,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20">
         <v>2</v>
       </c>
@@ -10627,7 +10631,7 @@
         <v>857.2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="20">
         <v>2</v>
       </c>
@@ -10650,7 +10654,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20">
         <v>2</v>
       </c>
@@ -10685,7 +10689,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="20">
         <v>2</v>
       </c>
@@ -10717,7 +10721,7 @@
         <v>850.9</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="20">
         <v>2</v>
       </c>
@@ -10749,7 +10753,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="20">
         <v>2</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>871.3</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="20">
         <v>2</v>
       </c>
@@ -10813,7 +10817,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="20">
         <v>2</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>1021.3</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="20">
         <v>2</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>1048.5999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="20">
         <v>2</v>
       </c>
@@ -10909,7 +10913,7 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="20">
         <v>2</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>852.1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="20">
         <v>2</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>846.9</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="20">
         <v>2</v>
       </c>
@@ -11005,7 +11009,7 @@
         <v>825.3</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="20">
         <v>2</v>
       </c>
@@ -11037,7 +11041,7 @@
         <v>841.8</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="20">
         <v>2</v>
       </c>
@@ -11069,7 +11073,7 @@
         <v>838.5</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="20">
         <v>2</v>
       </c>
@@ -11101,7 +11105,7 @@
         <v>959.8</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="20">
         <v>2</v>
       </c>
@@ -11133,7 +11137,7 @@
         <v>989.8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="20">
         <v>2</v>
       </c>
@@ -11165,7 +11169,7 @@
         <v>986.4</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="20">
         <v>2</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>838.2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="20">
         <v>2</v>
       </c>
@@ -11229,7 +11233,7 @@
         <v>851.9</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="20">
         <v>2</v>
       </c>
@@ -11261,7 +11265,7 @@
         <v>863.2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="20">
         <v>2</v>
       </c>
@@ -11284,7 +11288,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="20">
         <v>2</v>
       </c>
@@ -11316,7 +11320,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="20">
         <v>2</v>
       </c>
@@ -11348,7 +11352,7 @@
         <v>851.8</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="20">
         <v>2</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>863.1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="20">
         <v>2</v>
       </c>
@@ -11412,7 +11416,7 @@
         <v>824.3</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="20">
         <v>2</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>840.8</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="20">
         <v>2</v>
       </c>
@@ -11476,7 +11480,7 @@
         <v>837.5</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="20">
         <v>2</v>
       </c>
@@ -11499,7 +11503,7 @@
         <v>405.96</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="20">
         <v>2</v>
       </c>
@@ -11522,7 +11526,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="20">
         <v>2</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>959.7</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="20">
         <v>2</v>
       </c>
@@ -11586,7 +11590,7 @@
         <v>989.7</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="20">
         <v>2</v>
       </c>
@@ -11621,7 +11625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="20">
         <v>2</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>1036.4000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="20">
         <v>2</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>1020.6</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="20">
         <v>2</v>
       </c>
@@ -11717,7 +11721,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="20">
         <v>2</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="20">
         <v>2</v>
       </c>
@@ -11781,7 +11785,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="20">
         <v>2</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>845.7</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="20">
         <v>2</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>949.3</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="20">
         <v>2</v>
       </c>
@@ -11877,7 +11881,7 @@
         <v>856.4</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="20">
         <v>2</v>
       </c>
@@ -11909,7 +11913,7 @@
         <v>845.8</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="20">
         <v>2</v>
       </c>
@@ -11941,7 +11945,7 @@
         <v>850.6</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="20">
         <v>2</v>
       </c>
@@ -11973,7 +11977,7 @@
         <v>840.8</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="20">
         <v>2</v>
       </c>
@@ -12005,7 +12009,7 @@
         <v>871.1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="20">
         <v>2</v>
       </c>
@@ -12037,7 +12041,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="20">
         <v>2</v>
       </c>
@@ -12069,7 +12073,7 @@
         <v>855.7</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="20">
         <v>2</v>
       </c>
@@ -12101,7 +12105,7 @@
         <v>845.2</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="20">
         <v>2</v>
       </c>
@@ -12133,7 +12137,7 @@
         <v>849.8</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="20">
         <v>2</v>
       </c>
@@ -12165,7 +12169,7 @@
         <v>839.9</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="20">
         <v>2</v>
       </c>
@@ -12197,7 +12201,7 @@
         <v>870.2</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="20">
         <v>2</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>1035.8</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="20">
         <v>2</v>
       </c>
@@ -12261,7 +12265,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="20">
         <v>2</v>
       </c>
@@ -12293,7 +12297,7 @@
         <v>1047.5</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="20">
         <v>2</v>
       </c>
@@ -12325,7 +12329,7 @@
         <v>842.4</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="20">
         <v>2</v>
       </c>
@@ -12357,7 +12361,7 @@
         <v>850.5</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="20">
         <v>2</v>
       </c>
@@ -12389,7 +12393,7 @@
         <v>845.3</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="20">
         <v>2</v>
       </c>
@@ -12421,7 +12425,7 @@
         <v>823.8</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="20">
         <v>2</v>
       </c>
@@ -12453,7 +12457,7 @@
         <v>840.3</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="20">
         <v>2</v>
       </c>
@@ -12485,7 +12489,7 @@
         <v>837.1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="20">
         <v>2</v>
       </c>
@@ -12520,7 +12524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="20">
         <v>2</v>
       </c>
@@ -12552,7 +12556,7 @@
         <v>989.6</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="20">
         <v>2</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>986.2</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="20">
         <v>2</v>
       </c>
@@ -12616,7 +12620,7 @@
         <v>837.4</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="20">
         <v>2</v>
       </c>
@@ -12648,7 +12652,7 @@
         <v>851.3</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="20">
         <v>2</v>
       </c>
@@ -12680,7 +12684,7 @@
         <v>862.4</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="20">
         <v>2</v>
       </c>
@@ -12706,7 +12710,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="20">
         <v>2</v>
       </c>
@@ -12732,7 +12736,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="20">
         <v>2</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="20">
         <v>2</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="20">
         <v>2</v>
       </c>
@@ -12822,7 +12826,7 @@
         <v>850.9</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="20">
         <v>2</v>
       </c>
@@ -12854,7 +12858,7 @@
         <v>861.9</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="20">
         <v>2</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>823.5</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="20">
         <v>2</v>
       </c>
@@ -12918,7 +12922,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="20">
         <v>2</v>
       </c>
@@ -12950,7 +12954,7 @@
         <v>836.8</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="20">
         <v>2</v>
       </c>
@@ -12982,7 +12986,7 @@
         <v>959.6</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="20">
         <v>2</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>989.6</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="20">
         <v>2</v>
       </c>
@@ -13046,7 +13050,7 @@
         <v>986.1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="20">
         <v>2</v>
       </c>
@@ -13078,7 +13082,7 @@
         <v>1035.4000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="20">
         <v>2</v>
       </c>
@@ -13110,7 +13114,7 @@
         <v>1019.5</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="20">
         <v>2</v>
       </c>
@@ -13142,7 +13146,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="20">
         <v>2</v>
       </c>
@@ -13174,7 +13178,7 @@
         <v>842.1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="20">
         <v>2</v>
       </c>
@@ -13206,7 +13210,7 @@
         <v>850.3</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="20">
         <v>2</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>845.1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="20">
         <v>2</v>
       </c>
@@ -13270,7 +13274,7 @@
         <v>947.9</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="20">
         <v>2</v>
       </c>
@@ -13302,7 +13306,7 @@
         <v>855.1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="20">
         <v>2</v>
       </c>
@@ -13334,7 +13338,7 @@
         <v>844.8</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="20">
         <v>2</v>
       </c>
@@ -13366,7 +13370,7 @@
         <v>849.5</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="20">
         <v>2</v>
       </c>
@@ -13398,7 +13402,7 @@
         <v>839.6</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="20">
         <v>2</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>869.8</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="20">
         <v>2</v>
       </c>
@@ -13453,7 +13457,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="20">
         <v>2</v>
       </c>
@@ -13476,7 +13480,7 @@
         <v>405.97</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="20">
         <v>2</v>
       </c>
@@ -13499,7 +13503,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="20">
         <v>2</v>
       </c>
@@ -13531,7 +13535,7 @@
         <v>849.3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="20">
         <v>2</v>
       </c>
@@ -13563,7 +13567,7 @@
         <v>839.5</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="20">
         <v>2</v>
       </c>
@@ -13595,7 +13599,7 @@
         <v>869.7</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="20">
         <v>2</v>
       </c>
@@ -13627,7 +13631,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="20">
         <v>2</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>850.1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="20">
         <v>2</v>
       </c>
@@ -13691,7 +13695,7 @@
         <v>844.9</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="20">
         <v>2</v>
       </c>
@@ -13723,7 +13727,7 @@
         <v>947.6</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="20">
         <v>2</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>854.8</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="20">
         <v>2</v>
       </c>
@@ -13787,7 +13791,7 @@
         <v>844.5</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="20">
         <v>2</v>
       </c>
@@ -13819,7 +13823,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="20">
         <v>2</v>
       </c>
@@ -13851,7 +13855,7 @@
         <v>1019.2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="20">
         <v>2</v>
       </c>
@@ -13886,7 +13890,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="20">
         <v>2</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>823.2</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="20">
         <v>2</v>
       </c>
@@ -13953,7 +13957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="20">
         <v>2</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>836.6</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="20">
         <v>2</v>
       </c>
@@ -14017,7 +14021,7 @@
         <v>959.5</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="20">
         <v>2</v>
       </c>
@@ -14049,7 +14053,7 @@
         <v>989.5</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="20">
         <v>2</v>
       </c>
@@ -14081,7 +14085,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="20">
         <v>2</v>
       </c>
@@ -14113,7 +14117,7 @@
         <v>836.8</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="20">
         <v>2</v>
       </c>
@@ -14145,7 +14149,7 @@
         <v>850.6</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="20">
         <v>2</v>
       </c>
@@ -14177,7 +14181,7 @@
         <v>861.6</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="20">
         <v>2</v>
       </c>
@@ -14200,7 +14204,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="20">
         <v>2</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="20">
         <v>2</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>405.96</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="20">
         <v>2</v>
       </c>
@@ -14281,7 +14285,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="20">
         <v>2</v>
       </c>
@@ -14313,7 +14317,7 @@
         <v>850.4</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="20">
         <v>2</v>
       </c>
@@ -14345,7 +14349,7 @@
         <v>861.4</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="20">
         <v>2</v>
       </c>
@@ -14377,7 +14381,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="20">
         <v>2</v>
       </c>
@@ -14409,7 +14413,7 @@
         <v>839.5</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="20">
         <v>2</v>
       </c>
@@ -14441,7 +14445,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="20">
         <v>2</v>
       </c>
@@ -14473,7 +14477,7 @@
         <v>959.3</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="20">
         <v>2</v>
       </c>
@@ -14505,7 +14509,7 @@
         <v>989.3</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="20">
         <v>2</v>
       </c>
@@ -14537,7 +14541,7 @@
         <v>985.9</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="20">
         <v>2</v>
       </c>
@@ -14569,7 +14573,7 @@
         <v>841.8</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="20">
         <v>2</v>
       </c>
@@ -14601,7 +14605,7 @@
         <v>849.9</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="20">
         <v>2</v>
       </c>
@@ -14633,7 +14637,7 @@
         <v>844.7</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="20">
         <v>2</v>
       </c>
@@ -14665,7 +14669,7 @@
         <v>1034.7</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="20">
         <v>2</v>
       </c>
@@ -14700,7 +14704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="20">
         <v>2</v>
       </c>
@@ -14732,7 +14736,7 @@
         <v>1046.5</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="20">
         <v>2</v>
       </c>
@@ -14764,7 +14768,7 @@
         <v>849.2</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="20">
         <v>2</v>
       </c>
@@ -14796,7 +14800,7 @@
         <v>839.4</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="20">
         <v>2</v>
       </c>
@@ -14831,7 +14835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="20">
         <v>2</v>
       </c>
@@ -14863,7 +14867,7 @@
         <v>947.2</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="20">
         <v>2</v>
       </c>
@@ -14898,7 +14902,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="20">
         <v>2</v>
       </c>
@@ -14930,7 +14934,7 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="20">
         <v>2</v>
       </c>
@@ -14950,7 +14954,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="20">
         <v>2</v>
       </c>
@@ -14970,7 +14974,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="20">
         <v>2</v>
       </c>
@@ -14990,7 +14994,7 @@
         <v>405.96</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="20">
         <v>2</v>
       </c>
@@ -15022,7 +15026,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="20">
         <v>2</v>
       </c>
@@ -15054,7 +15058,7 @@
         <v>854.4</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="20">
         <v>2</v>
       </c>
@@ -15100,7 +15104,7 @@
         <v>1010</v>
       </c>
       <c r="E353" s="20">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F353" s="20">
         <v>352</v>
@@ -15722,7 +15726,7 @@
         <v>405.94</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="20">
         <v>2</v>
       </c>
@@ -15754,7 +15758,7 @@
         <v>946.8</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="20">
         <v>2</v>
       </c>
@@ -15786,7 +15790,7 @@
         <v>854.2</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="20">
         <v>2</v>
       </c>
@@ -15818,7 +15822,7 @@
         <v>843.9</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="20">
         <v>2</v>
       </c>
@@ -15850,7 +15854,7 @@
         <v>1034.4000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="20">
         <v>2</v>
       </c>
@@ -15882,7 +15886,7 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="20">
         <v>2</v>
       </c>
@@ -15914,7 +15918,7 @@
         <v>1046.2</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="20">
         <v>2</v>
       </c>
@@ -15946,7 +15950,7 @@
         <v>959.2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="20">
         <v>2</v>
       </c>
@@ -15978,7 +15982,7 @@
         <v>989.1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="20">
         <v>2</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>985.7</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="20">
         <v>2</v>
       </c>
@@ -16042,7 +16046,7 @@
         <v>849.1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="20">
         <v>2</v>
       </c>
@@ -16074,7 +16078,7 @@
         <v>839.2</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="20">
         <v>2</v>
       </c>
@@ -16106,7 +16110,7 @@
         <v>869.4</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="20">
         <v>2</v>
       </c>
@@ -16138,7 +16142,7 @@
         <v>841.5</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="20">
         <v>2</v>
       </c>
@@ -16170,7 +16174,7 @@
         <v>849.7</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="20">
         <v>2</v>
       </c>
@@ -16202,7 +16206,7 @@
         <v>844.5</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="20">
         <v>2</v>
       </c>
@@ -16234,7 +16238,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="20">
         <v>2</v>
       </c>
@@ -16266,7 +16270,7 @@
         <v>850.2</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="20">
         <v>2</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>861.2</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="20">
         <v>2</v>
       </c>
@@ -16330,7 +16334,7 @@
         <v>822.8</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="20">
         <v>2</v>
       </c>
@@ -16365,7 +16369,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="20">
         <v>2</v>
       </c>
@@ -16397,7 +16401,7 @@
         <v>836.2</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="20">
         <v>2</v>
       </c>
@@ -16417,7 +16421,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="20">
         <v>2</v>
       </c>
@@ -16437,7 +16441,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="20">
         <v>2</v>
       </c>
@@ -16457,7 +16461,7 @@
         <v>405.95</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="20">
         <v>2</v>
       </c>
@@ -16492,7 +16496,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="20">
         <v>2</v>
       </c>
@@ -16524,7 +16528,7 @@
         <v>839.1</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="20">
         <v>2</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="20">
         <v>2</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>841.4</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="20">
         <v>2</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>849.5</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="20">
         <v>2</v>
       </c>
@@ -16652,7 +16656,7 @@
         <v>844.3</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="20">
         <v>2</v>
       </c>
@@ -16684,7 +16688,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="20">
         <v>2</v>
       </c>
@@ -16716,7 +16720,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="20">
         <v>2</v>
       </c>
@@ -16748,7 +16752,7 @@
         <v>985.5</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="20">
         <v>2</v>
       </c>
@@ -16780,7 +16784,7 @@
         <v>946.5</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="20">
         <v>2</v>
       </c>
@@ -16815,7 +16819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="20">
         <v>2</v>
       </c>
@@ -16850,7 +16854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="20">
         <v>2</v>
       </c>
@@ -16882,7 +16886,7 @@
         <v>836.2</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="20">
         <v>2</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="20">
         <v>2</v>
       </c>
@@ -16946,7 +16950,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="20">
         <v>2</v>
       </c>
@@ -16978,7 +16982,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="20">
         <v>2</v>
       </c>
@@ -17010,7 +17014,7 @@
         <v>839.1</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="20">
         <v>2</v>
       </c>
@@ -17042,7 +17046,7 @@
         <v>869.3</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="20">
         <v>2</v>
       </c>
@@ -17077,7 +17081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="20">
         <v>2</v>
       </c>
@@ -17109,7 +17113,7 @@
         <v>1018.3</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="20">
         <v>2</v>
       </c>
@@ -17144,7 +17148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="20">
         <v>2</v>
       </c>
@@ -17164,7 +17168,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="20">
         <v>2</v>
       </c>
@@ -17184,7 +17188,7 @@
         <v>826.9</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="20">
         <v>2</v>
       </c>
@@ -17205,6 +17209,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K421">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+        <filter val="exper"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1022017"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17213,7 +17230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+    <sheetView windowProtection="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
